--- a/src/evol.xlsx
+++ b/src/evol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="499">
   <si>
     <t>EvolTime</t>
   </si>
@@ -28,1447 +28,1489 @@
     <t>[0, 0.23333333333312112]</t>
   </si>
   <si>
-    <t>[0.23333333333312112, 321.77642332665073]</t>
-  </si>
-  <si>
-    <t>[321.77642332665073, 489.77642332665073]</t>
-  </si>
-  <si>
-    <t>[489.77642332665073, 969.1474556923913]</t>
-  </si>
-  <si>
-    <t>[969.1474556923913, 969.3807890257244]</t>
-  </si>
-  <si>
-    <t>[969.3807890257244, 1842.6209503468003]</t>
-  </si>
-  <si>
-    <t>[1842.6209503468003, 1843.2348834969675]</t>
-  </si>
-  <si>
-    <t>[1843.2348834969675, 4232.699631850379]</t>
-  </si>
-  <si>
-    <t>[4232.699631850379, 4234.011803384186]</t>
-  </si>
-  <si>
-    <t>[4234.011803384186, 4349.113140441832]</t>
-  </si>
-  <si>
-    <t>[4349.113140441832, 4350.438601188949]</t>
-  </si>
-  <si>
-    <t>[4350.438601188949, 13496.916961277928]</t>
-  </si>
-  <si>
-    <t>[13496.916961277928, 13497.150294611261]</t>
-  </si>
-  <si>
-    <t>[13497.150294611261, 15857.324375970724]</t>
-  </si>
-  <si>
-    <t>[15857.324375970724, 15857.557709304057]</t>
-  </si>
-  <si>
-    <t>[15857.557709304057, 17354.54437044209]</t>
-  </si>
-  <si>
-    <t>[17354.54437044209, 17354.777703775424]</t>
-  </si>
-  <si>
-    <t>[17354.777703775424, 19532.507641747157]</t>
-  </si>
-  <si>
-    <t>[19532.507641747157, 19532.74097508049]</t>
-  </si>
-  <si>
-    <t>[19532.74097508049, 20635.479935340503]</t>
-  </si>
-  <si>
-    <t>[20635.479935340503, 20635.713268673837]</t>
-  </si>
-  <si>
-    <t>[20635.713268673837, 21943.961819762557]</t>
-  </si>
-  <si>
-    <t>[21943.961819762557, 21944.19515309589]</t>
-  </si>
-  <si>
-    <t>[21944.19515309589, 22422.733409451164]</t>
-  </si>
-  <si>
-    <t>[22422.733409451164, 22590.733409451164]</t>
-  </si>
-  <si>
-    <t>[22590.733409451164, 25789.674999192634]</t>
-  </si>
-  <si>
-    <t>[25789.674999192634, 25789.908332525967]</t>
-  </si>
-  <si>
-    <t>[25789.908332525967, 30417.484074010477]</t>
-  </si>
-  <si>
-    <t>[30417.484074010477, 30585.484074010477]</t>
-  </si>
-  <si>
-    <t>[30585.484074010477, 32260.044615452753]</t>
-  </si>
-  <si>
-    <t>[32260.044615452753, 32260.277948786083]</t>
-  </si>
-  <si>
-    <t>[32260.277948786083, 36398.3972159598]</t>
-  </si>
-  <si>
-    <t>[36398.3972159598, 36398.63054929313]</t>
-  </si>
-  <si>
-    <t>[36398.63054929313, 41278.8475482855]</t>
-  </si>
-  <si>
-    <t>[41278.8475482855, 41279.08088161883]</t>
-  </si>
-  <si>
-    <t>[41279.08088161883, 42173.92104075941]</t>
-  </si>
-  <si>
-    <t>[42173.92104075941, 42177.49185849131]</t>
-  </si>
-  <si>
-    <t>[42177.49185849131, 44685.306959170164]</t>
-  </si>
-  <si>
-    <t>[44685.306959170164, 44686.81959346353]</t>
-  </si>
-  <si>
-    <t>[44686.81959346353, 56232.14589326939]</t>
-  </si>
-  <si>
-    <t>[56232.14589326939, 56232.37922660272]</t>
-  </si>
-  <si>
-    <t>[56232.37922660272, 57978.80160540326]</t>
-  </si>
-  <si>
-    <t>[57978.80160540326, 57979.581008255365]</t>
-  </si>
-  <si>
-    <t>[57979.581008255365, 62999.75601180108]</t>
-  </si>
-  <si>
-    <t>[62999.75601180108, 62999.98934513441]</t>
-  </si>
-  <si>
-    <t>[62999.98934513441, 66980.61723005466]</t>
-  </si>
-  <si>
-    <t>[66980.61723005466, 66980.850563388]</t>
-  </si>
-  <si>
-    <t>[66980.850563388, 68285.31927884479]</t>
-  </si>
-  <si>
-    <t>[68285.31927884479, 68285.55261217813]</t>
-  </si>
-  <si>
-    <t>[68285.55261217813, 72337.69649345329]</t>
-  </si>
-  <si>
-    <t>[72337.69649345329, 72337.92982678663]</t>
-  </si>
-  <si>
-    <t>[72337.92982678663, 72377.12505364303]</t>
-  </si>
-  <si>
-    <t>[72377.12505364303, 72377.35838697637]</t>
-  </si>
-  <si>
-    <t>[72377.35838697637, 73515.97171857303]</t>
-  </si>
-  <si>
-    <t>[73515.97171857303, 73516.20505190636]</t>
-  </si>
-  <si>
-    <t>[73516.20505190636, 74851.37802060702]</t>
-  </si>
-  <si>
-    <t>[74851.37802060702, 74851.61135394036]</t>
-  </si>
-  <si>
-    <t>[74851.61135394036, 74876.74224035998]</t>
-  </si>
-  <si>
-    <t>[74876.74224035998, 74876.97557369331]</t>
-  </si>
-  <si>
-    <t>[74876.97557369331, 78389.55200358777]</t>
-  </si>
-  <si>
-    <t>[78389.55200358777, 78390.42460621338]</t>
-  </si>
-  <si>
-    <t>[78390.42460621338, 79672.88234046214]</t>
-  </si>
-  <si>
-    <t>[79672.88234046214, 79673.11567379547]</t>
-  </si>
-  <si>
-    <t>[79673.11567379547, 87370.00197932962]</t>
-  </si>
-  <si>
-    <t>[87370.00197932962, 87370.23531266296]</t>
-  </si>
-  <si>
-    <t>[87370.23531266296, 90382.63941508792]</t>
-  </si>
-  <si>
-    <t>[90382.63941508792, 90550.63941508792]</t>
-  </si>
-  <si>
-    <t>[90550.63941508792, 90894.24139315338]</t>
-  </si>
-  <si>
-    <t>[90894.24139315338, 90894.47472648672]</t>
-  </si>
-  <si>
-    <t>[90894.47472648672, 94743.69579046607]</t>
-  </si>
-  <si>
-    <t>[94743.69579046607, 94911.69579046607]</t>
-  </si>
-  <si>
-    <t>[94911.69579046607, 95485.34493453396]</t>
-  </si>
-  <si>
-    <t>[95485.34493453396, 95485.5782678673]</t>
-  </si>
-  <si>
-    <t>[95485.5782678673, 99684.44695950625]</t>
-  </si>
-  <si>
-    <t>[99684.44695950625, 99684.68029283959]</t>
-  </si>
-  <si>
-    <t>[99684.68029283959, 101049.48357585249]</t>
-  </si>
-  <si>
-    <t>[101049.48357585249, 101049.71690918582]</t>
-  </si>
-  <si>
-    <t>[101049.71690918582, 109531.16646552141]</t>
-  </si>
-  <si>
-    <t>[109531.16646552141, 109531.39979885475]</t>
-  </si>
-  <si>
-    <t>[109531.39979885475, 117111.80325033401]</t>
-  </si>
-  <si>
-    <t>[117111.80325033401, 117112.03658366734]</t>
-  </si>
-  <si>
-    <t>[117112.03658366734, 134252.33139911096]</t>
-  </si>
-  <si>
-    <t>[134252.33139911096, 134256.6883185733]</t>
-  </si>
-  <si>
-    <t>[134256.6883185733, 145807.37552611338]</t>
-  </si>
-  <si>
-    <t>[145807.37552611338, 145807.60885944671]</t>
-  </si>
-  <si>
-    <t>[145807.60885944671, 173368.05658613148]</t>
-  </si>
-  <si>
-    <t>[173368.05658613148, 173368.28991946482]</t>
-  </si>
-  <si>
-    <t>[173368.28991946482, 176495.9480027604]</t>
-  </si>
-  <si>
-    <t>[176495.9480027604, 176496.18133609372]</t>
-  </si>
-  <si>
-    <t>[176496.18133609372, 177225.7979496249]</t>
-  </si>
-  <si>
-    <t>[177225.7979496249, 177226.03128295823]</t>
-  </si>
-  <si>
-    <t>[177226.03128295823, 179797.58072720148]</t>
-  </si>
-  <si>
-    <t>[179797.58072720148, 179797.81406053482]</t>
-  </si>
-  <si>
-    <t>[179797.81406053482, 186701.40046643268]</t>
-  </si>
-  <si>
-    <t>[186701.40046643268, 186701.63379976602]</t>
-  </si>
-  <si>
-    <t>[186701.63379976602, 191185.2785231313]</t>
-  </si>
-  <si>
-    <t>[191185.2785231313, 191185.51185646464]</t>
-  </si>
-  <si>
-    <t>[191185.51185646464, 192298.34809796358]</t>
-  </si>
-  <si>
-    <t>[192298.34809796358, 192298.92746824032]</t>
-  </si>
-  <si>
-    <t>[192298.92746824032, 197176.3403029927]</t>
-  </si>
-  <si>
-    <t>[197176.3403029927, 197176.57363632604]</t>
-  </si>
-  <si>
-    <t>[197176.57363632604, 204289.69919951225]</t>
-  </si>
-  <si>
-    <t>[204289.69919951225, 204291.14668865473]</t>
-  </si>
-  <si>
-    <t>[204291.14668865473, 216261.52386356273]</t>
-  </si>
-  <si>
-    <t>[216261.52386356273, 216261.75719689607]</t>
-  </si>
-  <si>
-    <t>[216261.75719689607, 220591.4198731614]</t>
-  </si>
-  <si>
-    <t>[220591.4198731614, 220591.65320649472]</t>
-  </si>
-  <si>
-    <t>[220591.65320649472, 223357.25190574813]</t>
-  </si>
-  <si>
-    <t>[223357.25190574813, 223357.48523908146]</t>
-  </si>
-  <si>
-    <t>[223357.48523908146, 228779.00893835837]</t>
-  </si>
-  <si>
-    <t>[228779.00893835837, 228779.2422716917]</t>
-  </si>
-  <si>
-    <t>[228779.2422716917, 233886.2359438016]</t>
-  </si>
-  <si>
-    <t>[233886.2359438016, 233886.46927713495]</t>
-  </si>
-  <si>
-    <t>[233886.46927713495, 237057.90044512585]</t>
-  </si>
-  <si>
-    <t>[237057.90044512585, 237058.1337784592]</t>
-  </si>
-  <si>
-    <t>[237058.1337784592, 239666.05568952547]</t>
-  </si>
-  <si>
-    <t>[239666.05568952547, 239666.2890228588]</t>
-  </si>
-  <si>
-    <t>[239666.2890228588, 239837.89404563385]</t>
-  </si>
-  <si>
-    <t>[239837.89404563385, 239838.12737896718]</t>
-  </si>
-  <si>
-    <t>[239838.12737896718, 244401.28317398217]</t>
-  </si>
-  <si>
-    <t>[244401.28317398217, 244401.5165073155]</t>
-  </si>
-  <si>
-    <t>[244401.5165073155, 249615.0108389926]</t>
-  </si>
-  <si>
-    <t>[249615.0108389926, 249615.24417232594]</t>
-  </si>
-  <si>
-    <t>[249615.24417232594, 260859.24286548013]</t>
-  </si>
-  <si>
-    <t>[260859.24286548013, 260859.47619881347]</t>
-  </si>
-  <si>
-    <t>[260859.47619881347, 262401.3224996169]</t>
-  </si>
-  <si>
-    <t>[262401.3224996169, 262401.5558329502]</t>
-  </si>
-  <si>
-    <t>[262401.5558329502, 264993.37815095566]</t>
-  </si>
-  <si>
-    <t>[264993.37815095566, 264993.611484289]</t>
-  </si>
-  <si>
-    <t>[264993.611484289, 267824.734769715]</t>
-  </si>
-  <si>
-    <t>[267824.734769715, 267824.96810304833]</t>
-  </si>
-  <si>
-    <t>[267824.96810304833, 274323.1644058319]</t>
-  </si>
-  <si>
-    <t>[274323.1644058319, 274323.39773916523]</t>
-  </si>
-  <si>
-    <t>[274323.39773916523, 276742.8848224432]</t>
-  </si>
-  <si>
-    <t>[276742.8848224432, 276743.1181557765]</t>
-  </si>
-  <si>
-    <t>[276743.1181557765, 286407.2679779086]</t>
-  </si>
-  <si>
-    <t>[286407.2679779086, 286407.50131124194]</t>
-  </si>
-  <si>
-    <t>[286407.50131124194, 297013.9600074323]</t>
-  </si>
-  <si>
-    <t>[297013.9600074323, 297014.19334076566]</t>
-  </si>
-  <si>
-    <t>[297014.19334076566, 298198.4826139317]</t>
-  </si>
-  <si>
-    <t>[298198.4826139317, 298198.71594726504]</t>
-  </si>
-  <si>
-    <t>[298198.71594726504, 301227.4291327054]</t>
-  </si>
-  <si>
-    <t>[301227.4291327054, 301227.6624660387]</t>
-  </si>
-  <si>
-    <t>[301227.6624660387, 324447.1750478625]</t>
-  </si>
-  <si>
-    <t>[324447.1750478625, 324447.40838119586]</t>
-  </si>
-  <si>
-    <t>[324447.40838119586, 366662.43471288803]</t>
-  </si>
-  <si>
-    <t>[366662.43471288803, 366662.66804622137]</t>
-  </si>
-  <si>
-    <t>[366662.66804622137, 371057.45164512884]</t>
-  </si>
-  <si>
-    <t>[371057.45164512884, 371057.6849784622]</t>
-  </si>
-  <si>
-    <t>[371057.6849784622, 385787.85901383014]</t>
-  </si>
-  <si>
-    <t>[385787.85901383014, 385955.85901383014]</t>
-  </si>
-  <si>
-    <t>[385955.85901383014, 398986.6769960585]</t>
-  </si>
-  <si>
-    <t>[398986.6769960585, 398986.91032939183]</t>
-  </si>
-  <si>
-    <t>[398986.91032939183, 406486.8584325028]</t>
-  </si>
-  <si>
-    <t>[406486.8584325028, 406487.0917658361]</t>
-  </si>
-  <si>
-    <t>[406487.0917658361, 412747.5286261488]</t>
-  </si>
-  <si>
-    <t>[412747.5286261488, 412749.92797752615]</t>
-  </si>
-  <si>
-    <t>[412749.92797752615, 420051.55218998494]</t>
-  </si>
-  <si>
-    <t>[420051.55218998494, 420051.7855233183]</t>
-  </si>
-  <si>
-    <t>[420051.7855233183, 439346.2326559435]</t>
-  </si>
-  <si>
-    <t>[439346.2326559435, 439346.4659892768]</t>
-  </si>
-  <si>
-    <t>[439346.4659892768, 439377.2143705129]</t>
-  </si>
-  <si>
-    <t>[439377.2143705129, 439377.44770384626]</t>
-  </si>
-  <si>
-    <t>[439377.44770384626, 457653.39524552296]</t>
-  </si>
-  <si>
-    <t>[457653.39524552296, 457653.6285788563]</t>
-  </si>
-  <si>
-    <t>[457653.6285788563, 462114.78148765955]</t>
-  </si>
-  <si>
-    <t>[462114.78148765955, 462115.0148209929]</t>
-  </si>
-  <si>
-    <t>[462115.0148209929, 472962.1321327614]</t>
-  </si>
-  <si>
-    <t>[472962.1321327614, 472963.8620922038]</t>
-  </si>
-  <si>
-    <t>[472963.8620922038, 497096.19760687964]</t>
-  </si>
-  <si>
-    <t>[497096.19760687964, 497096.430940213]</t>
-  </si>
-  <si>
-    <t>[497096.430940213, 500646.4963891347]</t>
-  </si>
-  <si>
-    <t>[500646.4963891347, 500646.72972246807]</t>
-  </si>
-  <si>
-    <t>[500646.72972246807, 505373.8394803423]</t>
-  </si>
-  <si>
-    <t>[505373.8394803423, 505374.0728136756]</t>
-  </si>
-  <si>
-    <t>[505374.0728136756, 506170.95597444574]</t>
-  </si>
-  <si>
-    <t>[506170.95597444574, 506171.1893077791]</t>
-  </si>
-  <si>
-    <t>[506171.1893077791, 519057.62702361605]</t>
-  </si>
-  <si>
-    <t>[519057.62702361605, 519057.8603569494]</t>
-  </si>
-  <si>
-    <t>[519057.8603569494, 530703.5020070116]</t>
-  </si>
-  <si>
-    <t>[530703.5020070116, 530703.7353403448]</t>
-  </si>
-  <si>
-    <t>[530703.7353403448, 532520.5824416272]</t>
-  </si>
-  <si>
-    <t>[532520.5824416272, 532520.8157749604]</t>
-  </si>
-  <si>
-    <t>[532520.8157749604, 535625.7681447892]</t>
-  </si>
-  <si>
-    <t>[535625.7681447892, 535626.0014781224]</t>
-  </si>
-  <si>
-    <t>[535626.0014781224, 541039.4026173758]</t>
-  </si>
-  <si>
-    <t>[541039.4026173758, 541039.6359507091]</t>
-  </si>
-  <si>
-    <t>[541039.6359507091, 566457.3429584458]</t>
-  </si>
-  <si>
-    <t>[566457.3429584458, 566460.8111898394]</t>
-  </si>
-  <si>
-    <t>[566460.8111898394, 586214.6978356602]</t>
-  </si>
-  <si>
-    <t>[586214.6978356602, 586215.9940789016]</t>
-  </si>
-  <si>
-    <t>[586215.9940789016, 630182.5736654195]</t>
-  </si>
-  <si>
-    <t>[630182.5736654195, 630350.5736654195]</t>
-  </si>
-  <si>
-    <t>[630350.5736654195, 653617.0586755236]</t>
-  </si>
-  <si>
-    <t>[653617.0586755236, 653617.2920088569]</t>
-  </si>
-  <si>
-    <t>[653617.2920088569, 656745.677620654]</t>
-  </si>
-  <si>
-    <t>[656745.677620654, 656749.1911188303]</t>
-  </si>
-  <si>
-    <t>[656749.1911188303, 686581.2881697868]</t>
-  </si>
-  <si>
-    <t>[686581.2881697868, 686584.5694636843]</t>
-  </si>
-  <si>
-    <t>[686584.5694636843, 743833.8023172392]</t>
-  </si>
-  <si>
-    <t>[743833.8023172392, 743834.0356505725]</t>
-  </si>
-  <si>
-    <t>[743834.0356505725, 777065.8148716519]</t>
-  </si>
-  <si>
-    <t>[777065.8148716519, 777066.0482049852]</t>
-  </si>
-  <si>
-    <t>[777066.0482049852, 780044.4277218366]</t>
-  </si>
-  <si>
-    <t>[780044.4277218366, 780044.6610551699]</t>
-  </si>
-  <si>
-    <t>[780044.6610551699, 793188.9503930407]</t>
-  </si>
-  <si>
-    <t>[793188.9503930407, 793192.1435907745]</t>
-  </si>
-  <si>
-    <t>[793192.1435907745, 793535.4755067242]</t>
-  </si>
-  <si>
-    <t>[793535.4755067242, 793535.7088400575]</t>
-  </si>
-  <si>
-    <t>[793535.7088400575, 821715.7136460688]</t>
-  </si>
-  <si>
-    <t>[821715.7136460688, 821715.9469794021]</t>
-  </si>
-  <si>
-    <t>[821715.9469794021, 875028.5416393395]</t>
-  </si>
-  <si>
-    <t>[875028.5416393395, 875028.7749726728]</t>
-  </si>
-  <si>
-    <t>[875028.7749726728, 954906.9576089816]</t>
-  </si>
-  <si>
-    <t>[954906.9576089816, 954907.1909423149]</t>
-  </si>
-  <si>
-    <t>[954907.1909423149, 979811.0485434624]</t>
-  </si>
-  <si>
-    <t>[979811.0485434624, 979811.2818767957]</t>
-  </si>
-  <si>
-    <t>[979811.2818767957, 1028052.6156737645]</t>
-  </si>
-  <si>
-    <t>[1028052.6156737645, 1028057.549397667]</t>
-  </si>
-  <si>
-    <t>[1028057.549397667, 1097110.2538559162]</t>
-  </si>
-  <si>
-    <t>[1097110.2538559162, 1097113.090873084]</t>
-  </si>
-  <si>
-    <t>[1097113.090873084, 1144265.5838512592]</t>
-  </si>
-  <si>
-    <t>[1144265.5838512592, 1144265.8171845926]</t>
-  </si>
-  <si>
-    <t>[1144265.8171845926, 1167153.0722034234]</t>
-  </si>
-  <si>
-    <t>[1167153.0722034234, 1167155.7774750025]</t>
-  </si>
-  <si>
-    <t>[1167155.7774750025, 1193735.9773972477]</t>
-  </si>
-  <si>
-    <t>[1193735.9773972477, 1193736.210730581]</t>
-  </si>
-  <si>
-    <t>[1193736.210730581, 1234441.5945220531]</t>
-  </si>
-  <si>
-    <t>[1234441.5945220531, 1234444.6003189713]</t>
-  </si>
-  <si>
-    <t>[1234444.6003189713, 1244438.4444333988]</t>
-  </si>
-  <si>
-    <t>[1244438.4444333988, 1244444.6414601908]</t>
-  </si>
-  <si>
-    <t>[1244444.6414601908, 1284615.1890203361]</t>
-  </si>
-  <si>
-    <t>[1284615.1890203361, 1284615.922276449]</t>
-  </si>
-  <si>
-    <t>[1284615.922276449, 1323771.4802671554]</t>
-  </si>
-  <si>
-    <t>[1323771.4802671554, 1323772.1632263244]</t>
-  </si>
-  <si>
-    <t>[1323772.1632263244, 1361595.914826996]</t>
-  </si>
-  <si>
-    <t>[1361595.914826996, 1361596.591704857]</t>
-  </si>
-  <si>
-    <t>[1361596.591704857, 1397739.370171798]</t>
-  </si>
-  <si>
-    <t>[1397739.370171798, 1397739.6035051313]</t>
-  </si>
-  <si>
-    <t>[1397739.6035051313, 1439101.600804343]</t>
-  </si>
-  <si>
-    <t>[1439101.600804343, 1439105.0543292616]</t>
-  </si>
-  <si>
-    <t>[1439105.0543292616, 1472606.9995736957]</t>
-  </si>
-  <si>
-    <t>[1472606.9995736957, 1472611.314427376]</t>
-  </si>
-  <si>
-    <t>[1472611.314427376, 1510914.3326093794]</t>
-  </si>
-  <si>
-    <t>[1510914.3326093794, 1510922.158243599]</t>
-  </si>
-  <si>
-    <t>[1510922.158243599, 1543479.3842365332]</t>
-  </si>
-  <si>
-    <t>[1543479.3842365332, 1543482.24192756]</t>
-  </si>
-  <si>
-    <t>[1543482.24192756, 1614099.9700709695]</t>
-  </si>
-  <si>
-    <t>[1614099.9700709695, 1614104.8457023802]</t>
-  </si>
-  <si>
-    <t>[1614104.8457023802, 1669410.7241626978]</t>
-  </si>
-  <si>
-    <t>[1669410.7241626978, 1669411.4808676222]</t>
-  </si>
-  <si>
-    <t>[1669411.4808676222, 1733980.9525388048]</t>
-  </si>
-  <si>
-    <t>[1733980.9525388048, 1733981.7515432418]</t>
-  </si>
-  <si>
-    <t>[1733981.7515432418, 1796299.1787748518]</t>
-  </si>
-  <si>
-    <t>[1796299.1787748518, 1796300.8373567553]</t>
-  </si>
-  <si>
-    <t>[1796300.8373567553, 1800937.9871982285]</t>
-  </si>
-  <si>
-    <t>[1800937.9871982285, 1800946.725318823]</t>
-  </si>
-  <si>
-    <t>[1800946.725318823, 1978577.423591848]</t>
-  </si>
-  <si>
-    <t>[1978577.423591848, 1978584.6208272371]</t>
-  </si>
-  <si>
-    <t>[1978584.6208272371, 2097195.8758089]</t>
-  </si>
-  <si>
-    <t>[2097195.8758089, 2097198.03848755]</t>
-  </si>
-  <si>
-    <t>[2097198.03848755, 2111795.419064586]</t>
-  </si>
-  <si>
-    <t>[2111795.419064586, 2111797.342631681]</t>
-  </si>
-  <si>
-    <t>[2111797.342631681, 2152887.4043865935]</t>
-  </si>
-  <si>
-    <t>[2152887.4043865935, 2152888.096179113]</t>
-  </si>
-  <si>
-    <t>[2152888.096179113, 2155028.2265475513]</t>
-  </si>
-  <si>
-    <t>[2155028.2265475513, 2155028.994779004]</t>
-  </si>
-  <si>
-    <t>[2155028.994779004, 2267108.353557653]</t>
-  </si>
-  <si>
-    <t>[2267108.353557653, 2267113.527421635]</t>
-  </si>
-  <si>
-    <t>[2267113.527421635, 2287341.495214826]</t>
-  </si>
-  <si>
-    <t>[2287341.495214826, 2287347.434214389]</t>
-  </si>
-  <si>
-    <t>[2287347.434214389, 2287714.275456655]</t>
-  </si>
-  <si>
-    <t>[2287714.275456655, 2287718.654551272]</t>
-  </si>
-  <si>
-    <t>[2287718.654551272, 2338350.082489879]</t>
-  </si>
-  <si>
-    <t>[2338350.082489879, 2338350.8178502806]</t>
-  </si>
-  <si>
-    <t>[2338350.8178502806, 2452813.15766321]</t>
-  </si>
-  <si>
-    <t>[2452813.15766321, 2452814.417381125]</t>
-  </si>
-  <si>
-    <t>[2452814.417381125, 2513679.554298867]</t>
-  </si>
-  <si>
-    <t>[2513679.554298867, 2513681.705915114]</t>
-  </si>
-  <si>
-    <t>[2513681.705915114, 2551353.3702003486]</t>
-  </si>
-  <si>
-    <t>[2551353.3702003486, 2551355.6840673597]</t>
-  </si>
-  <si>
-    <t>[2551355.6840673597, 2618516.799202834]</t>
-  </si>
-  <si>
-    <t>[2618516.799202834, 2618518.5826662187]</t>
-  </si>
-  <si>
-    <t>[2618518.5826662187, 2834219.707595268]</t>
-  </si>
-  <si>
-    <t>[2834219.707595268, 2834221.50337848]</t>
-  </si>
-  <si>
-    <t>[2834221.50337848, 2848741.2383612734]</t>
-  </si>
-  <si>
-    <t>[2848741.2383612734, 2848743.2724801432]</t>
-  </si>
-  <si>
-    <t>[2848743.2724801432, 2996796.31769045]</t>
-  </si>
-  <si>
-    <t>[2996796.31769045, 2996797.4978984194]</t>
-  </si>
-  <si>
-    <t>[2996797.4978984194, 3033244.7416512356]</t>
-  </si>
-  <si>
-    <t>[3033244.7416512356, 3033250.893963584]</t>
-  </si>
-  <si>
-    <t>[3033250.893963584, 3089749.9648835217]</t>
-  </si>
-  <si>
-    <t>[3089749.9648835217, 3089751.635846816]</t>
-  </si>
-  <si>
-    <t>[3089751.635846816, 3190539.571287074]</t>
-  </si>
-  <si>
-    <t>[3190539.571287074, 3190540.9601207427]</t>
-  </si>
-  <si>
-    <t>[3190540.9601207427, 3363245.186357516]</t>
-  </si>
-  <si>
-    <t>[3363245.186357516, 3363247.1973474356]</t>
-  </si>
-  <si>
-    <t>[3363247.1973474356, 3368425.157988515]</t>
-  </si>
-  <si>
-    <t>[3368425.157988515, 3368429.0863861195]</t>
-  </si>
-  <si>
-    <t>[3368429.0863861195, 3465959.107437593]</t>
-  </si>
-  <si>
-    <t>[3465959.107437593, 3465961.3294465956]</t>
-  </si>
-  <si>
-    <t>[3465961.3294465956, 3468826.623606479]</t>
-  </si>
-  <si>
-    <t>[3468826.623606479, 3468827.6098709824]</t>
-  </si>
-  <si>
-    <t>[3468827.6098709824, 3477830.1020550183]</t>
-  </si>
-  <si>
-    <t>[3477830.1020550183, 3477831.918044251]</t>
-  </si>
-  <si>
-    <t>[3477831.918044251, 3500700.375830984]</t>
-  </si>
-  <si>
-    <t>[3500700.375830984, 3500700.9844198325]</t>
-  </si>
-  <si>
-    <t>[3500700.9844198325, 3504097.66474141]</t>
-  </si>
-  <si>
-    <t>[3504097.66474141, 3504098.343046594]</t>
-  </si>
-  <si>
-    <t>[3504098.343046594, 3538676.2042878685]</t>
-  </si>
-  <si>
-    <t>[3538676.2042878685, 3538677.4858386354]</t>
-  </si>
-  <si>
-    <t>[3538677.4858386354, 3949486.9413929563]</t>
-  </si>
-  <si>
-    <t>[3949486.9413929563, 3949499.262410535]</t>
-  </si>
-  <si>
-    <t>[3949499.262410535, 4035084.645805295]</t>
-  </si>
-  <si>
-    <t>[4035084.645805295, 4035087.5900800047]</t>
-  </si>
-  <si>
-    <t>[4035087.5900800047, 4157169.312193883]</t>
-  </si>
-  <si>
-    <t>[4157169.312193883, 4157178.446752261]</t>
-  </si>
-  <si>
-    <t>[4157178.446752261, 4207587.8138005445]</t>
-  </si>
-  <si>
-    <t>[4207587.8138005445, 4207589.496453747]</t>
-  </si>
-  <si>
-    <t>[4207589.496453747, 4234746.062680484]</t>
-  </si>
-  <si>
-    <t>[4234746.062680484, 4234746.690849736]</t>
-  </si>
-  <si>
-    <t>[4234746.690849736, 4241559.582747145]</t>
-  </si>
-  <si>
-    <t>[4241559.582747145, 4241560.472215802]</t>
-  </si>
-  <si>
-    <t>[4241560.472215802, 4321209.419542151]</t>
-  </si>
-  <si>
-    <t>[4321209.419542151, 4321210.287402641]</t>
-  </si>
-  <si>
-    <t>[4321210.287402641, 4360699.057820715]</t>
-  </si>
-  <si>
-    <t>[4360699.057820715, 4360703.4734061705]</t>
-  </si>
-  <si>
-    <t>[4360703.4734061705, 4366280.291000269]</t>
-  </si>
-  <si>
-    <t>[4366280.291000269, 4366284.893124384]</t>
-  </si>
-  <si>
-    <t>[4366284.893124384, 4441633.3203580035]</t>
-  </si>
-  <si>
-    <t>[4441633.3203580035, 4441634.374401533]</t>
-  </si>
-  <si>
-    <t>[4441634.374401533, 4665480.323356041]</t>
-  </si>
-  <si>
-    <t>[4665480.323356041, 4665482.794342947]</t>
-  </si>
-  <si>
-    <t>[4665482.794342947, 4673144.9078402575]</t>
-  </si>
-  <si>
-    <t>[4673144.9078402575, 4673155.550502314]</t>
-  </si>
-  <si>
-    <t>[4673155.550502314, 4686695.940094138]</t>
-  </si>
-  <si>
-    <t>[4686695.940094138, 4686699.419641398]</t>
-  </si>
-  <si>
-    <t>[4686699.419641398, 4740262.136929995]</t>
-  </si>
-  <si>
-    <t>[4740262.136929995, 4740262.982554847]</t>
-  </si>
-  <si>
-    <t>[4740262.982554847, 4779001.587363027]</t>
-  </si>
-  <si>
-    <t>[4779001.587363027, 4779003.632019251]</t>
-  </si>
-  <si>
-    <t>[4779003.632019251, 4799179.855836932]</t>
-  </si>
-  <si>
-    <t>[4799179.855836932, 4799182.336692926]</t>
-  </si>
-  <si>
-    <t>[4799182.336692926, 4873582.518364779]</t>
-  </si>
-  <si>
-    <t>[4873582.518364779, 4873583.875878928]</t>
-  </si>
-  <si>
-    <t>[4873583.875878928, 4947998.590092054]</t>
-  </si>
-  <si>
-    <t>[4947998.590092054, 4948005.529514904]</t>
-  </si>
-  <si>
-    <t>[4948005.529514904, 5049588.355025468]</t>
-  </si>
-  <si>
-    <t>[5049588.355025468, 5049589.662865556]</t>
-  </si>
-  <si>
-    <t>[5049589.662865556, 5080711.620860259]</t>
-  </si>
-  <si>
-    <t>[5080711.620860259, 5080713.410548771]</t>
-  </si>
-  <si>
-    <t>[5080713.410548771, 5164157.580306789]</t>
-  </si>
-  <si>
-    <t>[5164157.580306789, 5164158.465497062]</t>
-  </si>
-  <si>
-    <t>[5164158.465497062, 5165509.900460055]</t>
-  </si>
-  <si>
-    <t>[5165509.900460055, 5165514.079541914]</t>
-  </si>
-  <si>
-    <t>[5165514.079541914, 5284924.032415313]</t>
-  </si>
-  <si>
-    <t>[5284924.032415313, 5284926.075022632]</t>
-  </si>
-  <si>
-    <t>[5284926.075022632, 5418572.143878519]</t>
-  </si>
-  <si>
-    <t>[5418572.143878519, 5418573.803561461]</t>
-  </si>
-  <si>
-    <t>[5418573.803561461, 5486509.92725952]</t>
-  </si>
-  <si>
-    <t>[5486509.92725952, 5486513.662048539]</t>
-  </si>
-  <si>
-    <t>[5486513.662048539, 5487839.102095665]</t>
-  </si>
-  <si>
-    <t>[5487839.102095665, 5487843.019851919]</t>
-  </si>
-  <si>
-    <t>[5487843.019851919, 5547215.996153181]</t>
-  </si>
-  <si>
-    <t>[5547215.996153181, 5547220.491463436]</t>
-  </si>
-  <si>
-    <t>[5547220.491463436, 5565011.714930645]</t>
-  </si>
-  <si>
-    <t>[5565011.714930645, 5565013.498027175]</t>
-  </si>
-  <si>
-    <t>[5565013.498027175, 5567799.006489739]</t>
-  </si>
-  <si>
-    <t>[5567799.006489739, 5567801.353763899]</t>
-  </si>
-  <si>
-    <t>[5567801.353763899, 5591406.557076054]</t>
-  </si>
-  <si>
-    <t>[5591406.557076054, 5591409.535292465]</t>
-  </si>
-  <si>
-    <t>[5591409.535292465, 5726321.33946235]</t>
-  </si>
-  <si>
-    <t>[5726321.33946235, 5726322.661441108]</t>
-  </si>
-  <si>
-    <t>[5726322.661441108, 5833437.786440993]</t>
-  </si>
-  <si>
-    <t>[5833437.786440993, 5833440.184963746]</t>
-  </si>
-  <si>
-    <t>[5833440.184963746, 5915366.15174017]</t>
-  </si>
-  <si>
-    <t>[5915366.15174017, 5915367.029998009]</t>
-  </si>
-  <si>
-    <t>[5915367.029998009, 6005233.494066934]</t>
-  </si>
-  <si>
-    <t>[6005233.494066934, 6005236.360747182]</t>
-  </si>
-  <si>
-    <t>[6005236.360747182, 6006039.856045561]</t>
-  </si>
-  <si>
-    <t>[6006039.856045561, 6006042.361301279]</t>
-  </si>
-  <si>
-    <t>[6006042.361301279, 6083246.957816287]</t>
-  </si>
-  <si>
-    <t>[6083246.957816287, 6083248.228557967]</t>
-  </si>
-  <si>
-    <t>[6083248.228557967, 6139552.632388086]</t>
-  </si>
-  <si>
-    <t>[6139552.632388086, 6139555.760021119]</t>
-  </si>
-  <si>
-    <t>[6139555.760021119, 6165873.524855612]</t>
-  </si>
-  <si>
-    <t>[6165873.524855612, 6165874.762525311]</t>
-  </si>
-  <si>
-    <t>[6165874.762525311, 6169288.744707899]</t>
-  </si>
-  <si>
-    <t>[6169288.744707899, 6169289.994291842]</t>
-  </si>
-  <si>
-    <t>[6169289.994291842, 6175058.755650238]</t>
-  </si>
-  <si>
-    <t>[6175058.755650238, 6175061.924881838]</t>
-  </si>
-  <si>
-    <t>[6175061.924881838, 6219241.035068562]</t>
-  </si>
-  <si>
-    <t>[6219241.035068562, 6219241.767322173]</t>
-  </si>
-  <si>
-    <t>[6219241.767322173, 6313101.9626273]</t>
-  </si>
-  <si>
-    <t>[6313101.9626273, 6313103.139064287]</t>
-  </si>
-  <si>
-    <t>[6313103.139064287, 6313861.268880727]</t>
-  </si>
-  <si>
-    <t>[6313861.268880727, 6313864.455872085]</t>
-  </si>
-  <si>
-    <t>[6313864.455872085, 6340370.03540717]</t>
-  </si>
-  <si>
-    <t>[6340370.03540717, 6340374.438461386]</t>
-  </si>
-  <si>
-    <t>[6340374.438461386, 6402428.342108555]</t>
-  </si>
-  <si>
-    <t>[6402428.342108555, 6402429.254152861]</t>
-  </si>
-  <si>
-    <t>[6402429.254152861, 6422961.938662286]</t>
-  </si>
-  <si>
-    <t>[6422961.938662286, 6422962.819940826]</t>
-  </si>
-  <si>
-    <t>[6422962.819940826, 6470029.376893634]</t>
-  </si>
-  <si>
-    <t>[6470029.376893634, 6470031.647184266]</t>
-  </si>
-  <si>
-    <t>[6470031.647184266, 6504572.756525575]</t>
-  </si>
-  <si>
-    <t>[6504572.756525575, 6504574.563573471]</t>
-  </si>
-  <si>
-    <t>[6504574.563573471, 6617675.820203831]</t>
-  </si>
-  <si>
-    <t>[6617675.820203831, 6617678.345438513]</t>
-  </si>
-  <si>
-    <t>[6617678.345438513, 6622628.163149669]</t>
-  </si>
-  <si>
-    <t>[6622628.163149669, 6622630.077196278]</t>
-  </si>
-  <si>
-    <t>[6622630.077196278, 6668237.871010804]</t>
-  </si>
-  <si>
-    <t>[6668237.871010804, 6668238.583432237]</t>
-  </si>
-  <si>
-    <t>[6668238.583432237, 7164036.559830795]</t>
-  </si>
-  <si>
-    <t>[7164036.559830795, 7164040.075239453]</t>
-  </si>
-  <si>
-    <t>[7164040.075239453, 7244782.057606304]</t>
-  </si>
-  <si>
-    <t>[7244782.057606304, 7244786.314372229]</t>
-  </si>
-  <si>
-    <t>[7244786.314372229, 7295595.728112554]</t>
-  </si>
-  <si>
-    <t>[7295595.728112554, 7295599.327792384]</t>
-  </si>
-  <si>
-    <t>[7295599.327792384, 7412326.806439017]</t>
-  </si>
-  <si>
-    <t>[7412326.806439017, 7412327.843607869]</t>
-  </si>
-  <si>
-    <t>[7412327.843607869, 7416504.2148999525]</t>
-  </si>
-  <si>
-    <t>[7416504.2148999525, 7416504.738136807]</t>
-  </si>
-  <si>
-    <t>[7416504.738136807, 7555277.558395223]</t>
-  </si>
-  <si>
-    <t>[7555277.558395223, 7555278.696227735]</t>
-  </si>
-  <si>
-    <t>[7555278.696227735, 7562004.0517832115]</t>
-  </si>
-  <si>
-    <t>[7562004.0517832115, 7562006.373136986]</t>
-  </si>
-  <si>
-    <t>[7562006.373136986, 7739768.495298986]</t>
-  </si>
-  <si>
-    <t>[7739768.495298986, 7739771.25965826]</t>
-  </si>
-  <si>
-    <t>[7739771.25965826, 7781330.209350022]</t>
-  </si>
-  <si>
-    <t>[7781330.209350022, 7781338.210203672]</t>
-  </si>
-  <si>
-    <t>[7781338.210203672, 7843295.142647733]</t>
-  </si>
-  <si>
-    <t>[7843295.142647733, 7843296.119526194]</t>
-  </si>
-  <si>
-    <t>[7843296.119526194, 7876469.075484266]</t>
-  </si>
-  <si>
-    <t>[7876469.075484266, 7876475.096685142]</t>
-  </si>
-  <si>
-    <t>[7876475.096685142, 7999912.990366289]</t>
-  </si>
-  <si>
-    <t>[7999912.990366289, 7999920.78897924]</t>
-  </si>
-  <si>
-    <t>[7999920.78897924, 8165925.260645627]</t>
-  </si>
-  <si>
-    <t>[8165925.260645627, 8165926.52282358]</t>
-  </si>
-  <si>
-    <t>[8165926.52282358, 8172862.826288761]</t>
-  </si>
-  <si>
-    <t>[8172862.826288761, 8172871.105940264]</t>
-  </si>
-  <si>
-    <t>[8172871.105940264, 8192496.887168959]</t>
-  </si>
-  <si>
-    <t>[8192496.887168959, 8192498.8343575]</t>
-  </si>
-  <si>
-    <t>[8192498.8343575, 8219056.421371399]</t>
-  </si>
-  <si>
-    <t>[8219056.421371399, 8219057.136429917]</t>
-  </si>
-  <si>
-    <t>[8219057.136429917, 8299159.960401079]</t>
-  </si>
-  <si>
-    <t>[8299159.960401079, 8299163.8305658605]</t>
-  </si>
-  <si>
-    <t>[8299163.8305658605, 8321904.333016111]</t>
-  </si>
-  <si>
-    <t>[8321904.333016111, 8321905.428075465]</t>
-  </si>
-  <si>
-    <t>[8321905.428075465, 8337809.380341001]</t>
-  </si>
-  <si>
-    <t>[8337809.380341001, 8337809.957128454]</t>
-  </si>
-  <si>
-    <t>[8337809.957128454, 8443006.57404607]</t>
-  </si>
-  <si>
-    <t>[8443006.57404607, 8443011.13176469]</t>
-  </si>
-  <si>
-    <t>[8443011.13176469, 8757702.076995693]</t>
+    <t>[0.23333333333312112, 22.647874942276758]</t>
+  </si>
+  <si>
+    <t>[22.647874942276758, 190.64787494227676]</t>
+  </si>
+  <si>
+    <t>[190.64787494227676, 5519.887466616554]</t>
+  </si>
+  <si>
+    <t>[5519.887466616554, 5520.120799949887]</t>
+  </si>
+  <si>
+    <t>[5520.120799949887, 7076.724660406319]</t>
+  </si>
+  <si>
+    <t>[7076.724660406319, 7076.957993739653]</t>
+  </si>
+  <si>
+    <t>[7076.957993739653, 7694.642125316122]</t>
+  </si>
+  <si>
+    <t>[7694.642125316122, 7694.875458649455]</t>
+  </si>
+  <si>
+    <t>[7694.875458649455, 9713.02613657483]</t>
+  </si>
+  <si>
+    <t>[9713.02613657483, 9714.983196028956]</t>
+  </si>
+  <si>
+    <t>[9714.983196028956, 10651.484536940034]</t>
+  </si>
+  <si>
+    <t>[10651.484536940034, 10651.717870273367]</t>
+  </si>
+  <si>
+    <t>[10651.717870273367, 12356.402996555715]</t>
+  </si>
+  <si>
+    <t>[12356.402996555715, 12356.636329889048]</t>
+  </si>
+  <si>
+    <t>[12356.636329889048, 13912.2275538972]</t>
+  </si>
+  <si>
+    <t>[13912.2275538972, 13912.460887230534]</t>
+  </si>
+  <si>
+    <t>[13912.460887230534, 14041.749395688195]</t>
+  </si>
+  <si>
+    <t>[14041.749395688195, 14041.982729021529]</t>
+  </si>
+  <si>
+    <t>[14041.982729021529, 14112.99012912111]</t>
+  </si>
+  <si>
+    <t>[14112.99012912111, 14113.223462454444]</t>
+  </si>
+  <si>
+    <t>[14113.223462454444, 16812.467287914777]</t>
+  </si>
+  <si>
+    <t>[16812.467287914777, 16812.70062124811]</t>
+  </si>
+  <si>
+    <t>[16812.70062124811, 18298.67503407857]</t>
+  </si>
+  <si>
+    <t>[18298.67503407857, 18298.908367411903]</t>
+  </si>
+  <si>
+    <t>[18298.908367411903, 19688.3326475282]</t>
+  </si>
+  <si>
+    <t>[19688.3326475282, 19688.565980861535]</t>
+  </si>
+  <si>
+    <t>[19688.565980861535, 20039.312824494762]</t>
+  </si>
+  <si>
+    <t>[20039.312824494762, 20039.546157828096]</t>
+  </si>
+  <si>
+    <t>[20039.546157828096, 20048.294307937093]</t>
+  </si>
+  <si>
+    <t>[20048.294307937093, 20048.527641270426]</t>
+  </si>
+  <si>
+    <t>[20048.527641270426, 20938.59860716596]</t>
+  </si>
+  <si>
+    <t>[20938.59860716596, 20938.831940499294]</t>
+  </si>
+  <si>
+    <t>[20938.831940499294, 22722.7943196725]</t>
+  </si>
+  <si>
+    <t>[22722.7943196725, 22890.7943196725]</t>
+  </si>
+  <si>
+    <t>[22890.7943196725, 26141.025373985605]</t>
+  </si>
+  <si>
+    <t>[26141.025373985605, 26141.25870731894]</t>
+  </si>
+  <si>
+    <t>[26141.25870731894, 28739.77678349318]</t>
+  </si>
+  <si>
+    <t>[28739.77678349318, 28907.77678349318]</t>
+  </si>
+  <si>
+    <t>[28907.77678349318, 29023.738717003183]</t>
+  </si>
+  <si>
+    <t>[29023.738717003183, 29023.972050336517]</t>
+  </si>
+  <si>
+    <t>[29023.972050336517, 29267.405802363264]</t>
+  </si>
+  <si>
+    <t>[29267.405802363264, 29267.639135696598]</t>
+  </si>
+  <si>
+    <t>[29267.639135696598, 29970.436819128237]</t>
+  </si>
+  <si>
+    <t>[29970.436819128237, 29970.67015246157]</t>
+  </si>
+  <si>
+    <t>[29970.67015246157, 30568.624913515665]</t>
+  </si>
+  <si>
+    <t>[30568.624913515665, 30736.624913515665]</t>
+  </si>
+  <si>
+    <t>[30736.624913515665, 31067.691484568833]</t>
+  </si>
+  <si>
+    <t>[31067.691484568833, 31067.924817902163]</t>
+  </si>
+  <si>
+    <t>[31067.924817902163, 31329.33047034978]</t>
+  </si>
+  <si>
+    <t>[31329.33047034978, 31497.33047034978]</t>
+  </si>
+  <si>
+    <t>[31497.33047034978, 33146.96476715777]</t>
+  </si>
+  <si>
+    <t>[33146.96476715777, 33147.1981004911]</t>
+  </si>
+  <si>
+    <t>[33147.1981004911, 34854.20982268734]</t>
+  </si>
+  <si>
+    <t>[34854.20982268734, 34854.44315602067]</t>
+  </si>
+  <si>
+    <t>[34854.44315602067, 35212.45485549987]</t>
+  </si>
+  <si>
+    <t>[35212.45485549987, 35212.6881888332]</t>
+  </si>
+  <si>
+    <t>[35212.6881888332, 35668.736135409665]</t>
+  </si>
+  <si>
+    <t>[35668.736135409665, 35668.969468742995]</t>
+  </si>
+  <si>
+    <t>[35668.969468742995, 42077.908385418865]</t>
+  </si>
+  <si>
+    <t>[42077.908385418865, 42078.141718752195]</t>
+  </si>
+  <si>
+    <t>[42078.141718752195, 47627.76418258292]</t>
+  </si>
+  <si>
+    <t>[47627.76418258292, 47627.99751591625]</t>
+  </si>
+  <si>
+    <t>[47627.99751591625, 47743.1952197712]</t>
+  </si>
+  <si>
+    <t>[47743.1952197712, 47743.42855310453]</t>
+  </si>
+  <si>
+    <t>[47743.42855310453, 48459.80436735548]</t>
+  </si>
+  <si>
+    <t>[48459.80436735548, 48460.03770068881]</t>
+  </si>
+  <si>
+    <t>[48460.03770068881, 52067.93296638049]</t>
+  </si>
+  <si>
+    <t>[52067.93296638049, 52068.16629971382]</t>
+  </si>
+  <si>
+    <t>[52068.16629971382, 59481.92499330711]</t>
+  </si>
+  <si>
+    <t>[59481.92499330711, 59482.15832664044]</t>
+  </si>
+  <si>
+    <t>[59482.15832664044, 59596.614358140665]</t>
+  </si>
+  <si>
+    <t>[59596.614358140665, 59596.847691473995]</t>
+  </si>
+  <si>
+    <t>[59596.847691473995, 63052.29657765876]</t>
+  </si>
+  <si>
+    <t>[63052.29657765876, 63052.52991099209]</t>
+  </si>
+  <si>
+    <t>[63052.52991099209, 66297.4691988625]</t>
+  </si>
+  <si>
+    <t>[66297.4691988625, 66297.70253219584]</t>
+  </si>
+  <si>
+    <t>[66297.70253219584, 70957.18270706567]</t>
+  </si>
+  <si>
+    <t>[70957.18270706567, 70957.41604039901]</t>
+  </si>
+  <si>
+    <t>[70957.41604039901, 72866.85942814757]</t>
+  </si>
+  <si>
+    <t>[72866.85942814757, 72867.0927614809]</t>
+  </si>
+  <si>
+    <t>[72867.0927614809, 73713.91707043425]</t>
+  </si>
+  <si>
+    <t>[73713.91707043425, 73714.15040376759]</t>
+  </si>
+  <si>
+    <t>[73714.15040376759, 74703.78982384222]</t>
+  </si>
+  <si>
+    <t>[74703.78982384222, 74704.02315717556]</t>
+  </si>
+  <si>
+    <t>[74704.02315717556, 77461.62384543802]</t>
+  </si>
+  <si>
+    <t>[77461.62384543802, 77461.85717877136]</t>
+  </si>
+  <si>
+    <t>[77461.85717877136, 85257.05909874525]</t>
+  </si>
+  <si>
+    <t>[85257.05909874525, 85257.29243207858]</t>
+  </si>
+  <si>
+    <t>[85257.29243207858, 88577.7772846725]</t>
+  </si>
+  <si>
+    <t>[88577.7772846725, 88745.7772846725]</t>
+  </si>
+  <si>
+    <t>[88745.7772846725, 102853.02738221033]</t>
+  </si>
+  <si>
+    <t>[102853.02738221033, 102854.01246139784]</t>
+  </si>
+  <si>
+    <t>[102854.01246139784, 107254.93262036829]</t>
+  </si>
+  <si>
+    <t>[107254.93262036829, 107255.16595370162]</t>
+  </si>
+  <si>
+    <t>[107255.16595370162, 108306.96247708327]</t>
+  </si>
+  <si>
+    <t>[108306.96247708327, 108307.19581041661]</t>
+  </si>
+  <si>
+    <t>[108307.19581041661, 108425.81219312172]</t>
+  </si>
+  <si>
+    <t>[108425.81219312172, 108426.04552645505]</t>
+  </si>
+  <si>
+    <t>[108426.04552645505, 109775.5044642309]</t>
+  </si>
+  <si>
+    <t>[109775.5044642309, 109775.73779756423]</t>
+  </si>
+  <si>
+    <t>[109775.73779756423, 114752.66199151431]</t>
+  </si>
+  <si>
+    <t>[114752.66199151431, 114752.89532484765]</t>
+  </si>
+  <si>
+    <t>[114752.89532484765, 116420.22772941092]</t>
+  </si>
+  <si>
+    <t>[116420.22772941092, 116420.46106274426]</t>
+  </si>
+  <si>
+    <t>[116420.46106274426, 120219.53990267613]</t>
+  </si>
+  <si>
+    <t>[120219.53990267613, 120219.77323600947]</t>
+  </si>
+  <si>
+    <t>[120219.77323600947, 120853.25515365686]</t>
+  </si>
+  <si>
+    <t>[120853.25515365686, 120853.4884869902]</t>
+  </si>
+  <si>
+    <t>[120853.4884869902, 130733.12887335625]</t>
+  </si>
+  <si>
+    <t>[130733.12887335625, 130736.08793626445]</t>
+  </si>
+  <si>
+    <t>[130736.08793626445, 132442.23426841048]</t>
+  </si>
+  <si>
+    <t>[132442.23426841048, 132442.46760174382]</t>
+  </si>
+  <si>
+    <t>[132442.46760174382, 146295.96407975277]</t>
+  </si>
+  <si>
+    <t>[146295.96407975277, 146296.1974130861]</t>
+  </si>
+  <si>
+    <t>[146296.1974130861, 148092.7008637508]</t>
+  </si>
+  <si>
+    <t>[148092.7008637508, 148092.93419708413]</t>
+  </si>
+  <si>
+    <t>[148092.93419708413, 155445.48673333862]</t>
+  </si>
+  <si>
+    <t>[155445.48673333862, 155613.48673333862]</t>
+  </si>
+  <si>
+    <t>[155613.48673333862, 156011.85312471815]</t>
+  </si>
+  <si>
+    <t>[156011.85312471815, 156013.0809382698]</t>
+  </si>
+  <si>
+    <t>[156013.0809382698, 159800.89864024683]</t>
+  </si>
+  <si>
+    <t>[159800.89864024683, 159801.13197358017]</t>
+  </si>
+  <si>
+    <t>[159801.13197358017, 160830.13898400962]</t>
+  </si>
+  <si>
+    <t>[160830.13898400962, 160831.38879886654]</t>
+  </si>
+  <si>
+    <t>[160831.38879886654, 160875.17897630236]</t>
+  </si>
+  <si>
+    <t>[160875.17897630236, 160875.4123096357]</t>
+  </si>
+  <si>
+    <t>[160875.4123096357, 195141.71194656272]</t>
+  </si>
+  <si>
+    <t>[195141.71194656272, 195147.64947826928]</t>
+  </si>
+  <si>
+    <t>[195147.64947826928, 195199.0197331873]</t>
+  </si>
+  <si>
+    <t>[195199.0197331873, 195199.25306652064]</t>
+  </si>
+  <si>
+    <t>[195199.25306652064, 195716.83141256846]</t>
+  </si>
+  <si>
+    <t>[195716.83141256846, 195717.0647459018]</t>
+  </si>
+  <si>
+    <t>[195717.0647459018, 197090.61092722137]</t>
+  </si>
+  <si>
+    <t>[197090.61092722137, 197258.61092722137]</t>
+  </si>
+  <si>
+    <t>[197258.61092722137, 228467.5443271374]</t>
+  </si>
+  <si>
+    <t>[228467.5443271374, 228467.77766047075]</t>
+  </si>
+  <si>
+    <t>[228467.77766047075, 245156.12399440494]</t>
+  </si>
+  <si>
+    <t>[245156.12399440494, 245157.75885942174]</t>
+  </si>
+  <si>
+    <t>[245157.75885942174, 267266.67064212286]</t>
+  </si>
+  <si>
+    <t>[267266.67064212286, 267266.9039754562]</t>
+  </si>
+  <si>
+    <t>[267266.9039754562, 279119.57128282834]</t>
+  </si>
+  <si>
+    <t>[279119.57128282834, 279119.8046161617]</t>
+  </si>
+  <si>
+    <t>[279119.8046161617, 286298.8040970917]</t>
+  </si>
+  <si>
+    <t>[286298.8040970917, 286299.03743042506]</t>
+  </si>
+  <si>
+    <t>[286299.03743042506, 313098.35960219393]</t>
+  </si>
+  <si>
+    <t>[313098.35960219393, 313098.59293552727]</t>
+  </si>
+  <si>
+    <t>[313098.59293552727, 319817.82449851924]</t>
+  </si>
+  <si>
+    <t>[319817.82449851924, 319818.0578318526]</t>
+  </si>
+  <si>
+    <t>[319818.0578318526, 347447.72957511223]</t>
+  </si>
+  <si>
+    <t>[347447.72957511223, 347449.831525086]</t>
+  </si>
+  <si>
+    <t>[347449.831525086, 358845.41428704676]</t>
+  </si>
+  <si>
+    <t>[358845.41428704676, 358847.8431494844]</t>
+  </si>
+  <si>
+    <t>[358847.8431494844, 376612.23444266577]</t>
+  </si>
+  <si>
+    <t>[376612.23444266577, 376612.4677759991]</t>
+  </si>
+  <si>
+    <t>[376612.4677759991, 401048.2115750988]</t>
+  </si>
+  <si>
+    <t>[401048.2115750988, 401048.44490843214]</t>
+  </si>
+  <si>
+    <t>[401048.44490843214, 410252.87364428915]</t>
+  </si>
+  <si>
+    <t>[410252.87364428915, 410420.87364428915]</t>
+  </si>
+  <si>
+    <t>[410420.87364428915, 428264.83275017585]</t>
+  </si>
+  <si>
+    <t>[428264.83275017585, 428265.0660835092]</t>
+  </si>
+  <si>
+    <t>[428265.0660835092, 490417.89242531866]</t>
+  </si>
+  <si>
+    <t>[490417.89242531866, 490418.125758652]</t>
+  </si>
+  <si>
+    <t>[490418.125758652, 502809.4635487733]</t>
+  </si>
+  <si>
+    <t>[502809.4635487733, 502812.27491305745]</t>
+  </si>
+  <si>
+    <t>[502812.27491305745, 593461.6326335679]</t>
+  </si>
+  <si>
+    <t>[593461.6326335679, 593464.1342822058]</t>
+  </si>
+  <si>
+    <t>[593464.1342822058, 597953.7332016262]</t>
+  </si>
+  <si>
+    <t>[597953.7332016262, 597953.9665349595]</t>
+  </si>
+  <si>
+    <t>[597953.9665349595, 598077.8691538711]</t>
+  </si>
+  <si>
+    <t>[598077.8691538711, 598078.3943878203]</t>
+  </si>
+  <si>
+    <t>[598078.3943878203, 604740.8685948543]</t>
+  </si>
+  <si>
+    <t>[604740.8685948543, 604908.8685948543]</t>
+  </si>
+  <si>
+    <t>[604908.8685948543, 607228.3564508704]</t>
+  </si>
+  <si>
+    <t>[607228.3564508704, 607233.6266461145]</t>
+  </si>
+  <si>
+    <t>[607233.6266461145, 699147.9727296005]</t>
+  </si>
+  <si>
+    <t>[699147.9727296005, 699148.2060629338]</t>
+  </si>
+  <si>
+    <t>[699148.2060629338, 707410.5610900674]</t>
+  </si>
+  <si>
+    <t>[707410.5610900674, 707413.8257889196]</t>
+  </si>
+  <si>
+    <t>[707413.8257889196, 727807.1598519364]</t>
+  </si>
+  <si>
+    <t>[727807.1598519364, 727807.3931852697]</t>
+  </si>
+  <si>
+    <t>[727807.3931852697, 820988.3058990225]</t>
+  </si>
+  <si>
+    <t>[820988.3058990225, 820988.5392323558]</t>
+  </si>
+  <si>
+    <t>[820988.5392323558, 889133.7622057572]</t>
+  </si>
+  <si>
+    <t>[889133.7622057572, 889137.5919540375]</t>
+  </si>
+  <si>
+    <t>[889137.5919540375, 916359.4508629034]</t>
+  </si>
+  <si>
+    <t>[916359.4508629034, 916359.6841962367]</t>
+  </si>
+  <si>
+    <t>[916359.6841962367, 921253.388203443]</t>
+  </si>
+  <si>
+    <t>[921253.388203443, 921253.6215367763]</t>
+  </si>
+  <si>
+    <t>[921253.6215367763, 935561.2162811196]</t>
+  </si>
+  <si>
+    <t>[935561.2162811196, 935561.4496144529]</t>
+  </si>
+  <si>
+    <t>[935561.4496144529, 946676.6247954007]</t>
+  </si>
+  <si>
+    <t>[946676.6247954007, 946676.8581287339]</t>
+  </si>
+  <si>
+    <t>[946676.8581287339, 949519.0146079665]</t>
+  </si>
+  <si>
+    <t>[949519.0146079665, 949519.2479412998]</t>
+  </si>
+  <si>
+    <t>[949519.2479412998, 965272.7264671564]</t>
+  </si>
+  <si>
+    <t>[965272.7264671564, 965272.9598004897]</t>
+  </si>
+  <si>
+    <t>[965272.9598004897, 993459.6469080106]</t>
+  </si>
+  <si>
+    <t>[993459.6469080106, 993463.5679782757]</t>
+  </si>
+  <si>
+    <t>[993463.5679782757, 1014163.1561126497]</t>
+  </si>
+  <si>
+    <t>[1014163.1561126497, 1014165.5602097352]</t>
+  </si>
+  <si>
+    <t>[1014165.5602097352, 1047904.0768077854]</t>
+  </si>
+  <si>
+    <t>[1047904.0768077854, 1047907.0699781136]</t>
+  </si>
+  <si>
+    <t>[1047907.0699781136, 1054439.3679151991]</t>
+  </si>
+  <si>
+    <t>[1054439.3679151991, 1054439.6012485325]</t>
+  </si>
+  <si>
+    <t>[1054439.6012485325, 1068671.171633905]</t>
+  </si>
+  <si>
+    <t>[1068671.171633905, 1068671.4049672384]</t>
+  </si>
+  <si>
+    <t>[1068671.4049672384, 1156316.5042205167]</t>
+  </si>
+  <si>
+    <t>[1156316.5042205167, 1156318.2338655277]</t>
+  </si>
+  <si>
+    <t>[1156318.2338655277, 1166269.4378366468]</t>
+  </si>
+  <si>
+    <t>[1166269.4378366468, 1166269.6711699802]</t>
+  </si>
+  <si>
+    <t>[1166269.6711699802, 1175427.9134942924]</t>
+  </si>
+  <si>
+    <t>[1175427.9134942924, 1175432.1983827946]</t>
+  </si>
+  <si>
+    <t>[1175432.1983827946, 1229982.9601592817]</t>
+  </si>
+  <si>
+    <t>[1229982.9601592817, 1229983.1934926151]</t>
+  </si>
+  <si>
+    <t>[1229983.1934926151, 1247770.9144074905]</t>
+  </si>
+  <si>
+    <t>[1247770.9144074905, 1247938.9144074905]</t>
+  </si>
+  <si>
+    <t>[1247938.9144074905, 1266984.3955423217]</t>
+  </si>
+  <si>
+    <t>[1266984.3955423217, 1266984.6288756551]</t>
+  </si>
+  <si>
+    <t>[1266984.6288756551, 1283632.0382911349]</t>
+  </si>
+  <si>
+    <t>[1283632.0382911349, 1283632.2716244683]</t>
+  </si>
+  <si>
+    <t>[1283632.2716244683, 1310391.01836711]</t>
+  </si>
+  <si>
+    <t>[1310391.01836711, 1310392.7210906188]</t>
+  </si>
+  <si>
+    <t>[1310392.7210906188, 1321028.6372654377]</t>
+  </si>
+  <si>
+    <t>[1321028.6372654377, 1321028.8705987711]</t>
+  </si>
+  <si>
+    <t>[1321028.8705987711, 1331867.1120193878]</t>
+  </si>
+  <si>
+    <t>[1331867.1120193878, 1331867.3453527212]</t>
+  </si>
+  <si>
+    <t>[1331867.3453527212, 1373979.6471683364]</t>
+  </si>
+  <si>
+    <t>[1373979.6471683364, 1373984.879436457]</t>
+  </si>
+  <si>
+    <t>[1373984.879436457, 1414897.7132430694]</t>
+  </si>
+  <si>
+    <t>[1414897.7132430694, 1414899.3108595756]</t>
+  </si>
+  <si>
+    <t>[1414899.3108595756, 1421154.8247779724]</t>
+  </si>
+  <si>
+    <t>[1421154.8247779724, 1421155.0581113058]</t>
+  </si>
+  <si>
+    <t>[1421155.0581113058, 1429732.5099123544]</t>
+  </si>
+  <si>
+    <t>[1429732.5099123544, 1429732.7432456878]</t>
+  </si>
+  <si>
+    <t>[1429732.7432456878, 1437504.2278634491]</t>
+  </si>
+  <si>
+    <t>[1437504.2278634491, 1437504.4611967825]</t>
+  </si>
+  <si>
+    <t>[1437504.4611967825, 1462796.36863863]</t>
+  </si>
+  <si>
+    <t>[1462796.36863863, 1462798.9213478009]</t>
+  </si>
+  <si>
+    <t>[1462798.9213478009, 1466737.7591478233]</t>
+  </si>
+  <si>
+    <t>[1466737.7591478233, 1466737.9924811567]</t>
+  </si>
+  <si>
+    <t>[1466737.9924811567, 1525052.6432042962]</t>
+  </si>
+  <si>
+    <t>[1525052.6432042962, 1525052.8765376296]</t>
+  </si>
+  <si>
+    <t>[1525052.8765376296, 1529063.2102793579]</t>
+  </si>
+  <si>
+    <t>[1529063.2102793579, 1529067.466269698]</t>
+  </si>
+  <si>
+    <t>[1529067.466269698, 1590117.7478498418]</t>
+  </si>
+  <si>
+    <t>[1590117.7478498418, 1590117.9811831752]</t>
+  </si>
+  <si>
+    <t>[1590117.9811831752, 1607262.7935958323]</t>
+  </si>
+  <si>
+    <t>[1607262.7935958323, 1607266.100498689]</t>
+  </si>
+  <si>
+    <t>[1607266.100498689, 1626354.7873829082]</t>
+  </si>
+  <si>
+    <t>[1626354.7873829082, 1626362.7290911367]</t>
+  </si>
+  <si>
+    <t>[1626362.7290911367, 1648214.2338793667]</t>
+  </si>
+  <si>
+    <t>[1648214.2338793667, 1648218.204149421]</t>
+  </si>
+  <si>
+    <t>[1648218.204149421, 1655205.6161867783]</t>
+  </si>
+  <si>
+    <t>[1655205.6161867783, 1655205.8495201117]</t>
+  </si>
+  <si>
+    <t>[1655205.8495201117, 1734477.6342688627]</t>
+  </si>
+  <si>
+    <t>[1734477.6342688627, 1734478.6321108954]</t>
+  </si>
+  <si>
+    <t>[1734478.6321108954, 1738243.9280045677]</t>
+  </si>
+  <si>
+    <t>[1738243.9280045677, 1738244.1613379011]</t>
+  </si>
+  <si>
+    <t>[1738244.1613379011, 1765179.899333153]</t>
+  </si>
+  <si>
+    <t>[1765179.899333153, 1765182.0029545615]</t>
+  </si>
+  <si>
+    <t>[1765182.0029545615, 1766689.0003073893]</t>
+  </si>
+  <si>
+    <t>[1766689.0003073893, 1766689.2336407227]</t>
+  </si>
+  <si>
+    <t>[1766689.2336407227, 1814052.9568014718]</t>
+  </si>
+  <si>
+    <t>[1814052.9568014718, 1814055.0648678436]</t>
+  </si>
+  <si>
+    <t>[1814055.0648678436, 1841312.883682145]</t>
+  </si>
+  <si>
+    <t>[1841312.883682145, 1841313.1170154784]</t>
+  </si>
+  <si>
+    <t>[1841313.1170154784, 1886286.1884202834]</t>
+  </si>
+  <si>
+    <t>[1886286.1884202834, 1886289.3222374858]</t>
+  </si>
+  <si>
+    <t>[1886289.3222374858, 1927992.8257676745]</t>
+  </si>
+  <si>
+    <t>[1927992.8257676745, 1927993.520361298]</t>
+  </si>
+  <si>
+    <t>[1927993.520361298, 2011984.0454602765]</t>
+  </si>
+  <si>
+    <t>[2011984.0454602765, 2011984.27879361]</t>
+  </si>
+  <si>
+    <t>[2011984.27879361, 2074170.784419841]</t>
+  </si>
+  <si>
+    <t>[2074170.784419841, 2074172.4763295192]</t>
+  </si>
+  <si>
+    <t>[2074172.4763295192, 2121300.8225524873]</t>
+  </si>
+  <si>
+    <t>[2121300.8225524873, 2121302.9528324855]</t>
+  </si>
+  <si>
+    <t>[2121302.9528324855, 2159436.1930246586]</t>
+  </si>
+  <si>
+    <t>[2159436.1930246586, 2159604.1930246586]</t>
+  </si>
+  <si>
+    <t>[2159604.1930246586, 2160134.945332234]</t>
+  </si>
+  <si>
+    <t>[2160134.945332234, 2160135.178665567]</t>
+  </si>
+  <si>
+    <t>[2160135.178665567, 2239135.1575999535]</t>
+  </si>
+  <si>
+    <t>[2239135.1575999535, 2239136.4150208724]</t>
+  </si>
+  <si>
+    <t>[2239136.4150208724, 2349988.4872507686]</t>
+  </si>
+  <si>
+    <t>[2349988.4872507686, 2349991.801964719]</t>
+  </si>
+  <si>
+    <t>[2349991.801964719, 2399834.5000610137]</t>
+  </si>
+  <si>
+    <t>[2399834.5000610137, 2399838.6232614685]</t>
+  </si>
+  <si>
+    <t>[2399838.6232614685, 2453424.1166742076]</t>
+  </si>
+  <si>
+    <t>[2453424.1166742076, 2453424.350007541]</t>
+  </si>
+  <si>
+    <t>[2453424.350007541, 2505756.052473057]</t>
+  </si>
+  <si>
+    <t>[2505756.052473057, 2505756.2858063905]</t>
+  </si>
+  <si>
+    <t>[2505756.2858063905, 2554716.87607214]</t>
+  </si>
+  <si>
+    <t>[2554716.87607214, 2554884.87607214]</t>
+  </si>
+  <si>
+    <t>[2554884.87607214, 2600360.990432147]</t>
+  </si>
+  <si>
+    <t>[2600360.990432147, 2600365.8422827693]</t>
+  </si>
+  <si>
+    <t>[2600365.8422827693, 2620298.9151954856]</t>
+  </si>
+  <si>
+    <t>[2620298.9151954856, 2620300.653641208]</t>
+  </si>
+  <si>
+    <t>[2620300.653641208, 2635336.2870201934]</t>
+  </si>
+  <si>
+    <t>[2635336.2870201934, 2635339.1383710345]</t>
+  </si>
+  <si>
+    <t>[2635339.1383710345, 2639883.345345189]</t>
+  </si>
+  <si>
+    <t>[2639883.345345189, 2639888.9217304816]</t>
+  </si>
+  <si>
+    <t>[2639888.9217304816, 2793415.7407712825]</t>
+  </si>
+  <si>
+    <t>[2793415.7407712825, 2793416.9459736524]</t>
+  </si>
+  <si>
+    <t>[2793416.9459736524, 3019819.947400931]</t>
+  </si>
+  <si>
+    <t>[3019819.947400931, 3019825.437076397]</t>
+  </si>
+  <si>
+    <t>[3019825.437076397, 3031859.7399587287]</t>
+  </si>
+  <si>
+    <t>[3031859.7399587287, 3031862.2144171656]</t>
+  </si>
+  <si>
+    <t>[3031862.2144171656, 3115108.79434516]</t>
+  </si>
+  <si>
+    <t>[3115108.79434516, 3115112.564585667]</t>
+  </si>
+  <si>
+    <t>[3115112.564585667, 3124114.3933691755]</t>
+  </si>
+  <si>
+    <t>[3124114.3933691755, 3124117.1980552017]</t>
+  </si>
+  <si>
+    <t>[3124117.1980552017, 3202521.8174262256]</t>
+  </si>
+  <si>
+    <t>[3202521.8174262256, 3202526.7206129944]</t>
+  </si>
+  <si>
+    <t>[3202526.7206129944, 3209872.2744589318]</t>
+  </si>
+  <si>
+    <t>[3209872.2744589318, 3209873.17020129]</t>
+  </si>
+  <si>
+    <t>[3209873.17020129, 3273500.915932078]</t>
+  </si>
+  <si>
+    <t>[3273500.915932078, 3273501.744181828]</t>
+  </si>
+  <si>
+    <t>[3273501.744181828, 3303954.4812907022]</t>
+  </si>
+  <si>
+    <t>[3303954.4812907022, 3303958.0384954643]</t>
+  </si>
+  <si>
+    <t>[3303958.0384954643, 3310463.2447749972]</t>
+  </si>
+  <si>
+    <t>[3310463.2447749972, 3310465.0210924875]</t>
+  </si>
+  <si>
+    <t>[3310465.0210924875, 3369067.9753044224]</t>
+  </si>
+  <si>
+    <t>[3369067.9753044224, 3369070.0741858757]</t>
+  </si>
+  <si>
+    <t>[3369070.0741858757, 3510024.0854494628]</t>
+  </si>
+  <si>
+    <t>[3510024.0854494628, 3510025.233241752]</t>
+  </si>
+  <si>
+    <t>[3510025.233241752, 3568793.181994622]</t>
+  </si>
+  <si>
+    <t>[3568793.181994622, 3568795.0345240184]</t>
+  </si>
+  <si>
+    <t>[3568795.0345240184, 3573949.3982094936]</t>
+  </si>
+  <si>
+    <t>[3573949.3982094936, 3573949.9259120673]</t>
+  </si>
+  <si>
+    <t>[3573949.9259120673, 3615944.9205916417]</t>
+  </si>
+  <si>
+    <t>[3615944.9205916417, 3615949.180593809]</t>
+  </si>
+  <si>
+    <t>[3615949.180593809, 3668996.3027814375]</t>
+  </si>
+  <si>
+    <t>[3668996.3027814375, 3668999.336097594]</t>
+  </si>
+  <si>
+    <t>[3668999.336097594, 3741802.280592042]</t>
+  </si>
+  <si>
+    <t>[3741802.280592042, 3741803.3594303983]</t>
+  </si>
+  <si>
+    <t>[3741803.3594303983, 4160404.892248023]</t>
+  </si>
+  <si>
+    <t>[4160404.892248023, 4160409.7367421873]</t>
+  </si>
+  <si>
+    <t>[4160409.7367421873, 4168040.1288041896]</t>
+  </si>
+  <si>
+    <t>[4168040.1288041896, 4168042.911695937]</t>
+  </si>
+  <si>
+    <t>[4168042.911695937, 4179703.1041667364]</t>
+  </si>
+  <si>
+    <t>[4179703.1041667364, 4179703.6964309714]</t>
+  </si>
+  <si>
+    <t>[4179703.6964309714, 4228117.478712428]</t>
+  </si>
+  <si>
+    <t>[4228117.478712428, 4228118.203946594]</t>
+  </si>
+  <si>
+    <t>[4228118.203946594, 4232175.062343427]</t>
+  </si>
+  <si>
+    <t>[4232175.062343427, 4232175.585034561]</t>
+  </si>
+  <si>
+    <t>[4232175.585034561, 4377624.27153546]</t>
+  </si>
+  <si>
+    <t>[4377624.27153546, 4377629.678287665]</t>
+  </si>
+  <si>
+    <t>[4377629.678287665, 4448921.371232115]</t>
+  </si>
+  <si>
+    <t>[4448921.371232115, 4448927.073829604]</t>
+  </si>
+  <si>
+    <t>[4448927.073829604, 4503878.456362442]</t>
+  </si>
+  <si>
+    <t>[4503878.456362442, 4503880.494024746]</t>
+  </si>
+  <si>
+    <t>[4503880.494024746, 4513525.465901866]</t>
+  </si>
+  <si>
+    <t>[4513525.465901866, 4513526.590597243]</t>
+  </si>
+  <si>
+    <t>[4513526.590597243, 4526504.567678303]</t>
+  </si>
+  <si>
+    <t>[4526504.567678303, 4526509.421409545]</t>
+  </si>
+  <si>
+    <t>[4526509.421409545, 4609083.649197368]</t>
+  </si>
+  <si>
+    <t>[4609083.649197368, 4609085.874405423]</t>
+  </si>
+  <si>
+    <t>[4609085.874405423, 4711103.3271513395]</t>
+  </si>
+  <si>
+    <t>[4711103.3271513395, 4711109.315692864]</t>
+  </si>
+  <si>
+    <t>[4711109.315692864, 4753725.720705585]</t>
+  </si>
+  <si>
+    <t>[4753725.720705585, 4753726.419467708]</t>
+  </si>
+  <si>
+    <t>[4753726.419467708, 4972899.030773643]</t>
+  </si>
+  <si>
+    <t>[4972899.030773643, 4972901.676577464]</t>
+  </si>
+  <si>
+    <t>[4972901.676577464, 4996310.635259734]</t>
+  </si>
+  <si>
+    <t>[4996310.635259734, 4996311.246316623]</t>
+  </si>
+  <si>
+    <t>[4996311.246316623, 5030690.933526399]</t>
+  </si>
+  <si>
+    <t>[5030690.933526399, 5030693.739891751]</t>
+  </si>
+  <si>
+    <t>[5030693.739891751, 5318847.367659254]</t>
+  </si>
+  <si>
+    <t>[5318847.367659254, 5318850.452286871]</t>
+  </si>
+  <si>
+    <t>[5318850.452286871, 5450985.947240205]</t>
+  </si>
+  <si>
+    <t>[5450985.947240205, 5450988.527547058]</t>
+  </si>
+  <si>
+    <t>[5450988.527547058, 5472252.416067022]</t>
+  </si>
+  <si>
+    <t>[5472252.416067022, 5472253.620699276]</t>
+  </si>
+  <si>
+    <t>[5472253.620699276, 5623100.000951482]</t>
+  </si>
+  <si>
+    <t>[5623100.000951482, 5623105.13531964]</t>
+  </si>
+  <si>
+    <t>[5623105.13531964, 5652758.587807499]</t>
+  </si>
+  <si>
+    <t>[5652758.587807499, 5652764.588921718]</t>
+  </si>
+  <si>
+    <t>[5652764.588921718, 5671702.61681423]</t>
+  </si>
+  <si>
+    <t>[5671702.61681423, 5671704.128807788]</t>
+  </si>
+  <si>
+    <t>[5671704.128807788, 5672677.401218454]</t>
+  </si>
+  <si>
+    <t>[5672677.401218454, 5672677.9963112045]</t>
+  </si>
+  <si>
+    <t>[5672677.9963112045, 5688176.388309738]</t>
+  </si>
+  <si>
+    <t>[5688176.388309738, 5688177.878425115]</t>
+  </si>
+  <si>
+    <t>[5688177.878425115, 5688820.649838761]</t>
+  </si>
+  <si>
+    <t>[5688820.649838761, 5688821.227716175]</t>
+  </si>
+  <si>
+    <t>[5688821.227716175, 5840716.130509281]</t>
+  </si>
+  <si>
+    <t>[5840716.130509281, 5840717.328259978]</t>
+  </si>
+  <si>
+    <t>[5840717.328259978, 5901122.483797672]</t>
+  </si>
+  <si>
+    <t>[5901122.483797672, 5901132.847869016]</t>
+  </si>
+  <si>
+    <t>[5901132.847869016, 5907706.750589454]</t>
+  </si>
+  <si>
+    <t>[5907706.750589454, 5907708.257171062]</t>
+  </si>
+  <si>
+    <t>[5907708.257171062, 5971553.444339989]</t>
+  </si>
+  <si>
+    <t>[5971553.444339989, 5971554.240037191]</t>
+  </si>
+  <si>
+    <t>[5971554.240037191, 6039275.915881811]</t>
+  </si>
+  <si>
+    <t>[6039275.915881811, 6039281.025446542]</t>
+  </si>
+  <si>
+    <t>[6039281.025446542, 6065781.2098642355]</t>
+  </si>
+  <si>
+    <t>[6065781.2098642355, 6065788.801951538]</t>
+  </si>
+  <si>
+    <t>[6065788.801951538, 6086083.9761571875]</t>
+  </si>
+  <si>
+    <t>[6086083.9761571875, 6086085.324849554]</t>
+  </si>
+  <si>
+    <t>[6086085.324849554, 6130541.523733903]</t>
+  </si>
+  <si>
+    <t>[6130541.523733903, 6130544.123048492]</t>
+  </si>
+  <si>
+    <t>[6130544.123048492, 6166071.981759147]</t>
+  </si>
+  <si>
+    <t>[6166071.981759147, 6166073.9715635]</t>
+  </si>
+  <si>
+    <t>[6166073.9715635, 6284999.477990753]</t>
+  </si>
+  <si>
+    <t>[6284999.477990753, 6285000.890441224]</t>
+  </si>
+  <si>
+    <t>[6285000.890441224, 6300623.396087445]</t>
+  </si>
+  <si>
+    <t>[6300623.396087445, 6300624.972558195]</t>
+  </si>
+  <si>
+    <t>[6300624.972558195, 6313458.224920048]</t>
+  </si>
+  <si>
+    <t>[6313458.224920048, 6313458.787686041]</t>
+  </si>
+  <si>
+    <t>[6313458.787686041, 6485623.330281222]</t>
+  </si>
+  <si>
+    <t>[6485623.330281222, 6485625.2935773805]</t>
+  </si>
+  <si>
+    <t>[6485625.2935773805, 6604883.741414306]</t>
+  </si>
+  <si>
+    <t>[6604883.741414306, 6604886.411515303]</t>
+  </si>
+  <si>
+    <t>[6604886.411515303, 6716742.028283443]</t>
+  </si>
+  <si>
+    <t>[6716742.028283443, 6716743.587777666]</t>
+  </si>
+  <si>
+    <t>[6716743.587777666, 6746734.987653504]</t>
+  </si>
+  <si>
+    <t>[6746734.987653504, 6746739.0314582875]</t>
+  </si>
+  <si>
+    <t>[6746739.0314582875, 6868527.340493389]</t>
+  </si>
+  <si>
+    <t>[6868527.340493389, 6868528.400771056]</t>
+  </si>
+  <si>
+    <t>[6868528.400771056, 6893588.772697698]</t>
+  </si>
+  <si>
+    <t>[6893588.772697698, 6893590.595139987]</t>
+  </si>
+  <si>
+    <t>[6893590.595139987, 6904913.041607539]</t>
+  </si>
+  <si>
+    <t>[6904913.041607539, 6904917.498431814]</t>
+  </si>
+  <si>
+    <t>[6904917.498431814, 6920838.153134658]</t>
+  </si>
+  <si>
+    <t>[6920838.153134658, 6920841.560667821]</t>
+  </si>
+  <si>
+    <t>[6920841.560667821, 7060445.170440673]</t>
+  </si>
+  <si>
+    <t>[7060445.170440673, 7060452.237803847]</t>
+  </si>
+  <si>
+    <t>[7060452.237803847, 7161506.986286305]</t>
+  </si>
+  <si>
+    <t>[7161506.986286305, 7161508.589381856]</t>
+  </si>
+  <si>
+    <t>[7161508.589381856, 7212905.079058598]</t>
+  </si>
+  <si>
+    <t>[7212905.079058598, 7212906.279356959]</t>
+  </si>
+  <si>
+    <t>[7212906.279356959, 7285040.5289766835]</t>
+  </si>
+  <si>
+    <t>[7285040.5289766835, 7285041.597216134]</t>
+  </si>
+  <si>
+    <t>[7285041.597216134, 7344232.563926372]</t>
+  </si>
+  <si>
+    <t>[7344232.563926372, 7344233.338371425]</t>
+  </si>
+  <si>
+    <t>[7344233.338371425, 7556295.719605105]</t>
+  </si>
+  <si>
+    <t>[7556295.719605105, 7556297.791760083]</t>
+  </si>
+  <si>
+    <t>[7556297.791760083, 7656473.885845762]</t>
+  </si>
+  <si>
+    <t>[7656473.885845762, 7656477.987937017]</t>
+  </si>
+  <si>
+    <t>[7656477.987937017, 7668969.906161231]</t>
+  </si>
+  <si>
+    <t>[7668969.906161231, 7668973.950872697]</t>
+  </si>
+  <si>
+    <t>[7668973.950872697, 7671080.017653328]</t>
+  </si>
+  <si>
+    <t>[7671080.017653328, 7671084.879520588]</t>
+  </si>
+  <si>
+    <t>[7671084.879520588, 7837393.240687207]</t>
+  </si>
+  <si>
+    <t>[7837393.240687207, 7837394.513891727]</t>
+  </si>
+  <si>
+    <t>[7837394.513891727, 7957679.451950163]</t>
+  </si>
+  <si>
+    <t>[7957679.451950163, 7957682.757240635]</t>
+  </si>
+  <si>
+    <t>[7957682.757240635, 7991130.943520892]</t>
+  </si>
+  <si>
+    <t>[7991130.943520892, 7991139.10829101]</t>
+  </si>
+  <si>
+    <t>[7991139.10829101, 8001136.996270506]</t>
+  </si>
+  <si>
+    <t>[8001136.996270506, 8001139.074222598]</t>
+  </si>
+  <si>
+    <t>[8001139.074222598, 8074071.781904241]</t>
+  </si>
+  <si>
+    <t>[8074071.781904241, 8074072.664758915]</t>
+  </si>
+  <si>
+    <t>[8074072.664758915, 8206048.712081794]</t>
+  </si>
+  <si>
+    <t>[8206048.712081794, 8206052.18314764]</t>
+  </si>
+  <si>
+    <t>[8206052.18314764, 8370545.875047371]</t>
+  </si>
+  <si>
+    <t>[8370545.875047371, 8370547.130326786]</t>
+  </si>
+  <si>
+    <t>[8370547.130326786, 8442544.71765591]</t>
+  </si>
+  <si>
+    <t>[8442544.71765591, 8442547.985065516]</t>
+  </si>
+  <si>
+    <t>[8442547.985065516, 8548452.337546673]</t>
+  </si>
+  <si>
+    <t>[8548452.337546673, 8548456.84795744]</t>
+  </si>
+  <si>
+    <t>[8548456.84795744, 8641232.79121518]</t>
+  </si>
+  <si>
+    <t>[8641232.79121518, 8641235.885154113]</t>
+  </si>
+  <si>
+    <t>[8641235.885154113, 8647132.060523191]</t>
+  </si>
+  <si>
+    <t>[8647132.060523191, 8647132.591613034]</t>
+  </si>
+  <si>
+    <t>[8647132.591613034, 8717716.93743531]</t>
+  </si>
+  <si>
+    <t>[8717716.93743531, 8717720.912077686]</t>
+  </si>
+  <si>
+    <t>[8717720.912077686, 8757533.18531843]</t>
+  </si>
+  <si>
+    <t>['V3']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Vs3']</t>
+  </si>
+  <si>
+    <t>['P7']</t>
   </si>
   <si>
     <t>['V6']</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>['Vs1']</t>
+  </si>
+  <si>
+    <t>['P6']</t>
+  </si>
+  <si>
+    <t>['V2']</t>
+  </si>
+  <si>
+    <t>['V4']</t>
+  </si>
+  <si>
+    <t>['V5']</t>
   </si>
   <si>
     <t>['V7']</t>
   </si>
   <si>
-    <t>['V4']</t>
+    <t>['Vs2']</t>
+  </si>
+  <si>
+    <t>['P3']</t>
+  </si>
+  <si>
+    <t>['P5']</t>
+  </si>
+  <si>
+    <t>['V1']</t>
+  </si>
+  <si>
+    <t>['P8']</t>
+  </si>
+  <si>
+    <t>['P4']</t>
+  </si>
+  <si>
+    <t>['D1']</t>
+  </si>
+  <si>
+    <t>['P2']</t>
+  </si>
+  <si>
+    <t>['P1']</t>
+  </si>
+  <si>
+    <t>['S1']</t>
+  </si>
+  <si>
+    <t>['S3']</t>
   </si>
   <si>
     <t>['P9']</t>
   </si>
   <si>
-    <t>['V2']</t>
-  </si>
-  <si>
-    <t>['Vs3']</t>
-  </si>
-  <si>
-    <t>['Vs2']</t>
-  </si>
-  <si>
-    <t>['V1']</t>
-  </si>
-  <si>
-    <t>['V3']</t>
-  </si>
-  <si>
-    <t>['V5']</t>
-  </si>
-  <si>
-    <t>['Vs1']</t>
-  </si>
-  <si>
-    <t>['P1']</t>
+    <t>['T2']</t>
+  </si>
+  <si>
+    <t>['P10']</t>
   </si>
   <si>
     <t>['T1']</t>
   </si>
   <si>
-    <t>['T2']</t>
-  </si>
-  <si>
-    <t>['P6']</t>
-  </si>
-  <si>
-    <t>['P8']</t>
-  </si>
-  <si>
-    <t>['P2']</t>
-  </si>
-  <si>
-    <t>['P3']</t>
-  </si>
-  <si>
-    <t>['P4']</t>
-  </si>
-  <si>
-    <t>['S3']</t>
-  </si>
-  <si>
-    <t>['P7']</t>
-  </si>
-  <si>
-    <t>['P10']</t>
-  </si>
-  <si>
-    <t>['D1']</t>
-  </si>
-  <si>
-    <t>['P5']</t>
-  </si>
-  <si>
-    <t>['S1']</t>
+    <t>['S2']</t>
   </si>
   <si>
     <t>['S4']</t>
-  </si>
-  <si>
-    <t>['S2']</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1865,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1879,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1893,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1907,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1921,10 +1963,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1935,10 +1977,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1949,10 +1991,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1963,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1977,10 +2019,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1991,10 +2033,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2005,10 +2047,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2019,10 +2061,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2033,10 +2075,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2047,10 +2089,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2061,10 +2103,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2075,10 +2117,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2089,10 +2131,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2103,10 +2145,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2117,10 +2159,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2131,10 +2173,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2145,10 +2187,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2159,10 +2201,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2173,10 +2215,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2187,10 +2229,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2201,10 +2243,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2215,10 +2257,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D28" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2229,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2243,10 +2285,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D30" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2257,10 +2299,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2271,10 +2313,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D32" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2285,10 +2327,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2299,10 +2341,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="D34" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2313,10 +2355,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D35" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2327,10 +2369,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2341,10 +2383,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D37" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2355,10 +2397,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2369,10 +2411,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D39" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2383,10 +2425,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2397,10 +2439,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D41" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2411,10 +2453,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2425,10 +2467,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D43" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2439,10 +2481,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D44" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2453,10 +2495,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D45" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2467,10 +2509,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D46" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2481,10 +2523,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D47" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2495,10 +2537,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2509,10 +2551,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D49" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2523,10 +2565,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2537,10 +2579,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D51" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2551,10 +2593,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2565,10 +2607,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D53" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2579,10 +2621,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D54" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2593,10 +2635,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D55" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2607,10 +2649,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2621,10 +2663,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2635,10 +2677,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2649,10 +2691,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2663,10 +2705,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D60" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2677,10 +2719,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2691,10 +2733,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D62" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2705,10 +2747,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2719,10 +2761,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D64" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2733,10 +2775,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2747,10 +2789,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2761,10 +2803,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D67" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2775,10 +2817,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2789,10 +2831,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2803,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2817,10 +2859,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2831,10 +2873,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="D72" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2845,10 +2887,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D73" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2859,10 +2901,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2873,10 +2915,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2887,10 +2929,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D76" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2901,10 +2943,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D77" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2915,10 +2957,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D78" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2929,10 +2971,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2943,10 +2985,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D80" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2957,10 +2999,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D81" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2971,10 +3013,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="D82" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2985,10 +3027,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D83" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2999,10 +3041,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3013,10 +3055,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D85" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3027,10 +3069,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D86" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3041,10 +3083,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D87" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3055,10 +3097,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D88" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3069,10 +3111,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D89" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3083,10 +3125,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3097,10 +3139,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D91" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3111,10 +3153,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D92" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3125,10 +3167,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3139,10 +3181,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D94" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3153,10 +3195,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3167,10 +3209,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D96" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3181,10 +3223,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3195,10 +3237,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D98" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3209,10 +3251,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D99" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3223,10 +3265,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D100" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3237,10 +3279,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D101" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3251,10 +3293,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D102" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3265,10 +3307,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3279,10 +3321,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3293,10 +3335,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D105" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3307,10 +3349,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="D106" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3321,10 +3363,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D107" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3335,10 +3377,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="D108" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3349,10 +3391,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D109" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3363,10 +3405,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D110" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3377,10 +3419,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D111" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3391,10 +3433,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D112" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3405,10 +3447,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D113" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3419,10 +3461,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D114" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3433,10 +3475,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3447,10 +3489,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3461,10 +3503,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D117" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3475,10 +3517,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D118" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3489,10 +3531,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3503,10 +3545,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D120" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3517,10 +3559,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3531,10 +3573,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D122" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3545,10 +3587,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D123" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3559,10 +3601,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D124" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3573,10 +3615,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D125" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3587,10 +3629,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3601,10 +3643,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D127" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3615,10 +3657,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="D128" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3629,10 +3671,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D129" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3643,10 +3685,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="D130" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3657,10 +3699,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D131" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3671,10 +3713,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="D132" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3685,10 +3727,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D133" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3699,10 +3741,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D134" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3713,10 +3755,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3730,7 +3772,7 @@
         <v>474</v>
       </c>
       <c r="D136" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3741,7 +3783,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D137" t="s">
         <v>474</v>
@@ -3755,10 +3797,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D138" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3769,10 +3811,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D139" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3783,10 +3825,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D140" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3797,10 +3839,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D141" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3811,10 +3853,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D142" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3825,10 +3867,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D143" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3839,10 +3881,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D144" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3853,10 +3895,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D145" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3867,10 +3909,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D146" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3881,10 +3923,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3895,10 +3937,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D148" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3909,10 +3951,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3923,10 +3965,10 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D150" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3937,10 +3979,10 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3951,10 +3993,10 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D152" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3965,10 +4007,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D153" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3979,10 +4021,10 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D154" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3993,10 +4035,10 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D155" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4007,10 +4049,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D156" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4021,10 +4063,10 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D157" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4035,10 +4077,10 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D158" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4049,10 +4091,10 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D159" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4063,10 +4105,10 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="D160" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4077,10 +4119,10 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D161" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4091,10 +4133,10 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D162" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4105,10 +4147,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D163" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4119,10 +4161,10 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D164" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4133,10 +4175,10 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D165" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4147,10 +4189,10 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="D166" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4161,10 +4203,10 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D167" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4175,10 +4217,10 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D168" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4189,10 +4231,10 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D169" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4203,10 +4245,10 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D170" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4217,10 +4259,10 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D171" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4231,10 +4273,10 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4245,10 +4287,10 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D173" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4259,10 +4301,10 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D174" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4273,10 +4315,10 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D175" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4287,10 +4329,10 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="D176" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4301,10 +4343,10 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D177" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4315,10 +4357,10 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D178" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4329,10 +4371,10 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4343,10 +4385,10 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="D180" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4357,10 +4399,10 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D181" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4371,10 +4413,10 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D182" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4385,10 +4427,10 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D183" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4399,10 +4441,10 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D184" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4413,10 +4455,10 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D185" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4427,10 +4469,10 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="D186" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4441,10 +4483,10 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D187" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4455,10 +4497,10 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D188" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4469,10 +4511,10 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4483,10 +4525,10 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="D190" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4497,10 +4539,10 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D191" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4511,10 +4553,10 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D192" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4525,10 +4567,10 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D193" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4539,10 +4581,10 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D194" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4553,10 +4595,10 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D195" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4567,10 +4609,10 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4581,10 +4623,10 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D197" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4595,10 +4637,10 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D198" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4609,10 +4651,10 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D199" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4623,10 +4665,10 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D200" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4637,10 +4679,10 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D201" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4651,10 +4693,10 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D202" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4665,10 +4707,10 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D203" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4679,10 +4721,10 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D204" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4693,10 +4735,10 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D205" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4707,10 +4749,10 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D206" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4721,10 +4763,10 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D207" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4735,10 +4777,10 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D208" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4749,10 +4791,10 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D209" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4763,10 +4805,10 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D210" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4777,10 +4819,10 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D211" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4791,10 +4833,10 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D212" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4805,10 +4847,10 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D213" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4819,10 +4861,10 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D214" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4833,10 +4875,10 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D215" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4847,10 +4889,10 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4861,10 +4903,10 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D217" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4875,10 +4917,10 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D218" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4889,10 +4931,10 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D219" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4903,10 +4945,10 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="D220" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4917,10 +4959,10 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D221" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4931,10 +4973,10 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D222" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4945,10 +4987,10 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D223" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4959,10 +5001,10 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D224" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4973,10 +5015,10 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D225" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4987,10 +5029,10 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D226" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5001,10 +5043,10 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D227" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5015,10 +5057,10 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D228" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5029,10 +5071,10 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D229" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5043,10 +5085,10 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5057,10 +5099,10 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D231" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5071,10 +5113,10 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D232" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5085,10 +5127,10 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D233" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5099,10 +5141,10 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D234" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5113,10 +5155,10 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D235" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5127,10 +5169,10 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D236" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5141,10 +5183,10 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D237" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5155,10 +5197,10 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D238" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5169,10 +5211,10 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D239" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5183,10 +5225,10 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D240" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5197,10 +5239,10 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D241" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5211,10 +5253,10 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D242" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5225,10 +5267,10 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D243" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5239,10 +5281,10 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="D244" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5253,10 +5295,10 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D245" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5267,10 +5309,10 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D246" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5281,10 +5323,10 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D247" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5295,10 +5337,10 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="D248" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5309,10 +5351,10 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D249" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5323,10 +5365,10 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D250" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5337,10 +5379,10 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D251" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5351,10 +5393,10 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D252" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5365,10 +5407,10 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D253" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5379,10 +5421,10 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D254" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5393,10 +5435,10 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D255" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5407,10 +5449,10 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5421,10 +5463,10 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D257" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5435,10 +5477,10 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D258" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5449,10 +5491,10 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D259" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5463,10 +5505,10 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D260" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5477,10 +5519,10 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D261" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5491,10 +5533,10 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D262" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5505,10 +5547,10 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D263" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5519,10 +5561,10 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D264" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5533,10 +5575,10 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D265" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5547,10 +5589,10 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D266" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5561,10 +5603,10 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D267" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5575,10 +5617,10 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D268" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5589,10 +5631,10 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D269" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5603,10 +5645,10 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5617,10 +5659,10 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D271" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5631,10 +5673,10 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D272" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5645,10 +5687,10 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D273" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5659,10 +5701,10 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D274" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5673,10 +5715,10 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D275" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5687,10 +5729,10 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D276" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5701,10 +5743,10 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D277" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5715,10 +5757,10 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D278" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5729,10 +5771,10 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D279" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5743,10 +5785,10 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D280" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5757,10 +5799,10 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D281" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5771,10 +5813,10 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D282" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5785,10 +5827,10 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D283" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5799,10 +5841,10 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D284" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5813,10 +5855,10 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D285" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5827,10 +5869,10 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D286" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5841,10 +5883,10 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D287" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5855,10 +5897,10 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D288" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5869,10 +5911,10 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D289" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5883,10 +5925,10 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D290" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5897,10 +5939,10 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D291" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5911,10 +5953,10 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="D292" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5925,10 +5967,10 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D293" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5939,10 +5981,10 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D294" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5953,10 +5995,10 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D295" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5967,10 +6009,10 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D296" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5981,10 +6023,10 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D297" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5995,10 +6037,10 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="D298" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6009,10 +6051,10 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D299" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6023,10 +6065,10 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="D300" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6037,10 +6079,10 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D301" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6051,10 +6093,10 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D302" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6065,10 +6107,10 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D303" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6079,10 +6121,10 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D304" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6093,10 +6135,10 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D305" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6107,10 +6149,10 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D306" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6121,10 +6163,10 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D307" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6135,10 +6177,10 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D308" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6149,10 +6191,10 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D309" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6163,10 +6205,10 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D310" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6177,10 +6219,10 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D311" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6191,10 +6233,10 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D312" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6205,10 +6247,10 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D313" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6219,10 +6261,10 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D314" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6233,10 +6275,10 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D315" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6247,10 +6289,10 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D316" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6261,10 +6303,10 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D317" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6275,10 +6317,10 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D318" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6289,10 +6331,10 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D319" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6303,10 +6345,10 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="D320" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6317,10 +6359,10 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D321" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6331,10 +6373,10 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D322" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6345,10 +6387,10 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D323" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6359,10 +6401,10 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D324" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6373,10 +6415,10 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D325" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6387,10 +6429,10 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D326" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6401,10 +6443,10 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D327" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6415,10 +6457,10 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D328" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6429,10 +6471,10 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D329" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6443,10 +6485,10 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D330" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6457,10 +6499,10 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D331" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6471,10 +6513,10 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D332" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6485,10 +6527,10 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D333" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6499,10 +6541,10 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D334" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6513,10 +6555,10 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D335" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6527,10 +6569,10 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D336" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6541,10 +6583,10 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D337" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6555,10 +6597,10 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D338" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6569,10 +6611,10 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D339" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6583,10 +6625,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D340" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6597,10 +6639,10 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D341" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6611,10 +6653,10 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D342" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6625,10 +6667,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D343" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6639,10 +6681,10 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="D344" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6653,10 +6695,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D345" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6667,10 +6709,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D346" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6681,10 +6723,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D347" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6695,10 +6737,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="D348" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6709,10 +6751,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D349" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6723,10 +6765,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D350" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6737,10 +6779,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D351" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6751,10 +6793,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D352" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6765,10 +6807,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D353" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6779,10 +6821,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D354" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6793,10 +6835,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D355" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6807,10 +6849,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D356" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6821,10 +6863,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D357" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6835,10 +6877,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D358" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6849,10 +6891,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D359" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6863,10 +6905,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D360" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6877,10 +6919,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D361" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6891,10 +6933,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D362" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6905,10 +6947,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D363" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6919,10 +6961,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D364" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6933,10 +6975,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D365" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6947,10 +6989,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D366" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6961,10 +7003,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D367" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6975,10 +7017,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D368" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6989,10 +7031,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D369" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7003,10 +7045,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="D370" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7017,10 +7059,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D371" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7031,10 +7073,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D372" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7045,10 +7087,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D373" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7059,10 +7101,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D374" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7073,10 +7115,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D375" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7087,10 +7129,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D376" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7101,10 +7143,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D377" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7115,10 +7157,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D378" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7129,10 +7171,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D379" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7143,10 +7185,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D380" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7157,10 +7199,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D381" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7171,10 +7213,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="D382" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7185,10 +7227,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D383" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7199,10 +7241,10 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D384" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7213,10 +7255,10 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D385" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7227,10 +7269,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D386" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7241,10 +7283,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D387" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7255,10 +7297,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D388" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7269,10 +7311,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D389" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7283,10 +7325,10 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D390" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7297,10 +7339,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D391" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7311,10 +7353,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D392" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7325,10 +7367,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D393" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7339,10 +7381,10 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="D394" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7353,10 +7395,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D395" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7367,10 +7409,10 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D396" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7381,10 +7423,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D397" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7395,10 +7437,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D398" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7409,10 +7451,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D399" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7423,10 +7465,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D400" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7437,10 +7479,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D401" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7451,10 +7493,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D402" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7465,10 +7507,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D403" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7479,10 +7521,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D404" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7493,10 +7535,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D405" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7507,10 +7549,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D406" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7521,10 +7563,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D407" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7535,10 +7577,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D408" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7549,10 +7591,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D409" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7563,10 +7605,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D410" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7577,10 +7619,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D411" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7591,10 +7633,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D412" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7605,10 +7647,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D413" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7619,10 +7661,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D414" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7633,10 +7675,10 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D415" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7647,10 +7689,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="D416" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7661,10 +7703,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D417" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7675,10 +7717,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D418" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7689,10 +7731,10 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D419" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7703,10 +7745,10 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D420" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7717,10 +7759,10 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D421" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7731,10 +7773,10 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D422" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7745,10 +7787,10 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D423" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7759,10 +7801,10 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D424" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7773,10 +7815,10 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D425" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7787,10 +7829,10 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D426" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7801,10 +7843,10 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D427" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7815,10 +7857,10 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="D428" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7829,10 +7871,10 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D429" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7843,10 +7885,10 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D430" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7857,10 +7899,10 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D431" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7871,10 +7913,10 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D432" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7885,10 +7927,10 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D433" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7899,10 +7941,10 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D434" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7913,10 +7955,10 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D435" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7927,10 +7969,10 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D436" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7941,10 +7983,10 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D437" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7955,10 +7997,10 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="D438" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7969,10 +8011,10 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D439" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7983,10 +8025,10 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D440" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7997,10 +8039,10 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D441" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8011,10 +8053,10 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D442" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8025,10 +8067,10 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D443" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8039,10 +8081,10 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D444" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8053,10 +8095,10 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D445" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8067,10 +8109,10 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D446" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8081,10 +8123,10 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D447" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8095,10 +8137,10 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D448" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8109,10 +8151,10 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D449" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8123,10 +8165,10 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D450" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8137,10 +8179,10 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D451" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8151,10 +8193,10 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D452" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8165,10 +8207,10 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D453" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8179,10 +8221,10 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D454" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8193,10 +8235,206 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
+        <v>472</v>
+      </c>
+      <c r="D455" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>457</v>
+      </c>
+      <c r="C456" t="s">
+        <v>498</v>
+      </c>
+      <c r="D456" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
         <v>458</v>
       </c>
-      <c r="D455" t="s">
-        <v>484</v>
+      <c r="C457" t="s">
+        <v>472</v>
+      </c>
+      <c r="D457" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>459</v>
+      </c>
+      <c r="C458" t="s">
+        <v>498</v>
+      </c>
+      <c r="D458" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>460</v>
+      </c>
+      <c r="C459" t="s">
+        <v>472</v>
+      </c>
+      <c r="D459" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>461</v>
+      </c>
+      <c r="C460" t="s">
+        <v>494</v>
+      </c>
+      <c r="D460" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>462</v>
+      </c>
+      <c r="C461" t="s">
+        <v>472</v>
+      </c>
+      <c r="D461" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>463</v>
+      </c>
+      <c r="C462" t="s">
+        <v>492</v>
+      </c>
+      <c r="D462" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>464</v>
+      </c>
+      <c r="C463" t="s">
+        <v>472</v>
+      </c>
+      <c r="D463" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>465</v>
+      </c>
+      <c r="C464" t="s">
+        <v>496</v>
+      </c>
+      <c r="D464" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>466</v>
+      </c>
+      <c r="C465" t="s">
+        <v>472</v>
+      </c>
+      <c r="D465" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>467</v>
+      </c>
+      <c r="C466" t="s">
+        <v>496</v>
+      </c>
+      <c r="D466" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>468</v>
+      </c>
+      <c r="C467" t="s">
+        <v>472</v>
+      </c>
+      <c r="D467" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>469</v>
+      </c>
+      <c r="C468" t="s">
+        <v>488</v>
+      </c>
+      <c r="D468" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>470</v>
+      </c>
+      <c r="C469" t="s">
+        <v>472</v>
+      </c>
+      <c r="D469" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/src/evol.xlsx
+++ b/src/evol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="513">
   <si>
     <t>EvolTime</t>
   </si>
@@ -25,1492 +25,1534 @@
     <t>EvolRecoNodesSet</t>
   </si>
   <si>
-    <t>[0, 0.23333333333312112]</t>
-  </si>
-  <si>
-    <t>[0.23333333333312112, 22.647874942276758]</t>
-  </si>
-  <si>
-    <t>[22.647874942276758, 190.64787494227676]</t>
-  </si>
-  <si>
-    <t>[190.64787494227676, 5519.887466616554]</t>
-  </si>
-  <si>
-    <t>[5519.887466616554, 5520.120799949887]</t>
-  </si>
-  <si>
-    <t>[5520.120799949887, 7076.724660406319]</t>
-  </si>
-  <si>
-    <t>[7076.724660406319, 7076.957993739653]</t>
-  </si>
-  <si>
-    <t>[7076.957993739653, 7694.642125316122]</t>
-  </si>
-  <si>
-    <t>[7694.642125316122, 7694.875458649455]</t>
-  </si>
-  <si>
-    <t>[7694.875458649455, 9713.02613657483]</t>
-  </si>
-  <si>
-    <t>[9713.02613657483, 9714.983196028956]</t>
-  </si>
-  <si>
-    <t>[9714.983196028956, 10651.484536940034]</t>
-  </si>
-  <si>
-    <t>[10651.484536940034, 10651.717870273367]</t>
-  </si>
-  <si>
-    <t>[10651.717870273367, 12356.402996555715]</t>
-  </si>
-  <si>
-    <t>[12356.402996555715, 12356.636329889048]</t>
-  </si>
-  <si>
-    <t>[12356.636329889048, 13912.2275538972]</t>
-  </si>
-  <si>
-    <t>[13912.2275538972, 13912.460887230534]</t>
-  </si>
-  <si>
-    <t>[13912.460887230534, 14041.749395688195]</t>
-  </si>
-  <si>
-    <t>[14041.749395688195, 14041.982729021529]</t>
-  </si>
-  <si>
-    <t>[14041.982729021529, 14112.99012912111]</t>
-  </si>
-  <si>
-    <t>[14112.99012912111, 14113.223462454444]</t>
-  </si>
-  <si>
-    <t>[14113.223462454444, 16812.467287914777]</t>
-  </si>
-  <si>
-    <t>[16812.467287914777, 16812.70062124811]</t>
-  </si>
-  <si>
-    <t>[16812.70062124811, 18298.67503407857]</t>
-  </si>
-  <si>
-    <t>[18298.67503407857, 18298.908367411903]</t>
-  </si>
-  <si>
-    <t>[18298.908367411903, 19688.3326475282]</t>
-  </si>
-  <si>
-    <t>[19688.3326475282, 19688.565980861535]</t>
-  </si>
-  <si>
-    <t>[19688.565980861535, 20039.312824494762]</t>
-  </si>
-  <si>
-    <t>[20039.312824494762, 20039.546157828096]</t>
-  </si>
-  <si>
-    <t>[20039.546157828096, 20048.294307937093]</t>
-  </si>
-  <si>
-    <t>[20048.294307937093, 20048.527641270426]</t>
-  </si>
-  <si>
-    <t>[20048.527641270426, 20938.59860716596]</t>
-  </si>
-  <si>
-    <t>[20938.59860716596, 20938.831940499294]</t>
-  </si>
-  <si>
-    <t>[20938.831940499294, 22722.7943196725]</t>
-  </si>
-  <si>
-    <t>[22722.7943196725, 22890.7943196725]</t>
-  </si>
-  <si>
-    <t>[22890.7943196725, 26141.025373985605]</t>
-  </si>
-  <si>
-    <t>[26141.025373985605, 26141.25870731894]</t>
-  </si>
-  <si>
-    <t>[26141.25870731894, 28739.77678349318]</t>
-  </si>
-  <si>
-    <t>[28739.77678349318, 28907.77678349318]</t>
-  </si>
-  <si>
-    <t>[28907.77678349318, 29023.738717003183]</t>
-  </si>
-  <si>
-    <t>[29023.738717003183, 29023.972050336517]</t>
-  </si>
-  <si>
-    <t>[29023.972050336517, 29267.405802363264]</t>
-  </si>
-  <si>
-    <t>[29267.405802363264, 29267.639135696598]</t>
-  </si>
-  <si>
-    <t>[29267.639135696598, 29970.436819128237]</t>
-  </si>
-  <si>
-    <t>[29970.436819128237, 29970.67015246157]</t>
-  </si>
-  <si>
-    <t>[29970.67015246157, 30568.624913515665]</t>
-  </si>
-  <si>
-    <t>[30568.624913515665, 30736.624913515665]</t>
-  </si>
-  <si>
-    <t>[30736.624913515665, 31067.691484568833]</t>
-  </si>
-  <si>
-    <t>[31067.691484568833, 31067.924817902163]</t>
-  </si>
-  <si>
-    <t>[31067.924817902163, 31329.33047034978]</t>
-  </si>
-  <si>
-    <t>[31329.33047034978, 31497.33047034978]</t>
-  </si>
-  <si>
-    <t>[31497.33047034978, 33146.96476715777]</t>
-  </si>
-  <si>
-    <t>[33146.96476715777, 33147.1981004911]</t>
-  </si>
-  <si>
-    <t>[33147.1981004911, 34854.20982268734]</t>
-  </si>
-  <si>
-    <t>[34854.20982268734, 34854.44315602067]</t>
-  </si>
-  <si>
-    <t>[34854.44315602067, 35212.45485549987]</t>
-  </si>
-  <si>
-    <t>[35212.45485549987, 35212.6881888332]</t>
-  </si>
-  <si>
-    <t>[35212.6881888332, 35668.736135409665]</t>
-  </si>
-  <si>
-    <t>[35668.736135409665, 35668.969468742995]</t>
-  </si>
-  <si>
-    <t>[35668.969468742995, 42077.908385418865]</t>
-  </si>
-  <si>
-    <t>[42077.908385418865, 42078.141718752195]</t>
-  </si>
-  <si>
-    <t>[42078.141718752195, 47627.76418258292]</t>
-  </si>
-  <si>
-    <t>[47627.76418258292, 47627.99751591625]</t>
-  </si>
-  <si>
-    <t>[47627.99751591625, 47743.1952197712]</t>
-  </si>
-  <si>
-    <t>[47743.1952197712, 47743.42855310453]</t>
-  </si>
-  <si>
-    <t>[47743.42855310453, 48459.80436735548]</t>
-  </si>
-  <si>
-    <t>[48459.80436735548, 48460.03770068881]</t>
-  </si>
-  <si>
-    <t>[48460.03770068881, 52067.93296638049]</t>
-  </si>
-  <si>
-    <t>[52067.93296638049, 52068.16629971382]</t>
-  </si>
-  <si>
-    <t>[52068.16629971382, 59481.92499330711]</t>
-  </si>
-  <si>
-    <t>[59481.92499330711, 59482.15832664044]</t>
-  </si>
-  <si>
-    <t>[59482.15832664044, 59596.614358140665]</t>
-  </si>
-  <si>
-    <t>[59596.614358140665, 59596.847691473995]</t>
-  </si>
-  <si>
-    <t>[59596.847691473995, 63052.29657765876]</t>
-  </si>
-  <si>
-    <t>[63052.29657765876, 63052.52991099209]</t>
-  </si>
-  <si>
-    <t>[63052.52991099209, 66297.4691988625]</t>
-  </si>
-  <si>
-    <t>[66297.4691988625, 66297.70253219584]</t>
-  </si>
-  <si>
-    <t>[66297.70253219584, 70957.18270706567]</t>
-  </si>
-  <si>
-    <t>[70957.18270706567, 70957.41604039901]</t>
-  </si>
-  <si>
-    <t>[70957.41604039901, 72866.85942814757]</t>
-  </si>
-  <si>
-    <t>[72866.85942814757, 72867.0927614809]</t>
-  </si>
-  <si>
-    <t>[72867.0927614809, 73713.91707043425]</t>
-  </si>
-  <si>
-    <t>[73713.91707043425, 73714.15040376759]</t>
-  </si>
-  <si>
-    <t>[73714.15040376759, 74703.78982384222]</t>
-  </si>
-  <si>
-    <t>[74703.78982384222, 74704.02315717556]</t>
-  </si>
-  <si>
-    <t>[74704.02315717556, 77461.62384543802]</t>
-  </si>
-  <si>
-    <t>[77461.62384543802, 77461.85717877136]</t>
-  </si>
-  <si>
-    <t>[77461.85717877136, 85257.05909874525]</t>
-  </si>
-  <si>
-    <t>[85257.05909874525, 85257.29243207858]</t>
-  </si>
-  <si>
-    <t>[85257.29243207858, 88577.7772846725]</t>
-  </si>
-  <si>
-    <t>[88577.7772846725, 88745.7772846725]</t>
-  </si>
-  <si>
-    <t>[88745.7772846725, 102853.02738221033]</t>
-  </si>
-  <si>
-    <t>[102853.02738221033, 102854.01246139784]</t>
-  </si>
-  <si>
-    <t>[102854.01246139784, 107254.93262036829]</t>
-  </si>
-  <si>
-    <t>[107254.93262036829, 107255.16595370162]</t>
-  </si>
-  <si>
-    <t>[107255.16595370162, 108306.96247708327]</t>
-  </si>
-  <si>
-    <t>[108306.96247708327, 108307.19581041661]</t>
-  </si>
-  <si>
-    <t>[108307.19581041661, 108425.81219312172]</t>
-  </si>
-  <si>
-    <t>[108425.81219312172, 108426.04552645505]</t>
-  </si>
-  <si>
-    <t>[108426.04552645505, 109775.5044642309]</t>
-  </si>
-  <si>
-    <t>[109775.5044642309, 109775.73779756423]</t>
-  </si>
-  <si>
-    <t>[109775.73779756423, 114752.66199151431]</t>
-  </si>
-  <si>
-    <t>[114752.66199151431, 114752.89532484765]</t>
-  </si>
-  <si>
-    <t>[114752.89532484765, 116420.22772941092]</t>
-  </si>
-  <si>
-    <t>[116420.22772941092, 116420.46106274426]</t>
-  </si>
-  <si>
-    <t>[116420.46106274426, 120219.53990267613]</t>
-  </si>
-  <si>
-    <t>[120219.53990267613, 120219.77323600947]</t>
-  </si>
-  <si>
-    <t>[120219.77323600947, 120853.25515365686]</t>
-  </si>
-  <si>
-    <t>[120853.25515365686, 120853.4884869902]</t>
-  </si>
-  <si>
-    <t>[120853.4884869902, 130733.12887335625]</t>
-  </si>
-  <si>
-    <t>[130733.12887335625, 130736.08793626445]</t>
-  </si>
-  <si>
-    <t>[130736.08793626445, 132442.23426841048]</t>
-  </si>
-  <si>
-    <t>[132442.23426841048, 132442.46760174382]</t>
-  </si>
-  <si>
-    <t>[132442.46760174382, 146295.96407975277]</t>
-  </si>
-  <si>
-    <t>[146295.96407975277, 146296.1974130861]</t>
-  </si>
-  <si>
-    <t>[146296.1974130861, 148092.7008637508]</t>
-  </si>
-  <si>
-    <t>[148092.7008637508, 148092.93419708413]</t>
-  </si>
-  <si>
-    <t>[148092.93419708413, 155445.48673333862]</t>
-  </si>
-  <si>
-    <t>[155445.48673333862, 155613.48673333862]</t>
-  </si>
-  <si>
-    <t>[155613.48673333862, 156011.85312471815]</t>
-  </si>
-  <si>
-    <t>[156011.85312471815, 156013.0809382698]</t>
-  </si>
-  <si>
-    <t>[156013.0809382698, 159800.89864024683]</t>
-  </si>
-  <si>
-    <t>[159800.89864024683, 159801.13197358017]</t>
-  </si>
-  <si>
-    <t>[159801.13197358017, 160830.13898400962]</t>
-  </si>
-  <si>
-    <t>[160830.13898400962, 160831.38879886654]</t>
-  </si>
-  <si>
-    <t>[160831.38879886654, 160875.17897630236]</t>
-  </si>
-  <si>
-    <t>[160875.17897630236, 160875.4123096357]</t>
-  </si>
-  <si>
-    <t>[160875.4123096357, 195141.71194656272]</t>
-  </si>
-  <si>
-    <t>[195141.71194656272, 195147.64947826928]</t>
-  </si>
-  <si>
-    <t>[195147.64947826928, 195199.0197331873]</t>
-  </si>
-  <si>
-    <t>[195199.0197331873, 195199.25306652064]</t>
-  </si>
-  <si>
-    <t>[195199.25306652064, 195716.83141256846]</t>
-  </si>
-  <si>
-    <t>[195716.83141256846, 195717.0647459018]</t>
-  </si>
-  <si>
-    <t>[195717.0647459018, 197090.61092722137]</t>
-  </si>
-  <si>
-    <t>[197090.61092722137, 197258.61092722137]</t>
-  </si>
-  <si>
-    <t>[197258.61092722137, 228467.5443271374]</t>
-  </si>
-  <si>
-    <t>[228467.5443271374, 228467.77766047075]</t>
-  </si>
-  <si>
-    <t>[228467.77766047075, 245156.12399440494]</t>
-  </si>
-  <si>
-    <t>[245156.12399440494, 245157.75885942174]</t>
-  </si>
-  <si>
-    <t>[245157.75885942174, 267266.67064212286]</t>
-  </si>
-  <si>
-    <t>[267266.67064212286, 267266.9039754562]</t>
-  </si>
-  <si>
-    <t>[267266.9039754562, 279119.57128282834]</t>
-  </si>
-  <si>
-    <t>[279119.57128282834, 279119.8046161617]</t>
-  </si>
-  <si>
-    <t>[279119.8046161617, 286298.8040970917]</t>
-  </si>
-  <si>
-    <t>[286298.8040970917, 286299.03743042506]</t>
-  </si>
-  <si>
-    <t>[286299.03743042506, 313098.35960219393]</t>
-  </si>
-  <si>
-    <t>[313098.35960219393, 313098.59293552727]</t>
-  </si>
-  <si>
-    <t>[313098.59293552727, 319817.82449851924]</t>
-  </si>
-  <si>
-    <t>[319817.82449851924, 319818.0578318526]</t>
-  </si>
-  <si>
-    <t>[319818.0578318526, 347447.72957511223]</t>
-  </si>
-  <si>
-    <t>[347447.72957511223, 347449.831525086]</t>
-  </si>
-  <si>
-    <t>[347449.831525086, 358845.41428704676]</t>
-  </si>
-  <si>
-    <t>[358845.41428704676, 358847.8431494844]</t>
-  </si>
-  <si>
-    <t>[358847.8431494844, 376612.23444266577]</t>
-  </si>
-  <si>
-    <t>[376612.23444266577, 376612.4677759991]</t>
-  </si>
-  <si>
-    <t>[376612.4677759991, 401048.2115750988]</t>
-  </si>
-  <si>
-    <t>[401048.2115750988, 401048.44490843214]</t>
-  </si>
-  <si>
-    <t>[401048.44490843214, 410252.87364428915]</t>
-  </si>
-  <si>
-    <t>[410252.87364428915, 410420.87364428915]</t>
-  </si>
-  <si>
-    <t>[410420.87364428915, 428264.83275017585]</t>
-  </si>
-  <si>
-    <t>[428264.83275017585, 428265.0660835092]</t>
-  </si>
-  <si>
-    <t>[428265.0660835092, 490417.89242531866]</t>
-  </si>
-  <si>
-    <t>[490417.89242531866, 490418.125758652]</t>
-  </si>
-  <si>
-    <t>[490418.125758652, 502809.4635487733]</t>
-  </si>
-  <si>
-    <t>[502809.4635487733, 502812.27491305745]</t>
-  </si>
-  <si>
-    <t>[502812.27491305745, 593461.6326335679]</t>
-  </si>
-  <si>
-    <t>[593461.6326335679, 593464.1342822058]</t>
-  </si>
-  <si>
-    <t>[593464.1342822058, 597953.7332016262]</t>
-  </si>
-  <si>
-    <t>[597953.7332016262, 597953.9665349595]</t>
-  </si>
-  <si>
-    <t>[597953.9665349595, 598077.8691538711]</t>
-  </si>
-  <si>
-    <t>[598077.8691538711, 598078.3943878203]</t>
-  </si>
-  <si>
-    <t>[598078.3943878203, 604740.8685948543]</t>
-  </si>
-  <si>
-    <t>[604740.8685948543, 604908.8685948543]</t>
-  </si>
-  <si>
-    <t>[604908.8685948543, 607228.3564508704]</t>
-  </si>
-  <si>
-    <t>[607228.3564508704, 607233.6266461145]</t>
-  </si>
-  <si>
-    <t>[607233.6266461145, 699147.9727296005]</t>
-  </si>
-  <si>
-    <t>[699147.9727296005, 699148.2060629338]</t>
-  </si>
-  <si>
-    <t>[699148.2060629338, 707410.5610900674]</t>
-  </si>
-  <si>
-    <t>[707410.5610900674, 707413.8257889196]</t>
-  </si>
-  <si>
-    <t>[707413.8257889196, 727807.1598519364]</t>
-  </si>
-  <si>
-    <t>[727807.1598519364, 727807.3931852697]</t>
-  </si>
-  <si>
-    <t>[727807.3931852697, 820988.3058990225]</t>
-  </si>
-  <si>
-    <t>[820988.3058990225, 820988.5392323558]</t>
-  </si>
-  <si>
-    <t>[820988.5392323558, 889133.7622057572]</t>
-  </si>
-  <si>
-    <t>[889133.7622057572, 889137.5919540375]</t>
-  </si>
-  <si>
-    <t>[889137.5919540375, 916359.4508629034]</t>
-  </si>
-  <si>
-    <t>[916359.4508629034, 916359.6841962367]</t>
-  </si>
-  <si>
-    <t>[916359.6841962367, 921253.388203443]</t>
-  </si>
-  <si>
-    <t>[921253.388203443, 921253.6215367763]</t>
-  </si>
-  <si>
-    <t>[921253.6215367763, 935561.2162811196]</t>
-  </si>
-  <si>
-    <t>[935561.2162811196, 935561.4496144529]</t>
-  </si>
-  <si>
-    <t>[935561.4496144529, 946676.6247954007]</t>
-  </si>
-  <si>
-    <t>[946676.6247954007, 946676.8581287339]</t>
-  </si>
-  <si>
-    <t>[946676.8581287339, 949519.0146079665]</t>
-  </si>
-  <si>
-    <t>[949519.0146079665, 949519.2479412998]</t>
-  </si>
-  <si>
-    <t>[949519.2479412998, 965272.7264671564]</t>
-  </si>
-  <si>
-    <t>[965272.7264671564, 965272.9598004897]</t>
-  </si>
-  <si>
-    <t>[965272.9598004897, 993459.6469080106]</t>
-  </si>
-  <si>
-    <t>[993459.6469080106, 993463.5679782757]</t>
-  </si>
-  <si>
-    <t>[993463.5679782757, 1014163.1561126497]</t>
-  </si>
-  <si>
-    <t>[1014163.1561126497, 1014165.5602097352]</t>
-  </si>
-  <si>
-    <t>[1014165.5602097352, 1047904.0768077854]</t>
-  </si>
-  <si>
-    <t>[1047904.0768077854, 1047907.0699781136]</t>
-  </si>
-  <si>
-    <t>[1047907.0699781136, 1054439.3679151991]</t>
-  </si>
-  <si>
-    <t>[1054439.3679151991, 1054439.6012485325]</t>
-  </si>
-  <si>
-    <t>[1054439.6012485325, 1068671.171633905]</t>
-  </si>
-  <si>
-    <t>[1068671.171633905, 1068671.4049672384]</t>
-  </si>
-  <si>
-    <t>[1068671.4049672384, 1156316.5042205167]</t>
-  </si>
-  <si>
-    <t>[1156316.5042205167, 1156318.2338655277]</t>
-  </si>
-  <si>
-    <t>[1156318.2338655277, 1166269.4378366468]</t>
-  </si>
-  <si>
-    <t>[1166269.4378366468, 1166269.6711699802]</t>
-  </si>
-  <si>
-    <t>[1166269.6711699802, 1175427.9134942924]</t>
-  </si>
-  <si>
-    <t>[1175427.9134942924, 1175432.1983827946]</t>
-  </si>
-  <si>
-    <t>[1175432.1983827946, 1229982.9601592817]</t>
-  </si>
-  <si>
-    <t>[1229982.9601592817, 1229983.1934926151]</t>
-  </si>
-  <si>
-    <t>[1229983.1934926151, 1247770.9144074905]</t>
-  </si>
-  <si>
-    <t>[1247770.9144074905, 1247938.9144074905]</t>
-  </si>
-  <si>
-    <t>[1247938.9144074905, 1266984.3955423217]</t>
-  </si>
-  <si>
-    <t>[1266984.3955423217, 1266984.6288756551]</t>
-  </si>
-  <si>
-    <t>[1266984.6288756551, 1283632.0382911349]</t>
-  </si>
-  <si>
-    <t>[1283632.0382911349, 1283632.2716244683]</t>
-  </si>
-  <si>
-    <t>[1283632.2716244683, 1310391.01836711]</t>
-  </si>
-  <si>
-    <t>[1310391.01836711, 1310392.7210906188]</t>
-  </si>
-  <si>
-    <t>[1310392.7210906188, 1321028.6372654377]</t>
-  </si>
-  <si>
-    <t>[1321028.6372654377, 1321028.8705987711]</t>
-  </si>
-  <si>
-    <t>[1321028.8705987711, 1331867.1120193878]</t>
-  </si>
-  <si>
-    <t>[1331867.1120193878, 1331867.3453527212]</t>
-  </si>
-  <si>
-    <t>[1331867.3453527212, 1373979.6471683364]</t>
-  </si>
-  <si>
-    <t>[1373979.6471683364, 1373984.879436457]</t>
-  </si>
-  <si>
-    <t>[1373984.879436457, 1414897.7132430694]</t>
-  </si>
-  <si>
-    <t>[1414897.7132430694, 1414899.3108595756]</t>
-  </si>
-  <si>
-    <t>[1414899.3108595756, 1421154.8247779724]</t>
-  </si>
-  <si>
-    <t>[1421154.8247779724, 1421155.0581113058]</t>
-  </si>
-  <si>
-    <t>[1421155.0581113058, 1429732.5099123544]</t>
-  </si>
-  <si>
-    <t>[1429732.5099123544, 1429732.7432456878]</t>
-  </si>
-  <si>
-    <t>[1429732.7432456878, 1437504.2278634491]</t>
-  </si>
-  <si>
-    <t>[1437504.2278634491, 1437504.4611967825]</t>
-  </si>
-  <si>
-    <t>[1437504.4611967825, 1462796.36863863]</t>
-  </si>
-  <si>
-    <t>[1462796.36863863, 1462798.9213478009]</t>
-  </si>
-  <si>
-    <t>[1462798.9213478009, 1466737.7591478233]</t>
-  </si>
-  <si>
-    <t>[1466737.7591478233, 1466737.9924811567]</t>
-  </si>
-  <si>
-    <t>[1466737.9924811567, 1525052.6432042962]</t>
-  </si>
-  <si>
-    <t>[1525052.6432042962, 1525052.8765376296]</t>
-  </si>
-  <si>
-    <t>[1525052.8765376296, 1529063.2102793579]</t>
-  </si>
-  <si>
-    <t>[1529063.2102793579, 1529067.466269698]</t>
-  </si>
-  <si>
-    <t>[1529067.466269698, 1590117.7478498418]</t>
-  </si>
-  <si>
-    <t>[1590117.7478498418, 1590117.9811831752]</t>
-  </si>
-  <si>
-    <t>[1590117.9811831752, 1607262.7935958323]</t>
-  </si>
-  <si>
-    <t>[1607262.7935958323, 1607266.100498689]</t>
-  </si>
-  <si>
-    <t>[1607266.100498689, 1626354.7873829082]</t>
-  </si>
-  <si>
-    <t>[1626354.7873829082, 1626362.7290911367]</t>
-  </si>
-  <si>
-    <t>[1626362.7290911367, 1648214.2338793667]</t>
-  </si>
-  <si>
-    <t>[1648214.2338793667, 1648218.204149421]</t>
-  </si>
-  <si>
-    <t>[1648218.204149421, 1655205.6161867783]</t>
-  </si>
-  <si>
-    <t>[1655205.6161867783, 1655205.8495201117]</t>
-  </si>
-  <si>
-    <t>[1655205.8495201117, 1734477.6342688627]</t>
-  </si>
-  <si>
-    <t>[1734477.6342688627, 1734478.6321108954]</t>
-  </si>
-  <si>
-    <t>[1734478.6321108954, 1738243.9280045677]</t>
-  </si>
-  <si>
-    <t>[1738243.9280045677, 1738244.1613379011]</t>
-  </si>
-  <si>
-    <t>[1738244.1613379011, 1765179.899333153]</t>
-  </si>
-  <si>
-    <t>[1765179.899333153, 1765182.0029545615]</t>
-  </si>
-  <si>
-    <t>[1765182.0029545615, 1766689.0003073893]</t>
-  </si>
-  <si>
-    <t>[1766689.0003073893, 1766689.2336407227]</t>
-  </si>
-  <si>
-    <t>[1766689.2336407227, 1814052.9568014718]</t>
-  </si>
-  <si>
-    <t>[1814052.9568014718, 1814055.0648678436]</t>
-  </si>
-  <si>
-    <t>[1814055.0648678436, 1841312.883682145]</t>
-  </si>
-  <si>
-    <t>[1841312.883682145, 1841313.1170154784]</t>
-  </si>
-  <si>
-    <t>[1841313.1170154784, 1886286.1884202834]</t>
-  </si>
-  <si>
-    <t>[1886286.1884202834, 1886289.3222374858]</t>
-  </si>
-  <si>
-    <t>[1886289.3222374858, 1927992.8257676745]</t>
-  </si>
-  <si>
-    <t>[1927992.8257676745, 1927993.520361298]</t>
-  </si>
-  <si>
-    <t>[1927993.520361298, 2011984.0454602765]</t>
-  </si>
-  <si>
-    <t>[2011984.0454602765, 2011984.27879361]</t>
-  </si>
-  <si>
-    <t>[2011984.27879361, 2074170.784419841]</t>
-  </si>
-  <si>
-    <t>[2074170.784419841, 2074172.4763295192]</t>
-  </si>
-  <si>
-    <t>[2074172.4763295192, 2121300.8225524873]</t>
-  </si>
-  <si>
-    <t>[2121300.8225524873, 2121302.9528324855]</t>
-  </si>
-  <si>
-    <t>[2121302.9528324855, 2159436.1930246586]</t>
-  </si>
-  <si>
-    <t>[2159436.1930246586, 2159604.1930246586]</t>
-  </si>
-  <si>
-    <t>[2159604.1930246586, 2160134.945332234]</t>
-  </si>
-  <si>
-    <t>[2160134.945332234, 2160135.178665567]</t>
-  </si>
-  <si>
-    <t>[2160135.178665567, 2239135.1575999535]</t>
-  </si>
-  <si>
-    <t>[2239135.1575999535, 2239136.4150208724]</t>
-  </si>
-  <si>
-    <t>[2239136.4150208724, 2349988.4872507686]</t>
-  </si>
-  <si>
-    <t>[2349988.4872507686, 2349991.801964719]</t>
-  </si>
-  <si>
-    <t>[2349991.801964719, 2399834.5000610137]</t>
-  </si>
-  <si>
-    <t>[2399834.5000610137, 2399838.6232614685]</t>
-  </si>
-  <si>
-    <t>[2399838.6232614685, 2453424.1166742076]</t>
-  </si>
-  <si>
-    <t>[2453424.1166742076, 2453424.350007541]</t>
-  </si>
-  <si>
-    <t>[2453424.350007541, 2505756.052473057]</t>
-  </si>
-  <si>
-    <t>[2505756.052473057, 2505756.2858063905]</t>
-  </si>
-  <si>
-    <t>[2505756.2858063905, 2554716.87607214]</t>
-  </si>
-  <si>
-    <t>[2554716.87607214, 2554884.87607214]</t>
-  </si>
-  <si>
-    <t>[2554884.87607214, 2600360.990432147]</t>
-  </si>
-  <si>
-    <t>[2600360.990432147, 2600365.8422827693]</t>
-  </si>
-  <si>
-    <t>[2600365.8422827693, 2620298.9151954856]</t>
-  </si>
-  <si>
-    <t>[2620298.9151954856, 2620300.653641208]</t>
-  </si>
-  <si>
-    <t>[2620300.653641208, 2635336.2870201934]</t>
-  </si>
-  <si>
-    <t>[2635336.2870201934, 2635339.1383710345]</t>
-  </si>
-  <si>
-    <t>[2635339.1383710345, 2639883.345345189]</t>
-  </si>
-  <si>
-    <t>[2639883.345345189, 2639888.9217304816]</t>
-  </si>
-  <si>
-    <t>[2639888.9217304816, 2793415.7407712825]</t>
-  </si>
-  <si>
-    <t>[2793415.7407712825, 2793416.9459736524]</t>
-  </si>
-  <si>
-    <t>[2793416.9459736524, 3019819.947400931]</t>
-  </si>
-  <si>
-    <t>[3019819.947400931, 3019825.437076397]</t>
-  </si>
-  <si>
-    <t>[3019825.437076397, 3031859.7399587287]</t>
-  </si>
-  <si>
-    <t>[3031859.7399587287, 3031862.2144171656]</t>
-  </si>
-  <si>
-    <t>[3031862.2144171656, 3115108.79434516]</t>
-  </si>
-  <si>
-    <t>[3115108.79434516, 3115112.564585667]</t>
-  </si>
-  <si>
-    <t>[3115112.564585667, 3124114.3933691755]</t>
-  </si>
-  <si>
-    <t>[3124114.3933691755, 3124117.1980552017]</t>
-  </si>
-  <si>
-    <t>[3124117.1980552017, 3202521.8174262256]</t>
-  </si>
-  <si>
-    <t>[3202521.8174262256, 3202526.7206129944]</t>
-  </si>
-  <si>
-    <t>[3202526.7206129944, 3209872.2744589318]</t>
-  </si>
-  <si>
-    <t>[3209872.2744589318, 3209873.17020129]</t>
-  </si>
-  <si>
-    <t>[3209873.17020129, 3273500.915932078]</t>
-  </si>
-  <si>
-    <t>[3273500.915932078, 3273501.744181828]</t>
-  </si>
-  <si>
-    <t>[3273501.744181828, 3303954.4812907022]</t>
-  </si>
-  <si>
-    <t>[3303954.4812907022, 3303958.0384954643]</t>
-  </si>
-  <si>
-    <t>[3303958.0384954643, 3310463.2447749972]</t>
-  </si>
-  <si>
-    <t>[3310463.2447749972, 3310465.0210924875]</t>
-  </si>
-  <si>
-    <t>[3310465.0210924875, 3369067.9753044224]</t>
-  </si>
-  <si>
-    <t>[3369067.9753044224, 3369070.0741858757]</t>
-  </si>
-  <si>
-    <t>[3369070.0741858757, 3510024.0854494628]</t>
-  </si>
-  <si>
-    <t>[3510024.0854494628, 3510025.233241752]</t>
-  </si>
-  <si>
-    <t>[3510025.233241752, 3568793.181994622]</t>
-  </si>
-  <si>
-    <t>[3568793.181994622, 3568795.0345240184]</t>
-  </si>
-  <si>
-    <t>[3568795.0345240184, 3573949.3982094936]</t>
-  </si>
-  <si>
-    <t>[3573949.3982094936, 3573949.9259120673]</t>
-  </si>
-  <si>
-    <t>[3573949.9259120673, 3615944.9205916417]</t>
-  </si>
-  <si>
-    <t>[3615944.9205916417, 3615949.180593809]</t>
-  </si>
-  <si>
-    <t>[3615949.180593809, 3668996.3027814375]</t>
-  </si>
-  <si>
-    <t>[3668996.3027814375, 3668999.336097594]</t>
-  </si>
-  <si>
-    <t>[3668999.336097594, 3741802.280592042]</t>
-  </si>
-  <si>
-    <t>[3741802.280592042, 3741803.3594303983]</t>
-  </si>
-  <si>
-    <t>[3741803.3594303983, 4160404.892248023]</t>
-  </si>
-  <si>
-    <t>[4160404.892248023, 4160409.7367421873]</t>
-  </si>
-  <si>
-    <t>[4160409.7367421873, 4168040.1288041896]</t>
-  </si>
-  <si>
-    <t>[4168040.1288041896, 4168042.911695937]</t>
-  </si>
-  <si>
-    <t>[4168042.911695937, 4179703.1041667364]</t>
-  </si>
-  <si>
-    <t>[4179703.1041667364, 4179703.6964309714]</t>
-  </si>
-  <si>
-    <t>[4179703.6964309714, 4228117.478712428]</t>
-  </si>
-  <si>
-    <t>[4228117.478712428, 4228118.203946594]</t>
-  </si>
-  <si>
-    <t>[4228118.203946594, 4232175.062343427]</t>
-  </si>
-  <si>
-    <t>[4232175.062343427, 4232175.585034561]</t>
-  </si>
-  <si>
-    <t>[4232175.585034561, 4377624.27153546]</t>
-  </si>
-  <si>
-    <t>[4377624.27153546, 4377629.678287665]</t>
-  </si>
-  <si>
-    <t>[4377629.678287665, 4448921.371232115]</t>
-  </si>
-  <si>
-    <t>[4448921.371232115, 4448927.073829604]</t>
-  </si>
-  <si>
-    <t>[4448927.073829604, 4503878.456362442]</t>
-  </si>
-  <si>
-    <t>[4503878.456362442, 4503880.494024746]</t>
-  </si>
-  <si>
-    <t>[4503880.494024746, 4513525.465901866]</t>
-  </si>
-  <si>
-    <t>[4513525.465901866, 4513526.590597243]</t>
-  </si>
-  <si>
-    <t>[4513526.590597243, 4526504.567678303]</t>
-  </si>
-  <si>
-    <t>[4526504.567678303, 4526509.421409545]</t>
-  </si>
-  <si>
-    <t>[4526509.421409545, 4609083.649197368]</t>
-  </si>
-  <si>
-    <t>[4609083.649197368, 4609085.874405423]</t>
-  </si>
-  <si>
-    <t>[4609085.874405423, 4711103.3271513395]</t>
-  </si>
-  <si>
-    <t>[4711103.3271513395, 4711109.315692864]</t>
-  </si>
-  <si>
-    <t>[4711109.315692864, 4753725.720705585]</t>
-  </si>
-  <si>
-    <t>[4753725.720705585, 4753726.419467708]</t>
-  </si>
-  <si>
-    <t>[4753726.419467708, 4972899.030773643]</t>
-  </si>
-  <si>
-    <t>[4972899.030773643, 4972901.676577464]</t>
-  </si>
-  <si>
-    <t>[4972901.676577464, 4996310.635259734]</t>
-  </si>
-  <si>
-    <t>[4996310.635259734, 4996311.246316623]</t>
-  </si>
-  <si>
-    <t>[4996311.246316623, 5030690.933526399]</t>
-  </si>
-  <si>
-    <t>[5030690.933526399, 5030693.739891751]</t>
-  </si>
-  <si>
-    <t>[5030693.739891751, 5318847.367659254]</t>
-  </si>
-  <si>
-    <t>[5318847.367659254, 5318850.452286871]</t>
-  </si>
-  <si>
-    <t>[5318850.452286871, 5450985.947240205]</t>
-  </si>
-  <si>
-    <t>[5450985.947240205, 5450988.527547058]</t>
-  </si>
-  <si>
-    <t>[5450988.527547058, 5472252.416067022]</t>
-  </si>
-  <si>
-    <t>[5472252.416067022, 5472253.620699276]</t>
-  </si>
-  <si>
-    <t>[5472253.620699276, 5623100.000951482]</t>
-  </si>
-  <si>
-    <t>[5623100.000951482, 5623105.13531964]</t>
-  </si>
-  <si>
-    <t>[5623105.13531964, 5652758.587807499]</t>
-  </si>
-  <si>
-    <t>[5652758.587807499, 5652764.588921718]</t>
-  </si>
-  <si>
-    <t>[5652764.588921718, 5671702.61681423]</t>
-  </si>
-  <si>
-    <t>[5671702.61681423, 5671704.128807788]</t>
-  </si>
-  <si>
-    <t>[5671704.128807788, 5672677.401218454]</t>
-  </si>
-  <si>
-    <t>[5672677.401218454, 5672677.9963112045]</t>
-  </si>
-  <si>
-    <t>[5672677.9963112045, 5688176.388309738]</t>
-  </si>
-  <si>
-    <t>[5688176.388309738, 5688177.878425115]</t>
-  </si>
-  <si>
-    <t>[5688177.878425115, 5688820.649838761]</t>
-  </si>
-  <si>
-    <t>[5688820.649838761, 5688821.227716175]</t>
-  </si>
-  <si>
-    <t>[5688821.227716175, 5840716.130509281]</t>
-  </si>
-  <si>
-    <t>[5840716.130509281, 5840717.328259978]</t>
-  </si>
-  <si>
-    <t>[5840717.328259978, 5901122.483797672]</t>
-  </si>
-  <si>
-    <t>[5901122.483797672, 5901132.847869016]</t>
-  </si>
-  <si>
-    <t>[5901132.847869016, 5907706.750589454]</t>
-  </si>
-  <si>
-    <t>[5907706.750589454, 5907708.257171062]</t>
-  </si>
-  <si>
-    <t>[5907708.257171062, 5971553.444339989]</t>
-  </si>
-  <si>
-    <t>[5971553.444339989, 5971554.240037191]</t>
-  </si>
-  <si>
-    <t>[5971554.240037191, 6039275.915881811]</t>
-  </si>
-  <si>
-    <t>[6039275.915881811, 6039281.025446542]</t>
-  </si>
-  <si>
-    <t>[6039281.025446542, 6065781.2098642355]</t>
-  </si>
-  <si>
-    <t>[6065781.2098642355, 6065788.801951538]</t>
-  </si>
-  <si>
-    <t>[6065788.801951538, 6086083.9761571875]</t>
-  </si>
-  <si>
-    <t>[6086083.9761571875, 6086085.324849554]</t>
-  </si>
-  <si>
-    <t>[6086085.324849554, 6130541.523733903]</t>
-  </si>
-  <si>
-    <t>[6130541.523733903, 6130544.123048492]</t>
-  </si>
-  <si>
-    <t>[6130544.123048492, 6166071.981759147]</t>
-  </si>
-  <si>
-    <t>[6166071.981759147, 6166073.9715635]</t>
-  </si>
-  <si>
-    <t>[6166073.9715635, 6284999.477990753]</t>
-  </si>
-  <si>
-    <t>[6284999.477990753, 6285000.890441224]</t>
-  </si>
-  <si>
-    <t>[6285000.890441224, 6300623.396087445]</t>
-  </si>
-  <si>
-    <t>[6300623.396087445, 6300624.972558195]</t>
-  </si>
-  <si>
-    <t>[6300624.972558195, 6313458.224920048]</t>
-  </si>
-  <si>
-    <t>[6313458.224920048, 6313458.787686041]</t>
-  </si>
-  <si>
-    <t>[6313458.787686041, 6485623.330281222]</t>
-  </si>
-  <si>
-    <t>[6485623.330281222, 6485625.2935773805]</t>
-  </si>
-  <si>
-    <t>[6485625.2935773805, 6604883.741414306]</t>
-  </si>
-  <si>
-    <t>[6604883.741414306, 6604886.411515303]</t>
-  </si>
-  <si>
-    <t>[6604886.411515303, 6716742.028283443]</t>
-  </si>
-  <si>
-    <t>[6716742.028283443, 6716743.587777666]</t>
-  </si>
-  <si>
-    <t>[6716743.587777666, 6746734.987653504]</t>
-  </si>
-  <si>
-    <t>[6746734.987653504, 6746739.0314582875]</t>
-  </si>
-  <si>
-    <t>[6746739.0314582875, 6868527.340493389]</t>
-  </si>
-  <si>
-    <t>[6868527.340493389, 6868528.400771056]</t>
-  </si>
-  <si>
-    <t>[6868528.400771056, 6893588.772697698]</t>
-  </si>
-  <si>
-    <t>[6893588.772697698, 6893590.595139987]</t>
-  </si>
-  <si>
-    <t>[6893590.595139987, 6904913.041607539]</t>
-  </si>
-  <si>
-    <t>[6904913.041607539, 6904917.498431814]</t>
-  </si>
-  <si>
-    <t>[6904917.498431814, 6920838.153134658]</t>
-  </si>
-  <si>
-    <t>[6920838.153134658, 6920841.560667821]</t>
-  </si>
-  <si>
-    <t>[6920841.560667821, 7060445.170440673]</t>
-  </si>
-  <si>
-    <t>[7060445.170440673, 7060452.237803847]</t>
-  </si>
-  <si>
-    <t>[7060452.237803847, 7161506.986286305]</t>
-  </si>
-  <si>
-    <t>[7161506.986286305, 7161508.589381856]</t>
-  </si>
-  <si>
-    <t>[7161508.589381856, 7212905.079058598]</t>
-  </si>
-  <si>
-    <t>[7212905.079058598, 7212906.279356959]</t>
-  </si>
-  <si>
-    <t>[7212906.279356959, 7285040.5289766835]</t>
-  </si>
-  <si>
-    <t>[7285040.5289766835, 7285041.597216134]</t>
-  </si>
-  <si>
-    <t>[7285041.597216134, 7344232.563926372]</t>
-  </si>
-  <si>
-    <t>[7344232.563926372, 7344233.338371425]</t>
-  </si>
-  <si>
-    <t>[7344233.338371425, 7556295.719605105]</t>
-  </si>
-  <si>
-    <t>[7556295.719605105, 7556297.791760083]</t>
-  </si>
-  <si>
-    <t>[7556297.791760083, 7656473.885845762]</t>
-  </si>
-  <si>
-    <t>[7656473.885845762, 7656477.987937017]</t>
-  </si>
-  <si>
-    <t>[7656477.987937017, 7668969.906161231]</t>
-  </si>
-  <si>
-    <t>[7668969.906161231, 7668973.950872697]</t>
-  </si>
-  <si>
-    <t>[7668973.950872697, 7671080.017653328]</t>
-  </si>
-  <si>
-    <t>[7671080.017653328, 7671084.879520588]</t>
-  </si>
-  <si>
-    <t>[7671084.879520588, 7837393.240687207]</t>
-  </si>
-  <si>
-    <t>[7837393.240687207, 7837394.513891727]</t>
-  </si>
-  <si>
-    <t>[7837394.513891727, 7957679.451950163]</t>
-  </si>
-  <si>
-    <t>[7957679.451950163, 7957682.757240635]</t>
-  </si>
-  <si>
-    <t>[7957682.757240635, 7991130.943520892]</t>
-  </si>
-  <si>
-    <t>[7991130.943520892, 7991139.10829101]</t>
-  </si>
-  <si>
-    <t>[7991139.10829101, 8001136.996270506]</t>
-  </si>
-  <si>
-    <t>[8001136.996270506, 8001139.074222598]</t>
-  </si>
-  <si>
-    <t>[8001139.074222598, 8074071.781904241]</t>
-  </si>
-  <si>
-    <t>[8074071.781904241, 8074072.664758915]</t>
-  </si>
-  <si>
-    <t>[8074072.664758915, 8206048.712081794]</t>
-  </si>
-  <si>
-    <t>[8206048.712081794, 8206052.18314764]</t>
-  </si>
-  <si>
-    <t>[8206052.18314764, 8370545.875047371]</t>
-  </si>
-  <si>
-    <t>[8370545.875047371, 8370547.130326786]</t>
-  </si>
-  <si>
-    <t>[8370547.130326786, 8442544.71765591]</t>
-  </si>
-  <si>
-    <t>[8442544.71765591, 8442547.985065516]</t>
-  </si>
-  <si>
-    <t>[8442547.985065516, 8548452.337546673]</t>
-  </si>
-  <si>
-    <t>[8548452.337546673, 8548456.84795744]</t>
-  </si>
-  <si>
-    <t>[8548456.84795744, 8641232.79121518]</t>
-  </si>
-  <si>
-    <t>[8641232.79121518, 8641235.885154113]</t>
-  </si>
-  <si>
-    <t>[8641235.885154113, 8647132.060523191]</t>
-  </si>
-  <si>
-    <t>[8647132.060523191, 8647132.591613034]</t>
-  </si>
-  <si>
-    <t>[8647132.591613034, 8717716.93743531]</t>
-  </si>
-  <si>
-    <t>[8717716.93743531, 8717720.912077686]</t>
-  </si>
-  <si>
-    <t>[8717720.912077686, 8757533.18531843]</t>
+    <t>[0, 0.23333333333357587]</t>
+  </si>
+  <si>
+    <t>[0.23333333333357587, 6057.663395552424]</t>
+  </si>
+  <si>
+    <t>[6057.663395552424, 6225.663395552424]</t>
+  </si>
+  <si>
+    <t>[6225.663395552424, 6278.729931830437]</t>
+  </si>
+  <si>
+    <t>[6278.729931830437, 6278.96326516377]</t>
+  </si>
+  <si>
+    <t>[6278.96326516377, 7202.677282190579]</t>
+  </si>
+  <si>
+    <t>[7202.677282190579, 7202.910615523912]</t>
+  </si>
+  <si>
+    <t>[7202.910615523912, 7748.011635494108]</t>
+  </si>
+  <si>
+    <t>[7748.011635494108, 7748.244968827442]</t>
+  </si>
+  <si>
+    <t>[7748.244968827442, 9380.81421062029]</t>
+  </si>
+  <si>
+    <t>[9380.81421062029, 9381.047543953624]</t>
+  </si>
+  <si>
+    <t>[9381.047543953624, 9907.108016728926]</t>
+  </si>
+  <si>
+    <t>[9907.108016728926, 9907.34135006226]</t>
+  </si>
+  <si>
+    <t>[9907.34135006226, 11361.686335831766]</t>
+  </si>
+  <si>
+    <t>[11361.686335831766, 11364.220971535966]</t>
+  </si>
+  <si>
+    <t>[11364.220971535966, 12096.594529842316]</t>
+  </si>
+  <si>
+    <t>[12096.594529842316, 12096.82786317565]</t>
+  </si>
+  <si>
+    <t>[12096.82786317565, 12865.336121394312]</t>
+  </si>
+  <si>
+    <t>[12865.336121394312, 13033.336121394312]</t>
+  </si>
+  <si>
+    <t>[13033.336121394312, 14949.959912595603]</t>
+  </si>
+  <si>
+    <t>[14949.959912595603, 14950.193245928936]</t>
+  </si>
+  <si>
+    <t>[14950.193245928936, 18122.33499966396]</t>
+  </si>
+  <si>
+    <t>[18122.33499966396, 18122.568332997293]</t>
+  </si>
+  <si>
+    <t>[18122.568332997293, 18929.641618746027]</t>
+  </si>
+  <si>
+    <t>[18929.641618746027, 18929.87495207936]</t>
+  </si>
+  <si>
+    <t>[18929.87495207936, 24692.5621566412]</t>
+  </si>
+  <si>
+    <t>[24692.5621566412, 24695.063106091864]</t>
+  </si>
+  <si>
+    <t>[24695.063106091864, 26145.709682748355]</t>
+  </si>
+  <si>
+    <t>[26145.709682748355, 26145.94301608169]</t>
+  </si>
+  <si>
+    <t>[26145.94301608169, 31092.86511891354]</t>
+  </si>
+  <si>
+    <t>[31092.86511891354, 31093.09845224687]</t>
+  </si>
+  <si>
+    <t>[31093.09845224687, 35850.779974894496]</t>
+  </si>
+  <si>
+    <t>[35850.779974894496, 35851.013308227826]</t>
+  </si>
+  <si>
+    <t>[35851.013308227826, 42853.793003864615]</t>
+  </si>
+  <si>
+    <t>[42853.793003864615, 42854.026337197945]</t>
+  </si>
+  <si>
+    <t>[42854.026337197945, 52079.826104861546]</t>
+  </si>
+  <si>
+    <t>[52079.826104861546, 52080.059438194876]</t>
+  </si>
+  <si>
+    <t>[52080.059438194876, 55311.31115971251]</t>
+  </si>
+  <si>
+    <t>[55311.31115971251, 55311.54449304584]</t>
+  </si>
+  <si>
+    <t>[55311.54449304584, 64173.30555567134]</t>
+  </si>
+  <si>
+    <t>[64173.30555567134, 64173.538889004674]</t>
+  </si>
+  <si>
+    <t>[64173.538889004674, 64494.04259047014]</t>
+  </si>
+  <si>
+    <t>[64494.04259047014, 64494.27592380348]</t>
+  </si>
+  <si>
+    <t>[64494.27592380348, 64497.540950819806]</t>
+  </si>
+  <si>
+    <t>[64497.540950819806, 64497.77428415314]</t>
+  </si>
+  <si>
+    <t>[64497.77428415314, 68049.01066658806]</t>
+  </si>
+  <si>
+    <t>[68049.01066658806, 68049.85239824605]</t>
+  </si>
+  <si>
+    <t>[68049.85239824605, 74856.4997062788]</t>
+  </si>
+  <si>
+    <t>[74856.4997062788, 74857.98799648587]</t>
+  </si>
+  <si>
+    <t>[74857.98799648587, 75587.50547490352]</t>
+  </si>
+  <si>
+    <t>[75587.50547490352, 75587.73880823686]</t>
+  </si>
+  <si>
+    <t>[75587.73880823686, 75620.89473420681]</t>
+  </si>
+  <si>
+    <t>[75620.89473420681, 75621.12806754015]</t>
+  </si>
+  <si>
+    <t>[75621.12806754015, 75861.78897590812]</t>
+  </si>
+  <si>
+    <t>[75861.78897590812, 75862.02230924145]</t>
+  </si>
+  <si>
+    <t>[75862.02230924145, 78005.07495997849]</t>
+  </si>
+  <si>
+    <t>[78005.07495997849, 78005.30829331183]</t>
+  </si>
+  <si>
+    <t>[78005.30829331183, 79165.90681435235]</t>
+  </si>
+  <si>
+    <t>[79165.90681435235, 79166.14014768568]</t>
+  </si>
+  <si>
+    <t>[79166.14014768568, 80806.32636689115]</t>
+  </si>
+  <si>
+    <t>[80806.32636689115, 80806.55970022449]</t>
+  </si>
+  <si>
+    <t>[80806.55970022449, 81645.72756474212]</t>
+  </si>
+  <si>
+    <t>[81645.72756474212, 81645.96089807546]</t>
+  </si>
+  <si>
+    <t>[81645.96089807546, 82217.39327624162]</t>
+  </si>
+  <si>
+    <t>[82217.39327624162, 82217.62660957496]</t>
+  </si>
+  <si>
+    <t>[82217.62660957496, 83416.16405044436]</t>
+  </si>
+  <si>
+    <t>[83416.16405044436, 83416.3973837777]</t>
+  </si>
+  <si>
+    <t>[83416.3973837777, 83895.99812092308]</t>
+  </si>
+  <si>
+    <t>[83895.99812092308, 83896.23145425641]</t>
+  </si>
+  <si>
+    <t>[83896.23145425641, 85819.15485171363]</t>
+  </si>
+  <si>
+    <t>[85819.15485171363, 85819.38818504696]</t>
+  </si>
+  <si>
+    <t>[85819.38818504696, 86652.17305053372]</t>
+  </si>
+  <si>
+    <t>[86652.17305053372, 86652.40638386706]</t>
+  </si>
+  <si>
+    <t>[86652.40638386706, 88885.63027739244]</t>
+  </si>
+  <si>
+    <t>[88885.63027739244, 88885.86361072578]</t>
+  </si>
+  <si>
+    <t>[88885.86361072578, 89224.93637811906]</t>
+  </si>
+  <si>
+    <t>[89224.93637811906, 89225.1697114524]</t>
+  </si>
+  <si>
+    <t>[89225.1697114524, 91733.11916444387]</t>
+  </si>
+  <si>
+    <t>[91733.11916444387, 91733.3524977772]</t>
+  </si>
+  <si>
+    <t>[91733.3524977772, 91939.06947701257]</t>
+  </si>
+  <si>
+    <t>[91939.06947701257, 91939.30281034591]</t>
+  </si>
+  <si>
+    <t>[91939.30281034591, 92982.92327715391]</t>
+  </si>
+  <si>
+    <t>[92982.92327715391, 92983.15661048725]</t>
+  </si>
+  <si>
+    <t>[92983.15661048725, 94802.43963105722]</t>
+  </si>
+  <si>
+    <t>[94802.43963105722, 94802.67296439056]</t>
+  </si>
+  <si>
+    <t>[94802.67296439056, 95202.5585527123]</t>
+  </si>
+  <si>
+    <t>[95202.5585527123, 95203.80756970332]</t>
+  </si>
+  <si>
+    <t>[95203.80756970332, 96362.82086637573]</t>
+  </si>
+  <si>
+    <t>[96362.82086637573, 96363.05419970906]</t>
+  </si>
+  <si>
+    <t>[96363.05419970906, 97385.62397130625]</t>
+  </si>
+  <si>
+    <t>[97385.62397130625, 97385.85730463959]</t>
+  </si>
+  <si>
+    <t>[97385.85730463959, 100277.10312047535]</t>
+  </si>
+  <si>
+    <t>[100277.10312047535, 100445.10312047535]</t>
+  </si>
+  <si>
+    <t>[100445.10312047535, 103203.22665368776]</t>
+  </si>
+  <si>
+    <t>[103203.22665368776, 103204.95999501689]</t>
+  </si>
+  <si>
+    <t>[103204.95999501689, 106909.68634115653]</t>
+  </si>
+  <si>
+    <t>[106909.68634115653, 106909.91967448987]</t>
+  </si>
+  <si>
+    <t>[106909.91967448987, 109552.15566552311]</t>
+  </si>
+  <si>
+    <t>[109552.15566552311, 109552.38899885645]</t>
+  </si>
+  <si>
+    <t>[109552.38899885645, 111817.18350939234]</t>
+  </si>
+  <si>
+    <t>[111817.18350939234, 111985.18350939234]</t>
+  </si>
+  <si>
+    <t>[111985.18350939234, 113716.41010335121]</t>
+  </si>
+  <si>
+    <t>[113716.41010335121, 113884.41010335121]</t>
+  </si>
+  <si>
+    <t>[113884.41010335121, 119871.2620619685]</t>
+  </si>
+  <si>
+    <t>[119871.2620619685, 119871.49539530184]</t>
+  </si>
+  <si>
+    <t>[119871.49539530184, 129167.3514096001]</t>
+  </si>
+  <si>
+    <t>[129167.3514096001, 129167.58474293344]</t>
+  </si>
+  <si>
+    <t>[129167.58474293344, 131913.61388273776]</t>
+  </si>
+  <si>
+    <t>[131913.61388273776, 131913.8472160711]</t>
+  </si>
+  <si>
+    <t>[131913.8472160711, 134707.8781856525]</t>
+  </si>
+  <si>
+    <t>[134707.8781856525, 134708.11151898582]</t>
+  </si>
+  <si>
+    <t>[134708.11151898582, 134811.9700618287]</t>
+  </si>
+  <si>
+    <t>[134811.9700618287, 134812.20339516204]</t>
+  </si>
+  <si>
+    <t>[134812.20339516204, 150678.9054921848]</t>
+  </si>
+  <si>
+    <t>[150678.9054921848, 150681.28342621416]</t>
+  </si>
+  <si>
+    <t>[150681.28342621416, 153082.53114328833]</t>
+  </si>
+  <si>
+    <t>[153082.53114328833, 153082.76447662167]</t>
+  </si>
+  <si>
+    <t>[153082.76447662167, 159656.79150022584]</t>
+  </si>
+  <si>
+    <t>[159656.79150022584, 159657.02483355918]</t>
+  </si>
+  <si>
+    <t>[159657.02483355918, 175579.4580143313]</t>
+  </si>
+  <si>
+    <t>[175579.4580143313, 175580.79075259817]</t>
+  </si>
+  <si>
+    <t>[175580.79075259817, 188957.5763283302]</t>
+  </si>
+  <si>
+    <t>[188957.5763283302, 188957.80966166354]</t>
+  </si>
+  <si>
+    <t>[188957.80966166354, 189626.65218411246]</t>
+  </si>
+  <si>
+    <t>[189626.65218411246, 189626.8855174458]</t>
+  </si>
+  <si>
+    <t>[189626.8855174458, 201825.23336133064]</t>
+  </si>
+  <si>
+    <t>[201825.23336133064, 201825.46669466398]</t>
+  </si>
+  <si>
+    <t>[201825.46669466398, 213006.14528334615]</t>
+  </si>
+  <si>
+    <t>[213006.14528334615, 213006.3786166795]</t>
+  </si>
+  <si>
+    <t>[213006.3786166795, 229651.33728177042]</t>
+  </si>
+  <si>
+    <t>[229651.33728177042, 229652.9169235956]</t>
+  </si>
+  <si>
+    <t>[229652.9169235956, 235994.9225686509]</t>
+  </si>
+  <si>
+    <t>[235994.9225686509, 235995.15590198422]</t>
+  </si>
+  <si>
+    <t>[235995.15590198422, 238290.20398487468]</t>
+  </si>
+  <si>
+    <t>[238290.20398487468, 238290.43731820802]</t>
+  </si>
+  <si>
+    <t>[238290.43731820802, 250762.73802323127]</t>
+  </si>
+  <si>
+    <t>[250762.73802323127, 250762.9713565646]</t>
+  </si>
+  <si>
+    <t>[250762.9713565646, 255843.71152183777]</t>
+  </si>
+  <si>
+    <t>[255843.71152183777, 255843.9448551711]</t>
+  </si>
+  <si>
+    <t>[255843.9448551711, 268748.82985255134]</t>
+  </si>
+  <si>
+    <t>[268748.82985255134, 268749.0631858847]</t>
+  </si>
+  <si>
+    <t>[268749.0631858847, 279658.3734412153]</t>
+  </si>
+  <si>
+    <t>[279658.3734412153, 279659.4123445957]</t>
+  </si>
+  <si>
+    <t>[279659.4123445957, 279937.26044526306]</t>
+  </si>
+  <si>
+    <t>[279937.26044526306, 279937.4937785964]</t>
+  </si>
+  <si>
+    <t>[279937.4937785964, 291512.93274852826]</t>
+  </si>
+  <si>
+    <t>[291512.93274852826, 291513.1660818616]</t>
+  </si>
+  <si>
+    <t>[291513.1660818616, 299227.6426055533]</t>
+  </si>
+  <si>
+    <t>[299227.6426055533, 299227.87593888666]</t>
+  </si>
+  <si>
+    <t>[299227.87593888666, 318995.9979053813]</t>
+  </si>
+  <si>
+    <t>[318995.9979053813, 318996.23123871465]</t>
+  </si>
+  <si>
+    <t>[318996.23123871465, 321664.6338628403]</t>
+  </si>
+  <si>
+    <t>[321664.6338628403, 321665.5051416787]</t>
+  </si>
+  <si>
+    <t>[321665.5051416787, 445894.96923418023]</t>
+  </si>
+  <si>
+    <t>[445894.96923418023, 445896.46080747846]</t>
+  </si>
+  <si>
+    <t>[445896.46080747846, 477836.5608035765]</t>
+  </si>
+  <si>
+    <t>[477836.5608035765, 477836.7941369098]</t>
+  </si>
+  <si>
+    <t>[477836.7941369098, 499438.8734157001]</t>
+  </si>
+  <si>
+    <t>[499438.8734157001, 499439.10674903344]</t>
+  </si>
+  <si>
+    <t>[499439.10674903344, 511915.0687026914]</t>
+  </si>
+  <si>
+    <t>[511915.0687026914, 511918.61655768397]</t>
+  </si>
+  <si>
+    <t>[511918.61655768397, 514588.2339838689]</t>
+  </si>
+  <si>
+    <t>[514588.2339838689, 514588.46731720224]</t>
+  </si>
+  <si>
+    <t>[514588.46731720224, 518430.95965615223]</t>
+  </si>
+  <si>
+    <t>[518430.95965615223, 518431.79503057624]</t>
+  </si>
+  <si>
+    <t>[518431.79503057624, 547663.5039553717]</t>
+  </si>
+  <si>
+    <t>[547663.5039553717, 547666.535707547]</t>
+  </si>
+  <si>
+    <t>[547666.535707547, 555042.6698706292]</t>
+  </si>
+  <si>
+    <t>[555042.6698706292, 555043.3412102404]</t>
+  </si>
+  <si>
+    <t>[555043.3412102404, 594233.5488743386]</t>
+  </si>
+  <si>
+    <t>[594233.5488743386, 594233.7822076719]</t>
+  </si>
+  <si>
+    <t>[594233.7822076719, 594764.1199336473]</t>
+  </si>
+  <si>
+    <t>[594764.1199336473, 594764.3532669806]</t>
+  </si>
+  <si>
+    <t>[594764.3532669806, 596347.9354236855]</t>
+  </si>
+  <si>
+    <t>[596347.9354236855, 596348.1687570187]</t>
+  </si>
+  <si>
+    <t>[596348.1687570187, 652122.1095395922]</t>
+  </si>
+  <si>
+    <t>[652122.1095395922, 652122.3428729255]</t>
+  </si>
+  <si>
+    <t>[652122.3428729255, 660015.0350643002]</t>
+  </si>
+  <si>
+    <t>[660015.0350643002, 660183.0350643002]</t>
+  </si>
+  <si>
+    <t>[660183.0350643002, 698583.9089962273]</t>
+  </si>
+  <si>
+    <t>[698583.9089962273, 698584.1423295606]</t>
+  </si>
+  <si>
+    <t>[698584.1423295606, 703143.4456516256]</t>
+  </si>
+  <si>
+    <t>[703143.4456516256, 703143.6789849589]</t>
+  </si>
+  <si>
+    <t>[703143.6789849589, 725820.9060325557]</t>
+  </si>
+  <si>
+    <t>[725820.9060325557, 725821.139365889]</t>
+  </si>
+  <si>
+    <t>[725821.139365889, 731524.1693980364]</t>
+  </si>
+  <si>
+    <t>[731524.1693980364, 731525.1120924094]</t>
+  </si>
+  <si>
+    <t>[731525.1120924094, 740477.298113096]</t>
+  </si>
+  <si>
+    <t>[740477.298113096, 740477.5314464293]</t>
+  </si>
+  <si>
+    <t>[740477.5314464293, 757780.4648395088]</t>
+  </si>
+  <si>
+    <t>[757780.4648395088, 757780.698172842]</t>
+  </si>
+  <si>
+    <t>[757780.698172842, 773834.5307754257]</t>
+  </si>
+  <si>
+    <t>[773834.5307754257, 773834.764108759]</t>
+  </si>
+  <si>
+    <t>[773834.764108759, 799239.8991159542]</t>
+  </si>
+  <si>
+    <t>[799239.8991159542, 799407.8991159542]</t>
+  </si>
+  <si>
+    <t>[799407.8991159542, 825877.2262428749]</t>
+  </si>
+  <si>
+    <t>[825877.2262428749, 825881.5283773437]</t>
+  </si>
+  <si>
+    <t>[825881.5283773437, 846471.8561047588]</t>
+  </si>
+  <si>
+    <t>[846471.8561047588, 846472.0894380921]</t>
+  </si>
+  <si>
+    <t>[846472.0894380921, 865899.2416158316]</t>
+  </si>
+  <si>
+    <t>[865899.2416158316, 865899.4749491649]</t>
+  </si>
+  <si>
+    <t>[865899.4749491649, 887677.2759871221]</t>
+  </si>
+  <si>
+    <t>[887677.2759871221, 887681.8603135989]</t>
+  </si>
+  <si>
+    <t>[887681.8603135989, 893515.5777196239]</t>
+  </si>
+  <si>
+    <t>[893515.5777196239, 893515.8110529572]</t>
+  </si>
+  <si>
+    <t>[893515.8110529572, 935583.3533556903]</t>
+  </si>
+  <si>
+    <t>[935583.3533556903, 935587.8188625439]</t>
+  </si>
+  <si>
+    <t>[935587.8188625439, 957725.656363018]</t>
+  </si>
+  <si>
+    <t>[957725.656363018, 957726.4803643698]</t>
+  </si>
+  <si>
+    <t>[957726.4803643698, 963743.6277313619]</t>
+  </si>
+  <si>
+    <t>[963743.6277313619, 963747.7308150923]</t>
+  </si>
+  <si>
+    <t>[963747.7308150923, 1025012.07733386]</t>
+  </si>
+  <si>
+    <t>[1025012.07733386, 1025014.1450994568]</t>
+  </si>
+  <si>
+    <t>[1025014.1450994568, 1028231.5934305858]</t>
+  </si>
+  <si>
+    <t>[1028231.5934305858, 1028236.8195575989]</t>
+  </si>
+  <si>
+    <t>[1028236.8195575989, 1028746.7148052334]</t>
+  </si>
+  <si>
+    <t>[1028746.7148052334, 1028747.6443549866]</t>
+  </si>
+  <si>
+    <t>[1028747.6443549866, 1102141.0672582737]</t>
+  </si>
+  <si>
+    <t>[1102141.0672582737, 1102144.3307467704]</t>
+  </si>
+  <si>
+    <t>[1102144.3307467704, 1138421.6073826917]</t>
+  </si>
+  <si>
+    <t>[1138421.6073826917, 1138422.9091469683]</t>
+  </si>
+  <si>
+    <t>[1138422.9091469683, 1149314.3114069984]</t>
+  </si>
+  <si>
+    <t>[1149314.3114069984, 1149314.5447403318]</t>
+  </si>
+  <si>
+    <t>[1149314.5447403318, 1158245.518366148]</t>
+  </si>
+  <si>
+    <t>[1158245.518366148, 1158246.9381448603]</t>
+  </si>
+  <si>
+    <t>[1158246.9381448603, 1257951.1532082788]</t>
+  </si>
+  <si>
+    <t>[1257951.1532082788, 1257951.3865416122]</t>
+  </si>
+  <si>
+    <t>[1257951.3865416122, 1342255.224919741]</t>
+  </si>
+  <si>
+    <t>[1342255.224919741, 1342256.6598275756]</t>
+  </si>
+  <si>
+    <t>[1342256.6598275756, 1413924.306906676]</t>
+  </si>
+  <si>
+    <t>[1413924.306906676, 1413926.5722034217]</t>
+  </si>
+  <si>
+    <t>[1413926.5722034217, 1461689.2259015786]</t>
+  </si>
+  <si>
+    <t>[1461689.2259015786, 1461693.8700037918]</t>
+  </si>
+  <si>
+    <t>[1461693.8700037918, 1538034.5417299194]</t>
+  </si>
+  <si>
+    <t>[1538034.5417299194, 1538202.5417299194]</t>
+  </si>
+  <si>
+    <t>[1538202.5417299194, 1548898.3947835881]</t>
+  </si>
+  <si>
+    <t>[1548898.3947835881, 1548900.6827468604]</t>
+  </si>
+  <si>
+    <t>[1548900.6827468604, 1602103.897299992]</t>
+  </si>
+  <si>
+    <t>[1602103.897299992, 1602107.9458610371]</t>
+  </si>
+  <si>
+    <t>[1602107.9458610371, 1602926.2004378035]</t>
+  </si>
+  <si>
+    <t>[1602926.2004378035, 1602927.5676164713]</t>
+  </si>
+  <si>
+    <t>[1602927.5676164713, 1644111.4750447073]</t>
+  </si>
+  <si>
+    <t>[1644111.4750447073, 1644114.7890918795]</t>
+  </si>
+  <si>
+    <t>[1644114.7890918795, 1736052.6629223714]</t>
+  </si>
+  <si>
+    <t>[1736052.6629223714, 1736054.9652443035]</t>
+  </si>
+  <si>
+    <t>[1736054.9652443035, 1818862.381529709]</t>
+  </si>
+  <si>
+    <t>[1818862.381529709, 1818863.2638124318]</t>
+  </si>
+  <si>
+    <t>[1818863.2638124318, 1861293.1839215832]</t>
+  </si>
+  <si>
+    <t>[1861293.1839215832, 1861293.8818321773]</t>
+  </si>
+  <si>
+    <t>[1861293.8818321773, 1947456.5746881126]</t>
+  </si>
+  <si>
+    <t>[1947456.5746881126, 1947459.2969493212]</t>
+  </si>
+  <si>
+    <t>[1947459.2969493212, 2044245.201889192]</t>
+  </si>
+  <si>
+    <t>[2044245.201889192, 2044247.5331353692]</t>
+  </si>
+  <si>
+    <t>[2044247.5331353692, 2121053.257276345]</t>
+  </si>
+  <si>
+    <t>[2121053.257276345, 2121056.131056306]</t>
+  </si>
+  <si>
+    <t>[2121056.131056306, 2249326.733842726]</t>
+  </si>
+  <si>
+    <t>[2249326.733842726, 2249330.189603759]</t>
+  </si>
+  <si>
+    <t>[2249330.189603759, 2522493.817812184]</t>
+  </si>
+  <si>
+    <t>[2522493.817812184, 2522496.1550276484]</t>
+  </si>
+  <si>
+    <t>[2522496.1550276484, 2526987.3394569564]</t>
+  </si>
+  <si>
+    <t>[2526987.3394569564, 2526990.4898703923]</t>
+  </si>
+  <si>
+    <t>[2526990.4898703923, 2538570.0020319875]</t>
+  </si>
+  <si>
+    <t>[2538570.0020319875, 2538575.025236642]</t>
+  </si>
+  <si>
+    <t>[2538575.025236642, 2578539.142689284]</t>
+  </si>
+  <si>
+    <t>[2578539.142689284, 2578542.921948466]</t>
+  </si>
+  <si>
+    <t>[2578542.921948466, 2592840.1429838673]</t>
+  </si>
+  <si>
+    <t>[2592840.1429838673, 2592849.9858428044]</t>
+  </si>
+  <si>
+    <t>[2592849.9858428044, 2636014.189972125]</t>
+  </si>
+  <si>
+    <t>[2636014.189972125, 2636014.891235614]</t>
+  </si>
+  <si>
+    <t>[2636014.891235614, 2656284.7248432827]</t>
+  </si>
+  <si>
+    <t>[2656284.7248432827, 2656285.3215662674]</t>
+  </si>
+  <si>
+    <t>[2656285.3215662674, 2747464.821074908]</t>
+  </si>
+  <si>
+    <t>[2747464.821074908, 2747466.3319736808]</t>
+  </si>
+  <si>
+    <t>[2747466.3319736808, 2775627.2084046295]</t>
+  </si>
+  <si>
+    <t>[2775627.2084046295, 2775628.257511419]</t>
+  </si>
+  <si>
+    <t>[2775628.257511419, 2813588.741752533]</t>
+  </si>
+  <si>
+    <t>[2813588.741752533, 2813592.7588927546]</t>
+  </si>
+  <si>
+    <t>[2813592.7588927546, 3001545.0433983104]</t>
+  </si>
+  <si>
+    <t>[3001545.0433983104, 3001548.982335999]</t>
+  </si>
+  <si>
+    <t>[3001548.982335999, 3133334.5141701074]</t>
+  </si>
+  <si>
+    <t>[3133334.5141701074, 3133337.807553026]</t>
+  </si>
+  <si>
+    <t>[3133337.807553026, 3145218.0171576734]</t>
+  </si>
+  <si>
+    <t>[3145218.0171576734, 3145220.337542081]</t>
+  </si>
+  <si>
+    <t>[3145220.337542081, 3206245.687419591]</t>
+  </si>
+  <si>
+    <t>[3206245.687419591, 3206246.4702408235]</t>
+  </si>
+  <si>
+    <t>[3206246.4702408235, 3245802.2536855903]</t>
+  </si>
+  <si>
+    <t>[3245802.2536855903, 3245804.731411594]</t>
+  </si>
+  <si>
+    <t>[3245804.731411594, 3247183.6411509784]</t>
+  </si>
+  <si>
+    <t>[3247183.6411509784, 3247184.665161634]</t>
+  </si>
+  <si>
+    <t>[3247184.665161634, 3328780.0626585293]</t>
+  </si>
+  <si>
+    <t>[3328780.0626585293, 3328782.061031042]</t>
+  </si>
+  <si>
+    <t>[3328782.061031042, 3340795.6720968555]</t>
+  </si>
+  <si>
+    <t>[3340795.6720968555, 3340799.8393714987]</t>
+  </si>
+  <si>
+    <t>[3340799.8393714987, 3347339.1531547713]</t>
+  </si>
+  <si>
+    <t>[3347339.1531547713, 3347340.1209489345]</t>
+  </si>
+  <si>
+    <t>[3347340.1209489345, 3408209.970239945]</t>
+  </si>
+  <si>
+    <t>[3408209.970239945, 3408211.3966143746]</t>
+  </si>
+  <si>
+    <t>[3408211.3966143746, 3519068.4786365856]</t>
+  </si>
+  <si>
+    <t>[3519068.4786365856, 3519069.7968153036]</t>
+  </si>
+  <si>
+    <t>[3519069.7968153036, 3519345.2184261642]</t>
+  </si>
+  <si>
+    <t>[3519345.2184261642, 3519346.965335083]</t>
+  </si>
+  <si>
+    <t>[3519346.965335083, 3523872.277538091]</t>
+  </si>
+  <si>
+    <t>[3523872.277538091, 3523873.5877876645]</t>
+  </si>
+  <si>
+    <t>[3523873.5877876645, 3554864.3221614542]</t>
+  </si>
+  <si>
+    <t>[3554864.3221614542, 3554864.9885078324]</t>
+  </si>
+  <si>
+    <t>[3554864.9885078324, 3586074.1862218603]</t>
+  </si>
+  <si>
+    <t>[3586074.1862218603, 3586075.502547384]</t>
+  </si>
+  <si>
+    <t>[3586075.502547384, 3624203.2755544973]</t>
+  </si>
+  <si>
+    <t>[3624203.2755544973, 3624207.6544929356]</t>
+  </si>
+  <si>
+    <t>[3624207.6544929356, 3679092.769357589]</t>
+  </si>
+  <si>
+    <t>[3679092.769357589, 3679093.8407743964]</t>
+  </si>
+  <si>
+    <t>[3679093.8407743964, 3689870.042148934]</t>
+  </si>
+  <si>
+    <t>[3689870.042148934, 3689870.8461438552]</t>
+  </si>
+  <si>
+    <t>[3689870.8461438552, 3723093.8324221224]</t>
+  </si>
+  <si>
+    <t>[3723093.8324221224, 3723095.2462702715]</t>
+  </si>
+  <si>
+    <t>[3723095.2462702715, 3753366.224900569]</t>
+  </si>
+  <si>
+    <t>[3753366.224900569, 3753368.66780771]</t>
+  </si>
+  <si>
+    <t>[3753368.66780771, 3758917.202273792]</t>
+  </si>
+  <si>
+    <t>[3758917.202273792, 3758923.096277355]</t>
+  </si>
+  <si>
+    <t>[3758923.096277355, 3788916.6304558367]</t>
+  </si>
+  <si>
+    <t>[3788916.6304558367, 3788917.2715792805]</t>
+  </si>
+  <si>
+    <t>[3788917.2715792805, 3813817.4221021407]</t>
+  </si>
+  <si>
+    <t>[3813817.4221021407, 3813818.966186248]</t>
+  </si>
+  <si>
+    <t>[3813818.966186248, 3843411.7216332224]</t>
+  </si>
+  <si>
+    <t>[3843411.7216332224, 3843412.636955386]</t>
+  </si>
+  <si>
+    <t>[3843412.636955386, 3844964.353643939]</t>
+  </si>
+  <si>
+    <t>[3844964.353643939, 3844965.414290548]</t>
+  </si>
+  <si>
+    <t>[3844965.414290548, 3850313.306839397]</t>
+  </si>
+  <si>
+    <t>[3850313.306839397, 3850314.59283011]</t>
+  </si>
+  <si>
+    <t>[3850314.59283011, 3880072.0858706925]</t>
+  </si>
+  <si>
+    <t>[3880072.0858706925, 3880072.7503417954]</t>
+  </si>
+  <si>
+    <t>[3880072.7503417954, 3919939.767866558]</t>
+  </si>
+  <si>
+    <t>[3919939.767866558, 3919940.589956398]</t>
+  </si>
+  <si>
+    <t>[3919940.589956398, 3973620.065849133]</t>
+  </si>
+  <si>
+    <t>[3973620.065849133, 3973621.164570269]</t>
+  </si>
+  <si>
+    <t>[3973621.164570269, 3977047.0734174694]</t>
+  </si>
+  <si>
+    <t>[3977047.0734174694, 3977047.5932275555]</t>
+  </si>
+  <si>
+    <t>[3977047.5932275555, 3991003.6993475477]</t>
+  </si>
+  <si>
+    <t>[3991003.6993475477, 3991004.528003298]</t>
+  </si>
+  <si>
+    <t>[3991004.528003298, 4000731.7979150703]</t>
+  </si>
+  <si>
+    <t>[4000731.7979150703, 4000733.7215381376]</t>
+  </si>
+  <si>
+    <t>[4000733.7215381376, 4045377.290827212]</t>
+  </si>
+  <si>
+    <t>[4045377.290827212, 4045378.10700163]</t>
+  </si>
+  <si>
+    <t>[4045378.10700163, 4300142.709758033]</t>
+  </si>
+  <si>
+    <t>[4300142.709758033, 4300144.625514571]</t>
+  </si>
+  <si>
+    <t>[4300144.625514571, 4349476.935355811]</t>
+  </si>
+  <si>
+    <t>[4349476.935355811, 4349478.828101603]</t>
+  </si>
+  <si>
+    <t>[4349478.828101603, 4363527.676573241]</t>
+  </si>
+  <si>
+    <t>[4363527.676573241, 4363530.690825343]</t>
+  </si>
+  <si>
+    <t>[4363530.690825343, 4491765.814380052]</t>
+  </si>
+  <si>
+    <t>[4491765.814380052, 4491767.193529316]</t>
+  </si>
+  <si>
+    <t>[4491767.193529316, 4649521.672103945]</t>
+  </si>
+  <si>
+    <t>[4649521.672103945, 4649523.482165503]</t>
+  </si>
+  <si>
+    <t>[4649523.482165503, 4740235.695964865]</t>
+  </si>
+  <si>
+    <t>[4740235.695964865, 4740236.614342554]</t>
+  </si>
+  <si>
+    <t>[4740236.614342554, 4875743.47410987]</t>
+  </si>
+  <si>
+    <t>[4875743.47410987, 4875747.9737548595]</t>
+  </si>
+  <si>
+    <t>[4875747.9737548595, 4899639.2221994465]</t>
+  </si>
+  <si>
+    <t>[4899639.2221994465, 4899646.030336092]</t>
+  </si>
+  <si>
+    <t>[4899646.030336092, 4944087.5469967555]</t>
+  </si>
+  <si>
+    <t>[4944087.5469967555, 4944088.363216268]</t>
+  </si>
+  <si>
+    <t>[4944088.363216268, 5092714.841470797]</t>
+  </si>
+  <si>
+    <t>[5092714.841470797, 5092716.955127085]</t>
+  </si>
+  <si>
+    <t>[5092716.955127085, 5274592.303541025]</t>
+  </si>
+  <si>
+    <t>[5274592.303541025, 5274594.316858104]</t>
+  </si>
+  <si>
+    <t>[5274594.316858104, 5290128.581359851]</t>
+  </si>
+  <si>
+    <t>[5290128.581359851, 5290129.986949469]</t>
+  </si>
+  <si>
+    <t>[5290129.986949469, 5513659.053203482]</t>
+  </si>
+  <si>
+    <t>[5513659.053203482, 5513664.873261588]</t>
+  </si>
+  <si>
+    <t>[5513664.873261588, 5563538.71808301]</t>
+  </si>
+  <si>
+    <t>[5563538.71808301, 5563546.90930889]</t>
+  </si>
+  <si>
+    <t>[5563546.90930889, 5574660.173155726]</t>
+  </si>
+  <si>
+    <t>[5574660.173155726, 5574660.72806789]</t>
+  </si>
+  <si>
+    <t>[5574660.72806789, 5584243.171070823]</t>
+  </si>
+  <si>
+    <t>[5584243.171070823, 5584243.718992937]</t>
+  </si>
+  <si>
+    <t>[5584243.718992937, 5691725.931914512]</t>
+  </si>
+  <si>
+    <t>[5691725.931914512, 5691728.269852617]</t>
+  </si>
+  <si>
+    <t>[5691728.269852617, 5702900.870590975]</t>
+  </si>
+  <si>
+    <t>[5702900.870590975, 5702910.114408778]</t>
+  </si>
+  <si>
+    <t>[5702910.114408778, 5728741.099694865]</t>
+  </si>
+  <si>
+    <t>[5728741.099694865, 5728747.252144208]</t>
+  </si>
+  <si>
+    <t>[5728747.252144208, 5737149.509768269]</t>
+  </si>
+  <si>
+    <t>[5737149.509768269, 5737151.034412728]</t>
+  </si>
+  <si>
+    <t>[5737151.034412728, 5820405.438659022]</t>
+  </si>
+  <si>
+    <t>[5820405.438659022, 5820410.147206549]</t>
+  </si>
+  <si>
+    <t>[5820410.147206549, 5831053.673798429]</t>
+  </si>
+  <si>
+    <t>[5831053.673798429, 5831054.814154155]</t>
+  </si>
+  <si>
+    <t>[5831054.814154155, 5855988.230015247]</t>
+  </si>
+  <si>
+    <t>[5855988.230015247, 5855989.315190945]</t>
+  </si>
+  <si>
+    <t>[5855989.315190945, 5964214.660835756]</t>
+  </si>
+  <si>
+    <t>[5964214.660835756, 5964215.773038252]</t>
+  </si>
+  <si>
+    <t>[5964215.773038252, 6034130.263469995]</t>
+  </si>
+  <si>
+    <t>[6034130.263469995, 6034131.743527603]</t>
+  </si>
+  <si>
+    <t>[6034131.743527603, 6175037.969191059]</t>
+  </si>
+  <si>
+    <t>[6175037.969191059, 6175040.472841445]</t>
+  </si>
+  <si>
+    <t>[6175040.472841445, 6189367.87702702]</t>
+  </si>
+  <si>
+    <t>[6189367.87702702, 6189372.558241907]</t>
+  </si>
+  <si>
+    <t>[6189372.558241907, 6242492.220302577]</t>
+  </si>
+  <si>
+    <t>[6242492.220302577, 6242495.730170163]</t>
+  </si>
+  <si>
+    <t>[6242495.730170163, 6264484.218978607]</t>
+  </si>
+  <si>
+    <t>[6264484.218978607, 6264486.094234068]</t>
+  </si>
+  <si>
+    <t>[6264486.094234068, 6419036.401879109]</t>
+  </si>
+  <si>
+    <t>[6419036.401879109, 6419038.020182438]</t>
+  </si>
+  <si>
+    <t>[6419038.020182438, 6611801.184163778]</t>
+  </si>
+  <si>
+    <t>[6611801.184163778, 6611803.61722828]</t>
+  </si>
+  <si>
+    <t>[6611803.61722828, 6619259.326379565]</t>
+  </si>
+  <si>
+    <t>[6619259.326379565, 6619263.315797424]</t>
+  </si>
+  <si>
+    <t>[6619263.315797424, 6720700.210090893]</t>
+  </si>
+  <si>
+    <t>[6720700.210090893, 6720702.091710482]</t>
+  </si>
+  <si>
+    <t>[6720702.091710482, 6734940.103079118]</t>
+  </si>
+  <si>
+    <t>[6734940.103079118, 6734945.319711486]</t>
+  </si>
+  <si>
+    <t>[6734945.319711486, 6846305.6603487395]</t>
+  </si>
+  <si>
+    <t>[6846305.6603487395, 6846309.873072104]</t>
+  </si>
+  <si>
+    <t>[6846309.873072104, 6853269.905666208]</t>
+  </si>
+  <si>
+    <t>[6853269.905666208, 6853273.098343429]</t>
+  </si>
+  <si>
+    <t>[6853273.098343429, 7041774.798305125]</t>
+  </si>
+  <si>
+    <t>[7041774.798305125, 7041776.195005697]</t>
+  </si>
+  <si>
+    <t>[7041776.195005697, 7066246.714282254]</t>
+  </si>
+  <si>
+    <t>[7066246.714282254, 7066248.190931185]</t>
+  </si>
+  <si>
+    <t>[7066248.190931185, 7104715.657414875]</t>
+  </si>
+  <si>
+    <t>[7104715.657414875, 7104717.850030572]</t>
+  </si>
+  <si>
+    <t>[7104717.850030572, 7125282.474342828]</t>
+  </si>
+  <si>
+    <t>[7125282.474342828, 7125283.248072432]</t>
+  </si>
+  <si>
+    <t>[7125283.248072432, 7150284.078240964]</t>
+  </si>
+  <si>
+    <t>[7150284.078240964, 7150287.00715997]</t>
+  </si>
+  <si>
+    <t>[7150287.00715997, 7213331.272395103]</t>
+  </si>
+  <si>
+    <t>[7213331.272395103, 7213336.2096007755]</t>
+  </si>
+  <si>
+    <t>[7213336.2096007755, 7217177.539694292]</t>
+  </si>
+  <si>
+    <t>[7217177.539694292, 7217178.061401279]</t>
+  </si>
+  <si>
+    <t>[7217178.061401279, 7286572.170198084]</t>
+  </si>
+  <si>
+    <t>[7286572.170198084, 7286573.2966714315]</t>
+  </si>
+  <si>
+    <t>[7286573.2966714315, 7443849.2359830225]</t>
+  </si>
+  <si>
+    <t>[7443849.2359830225, 7443851.576099648]</t>
+  </si>
+  <si>
+    <t>[7443851.576099648, 7535749.8072379455]</t>
+  </si>
+  <si>
+    <t>[7535749.8072379455, 7535754.033083678]</t>
+  </si>
+  <si>
+    <t>[7535754.033083678, 7623247.666174247]</t>
+  </si>
+  <si>
+    <t>[7623247.666174247, 7623248.56985522]</t>
+  </si>
+  <si>
+    <t>[7623248.56985522, 7629787.827716639]</t>
+  </si>
+  <si>
+    <t>[7629787.827716639, 7629790.635557186]</t>
+  </si>
+  <si>
+    <t>[7629790.635557186, 7665582.281247278]</t>
+  </si>
+  <si>
+    <t>[7665582.281247278, 7665583.797882917]</t>
+  </si>
+  <si>
+    <t>[7665583.797882917, 7853948.026370303]</t>
+  </si>
+  <si>
+    <t>[7853948.026370303, 7853949.5839591455]</t>
+  </si>
+  <si>
+    <t>[7853949.5839591455, 7909658.520162646]</t>
+  </si>
+  <si>
+    <t>[7909658.520162646, 7909664.950607408]</t>
+  </si>
+  <si>
+    <t>[7909664.950607408, 8023287.869826886]</t>
+  </si>
+  <si>
+    <t>[8023287.869826886, 8023289.147227734]</t>
+  </si>
+  <si>
+    <t>[8023289.147227734, 8051198.346390856]</t>
+  </si>
+  <si>
+    <t>[8051198.346390856, 8051202.658869327]</t>
+  </si>
+  <si>
+    <t>[8051202.658869327, 8063294.620954302]</t>
+  </si>
+  <si>
+    <t>[8063294.620954302, 8063297.104591222]</t>
+  </si>
+  <si>
+    <t>[8063297.104591222, 8087197.432186444]</t>
+  </si>
+  <si>
+    <t>[8087197.432186444, 8087198.100712807]</t>
+  </si>
+  <si>
+    <t>[8087198.100712807, 8138710.523527672]</t>
+  </si>
+  <si>
+    <t>[8138710.523527672, 8138711.262910881]</t>
+  </si>
+  <si>
+    <t>[8138711.262910881, 8147340.895601492]</t>
+  </si>
+  <si>
+    <t>[8147340.895601492, 8147342.485046446]</t>
+  </si>
+  <si>
+    <t>[8147342.485046446, 8168836.028862662]</t>
+  </si>
+  <si>
+    <t>[8168836.028862662, 8168841.392016446]</t>
+  </si>
+  <si>
+    <t>[8168841.392016446, 8184724.118441978]</t>
+  </si>
+  <si>
+    <t>[8184724.118441978, 8184724.793301034]</t>
+  </si>
+  <si>
+    <t>[8184724.793301034, 8205033.275797712]</t>
+  </si>
+  <si>
+    <t>[8205033.275797712, 8205034.427161507]</t>
+  </si>
+  <si>
+    <t>[8205034.427161507, 8221298.131487616]</t>
+  </si>
+  <si>
+    <t>[8221298.131487616, 8221299.539804896]</t>
+  </si>
+  <si>
+    <t>[8221299.539804896, 8249444.539411974]</t>
+  </si>
+  <si>
+    <t>[8249444.539411974, 8249445.172094621]</t>
+  </si>
+  <si>
+    <t>[8249445.172094621, 8385783.517188382]</t>
+  </si>
+  <si>
+    <t>[8385783.517188382, 8385785.149538859]</t>
+  </si>
+  <si>
+    <t>[8385785.149538859, 8421558.249496438]</t>
+  </si>
+  <si>
+    <t>[8421558.249496438, 8421559.907621358]</t>
+  </si>
+  <si>
+    <t>[8421559.907621358, 8471223.809872966]</t>
+  </si>
+  <si>
+    <t>[8471223.809872966, 8471224.704170503]</t>
+  </si>
+  <si>
+    <t>[8471224.704170503, 8506384.762043694]</t>
+  </si>
+  <si>
+    <t>[8506384.762043694, 8506386.642239287]</t>
+  </si>
+  <si>
+    <t>[8506386.642239287, 8526586.058851331]</t>
+  </si>
+  <si>
+    <t>[8526586.058851331, 8526588.124028344]</t>
+  </si>
+  <si>
+    <t>[8526588.124028344, 8558695.270412248]</t>
+  </si>
+  <si>
+    <t>[8558695.270412248, 8558699.852713492]</t>
+  </si>
+  <si>
+    <t>[8558699.852713492, 8708399.649634054]</t>
+  </si>
+  <si>
+    <t>[8708399.649634054, 8708400.837361436]</t>
+  </si>
+  <si>
+    <t>[8708400.837361436, 8754122.277567044]</t>
+  </si>
+  <si>
+    <t>['P8']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['V4']</t>
+  </si>
+  <si>
+    <t>['P6']</t>
+  </si>
+  <si>
+    <t>['V6']</t>
+  </si>
+  <si>
+    <t>['V7']</t>
+  </si>
+  <si>
+    <t>['V5']</t>
+  </si>
+  <si>
+    <t>['Vs2']</t>
+  </si>
+  <si>
+    <t>['V1']</t>
+  </si>
+  <si>
+    <t>['Vs1']</t>
+  </si>
+  <si>
+    <t>['Vs3']</t>
+  </si>
+  <si>
+    <t>['V2']</t>
   </si>
   <si>
     <t>['V3']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Vs3']</t>
+    <t>['T2']</t>
+  </si>
+  <si>
+    <t>['P10']</t>
+  </si>
+  <si>
+    <t>['P5']</t>
+  </si>
+  <si>
+    <t>['P4']</t>
+  </si>
+  <si>
+    <t>['P1']</t>
+  </si>
+  <si>
+    <t>['S3']</t>
   </si>
   <si>
     <t>['P7']</t>
   </si>
   <si>
-    <t>['V6']</t>
-  </si>
-  <si>
-    <t>['Vs1']</t>
-  </si>
-  <si>
-    <t>['P6']</t>
-  </si>
-  <si>
-    <t>['V2']</t>
-  </si>
-  <si>
-    <t>['V4']</t>
-  </si>
-  <si>
-    <t>['V5']</t>
-  </si>
-  <si>
-    <t>['V7']</t>
-  </si>
-  <si>
-    <t>['Vs2']</t>
-  </si>
-  <si>
     <t>['P3']</t>
   </si>
   <si>
-    <t>['P5']</t>
-  </si>
-  <si>
-    <t>['V1']</t>
-  </si>
-  <si>
-    <t>['P8']</t>
-  </si>
-  <si>
-    <t>['P4']</t>
+    <t>['S4']</t>
+  </si>
+  <si>
+    <t>['P2']</t>
   </si>
   <si>
     <t>['D1']</t>
   </si>
   <si>
-    <t>['P2']</t>
-  </si>
-  <si>
-    <t>['P1']</t>
+    <t>['P9']</t>
+  </si>
+  <si>
+    <t>['T1']</t>
   </si>
   <si>
     <t>['S1']</t>
   </si>
   <si>
-    <t>['S3']</t>
-  </si>
-  <si>
-    <t>['P9']</t>
-  </si>
-  <si>
-    <t>['T2']</t>
-  </si>
-  <si>
-    <t>['P10']</t>
-  </si>
-  <si>
-    <t>['T1']</t>
-  </si>
-  <si>
     <t>['S2']</t>
-  </si>
-  <si>
-    <t>['S4']</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1907,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1921,10 +1963,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1935,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1949,10 +1991,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1963,10 +2005,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1977,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1991,10 +2033,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2005,10 +2047,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2019,10 +2061,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2033,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2047,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2061,10 +2103,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2075,10 +2117,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2089,10 +2131,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2103,10 +2145,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2117,10 +2159,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2131,10 +2173,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2145,10 +2187,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2159,10 +2201,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D21" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2173,10 +2215,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2187,10 +2229,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2201,10 +2243,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D24" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2215,10 +2257,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D25" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2229,10 +2271,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2243,10 +2285,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2257,10 +2299,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2271,10 +2313,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2285,10 +2327,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2299,10 +2341,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2313,10 +2355,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D32" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2327,10 +2369,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D33" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2341,10 +2383,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2355,10 +2397,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2369,10 +2411,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2383,10 +2425,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2397,10 +2439,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2411,10 +2453,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D39" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2425,10 +2467,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D40" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2439,10 +2481,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2453,10 +2495,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2467,10 +2509,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2481,10 +2523,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D44" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2495,10 +2537,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2509,10 +2551,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D46" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2523,10 +2565,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D47" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2537,10 +2579,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D48" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2551,10 +2593,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D49" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2565,10 +2607,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2579,10 +2621,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2593,10 +2635,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2607,10 +2649,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D53" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2621,10 +2663,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D54" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2635,10 +2677,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D55" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2649,10 +2691,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D56" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2663,10 +2705,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2677,10 +2719,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D58" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2691,10 +2733,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2705,10 +2747,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D60" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2719,10 +2761,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D61" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2733,10 +2775,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2747,10 +2789,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D63" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2761,10 +2803,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2775,10 +2817,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D65" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2789,10 +2831,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D66" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2803,10 +2845,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2817,10 +2859,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D68" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2831,10 +2873,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D69" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2845,10 +2887,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D70" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2859,10 +2901,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D71" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2873,10 +2915,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D72" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2887,10 +2929,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D73" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2901,10 +2943,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D74" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2915,10 +2957,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D75" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2929,10 +2971,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2943,10 +2985,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D77" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2957,10 +2999,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D78" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2971,10 +3013,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2985,10 +3027,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D80" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2999,10 +3041,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3013,10 +3055,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="D82" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3027,10 +3069,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3041,10 +3083,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D84" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3055,10 +3097,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3069,10 +3111,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3083,10 +3125,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D87" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3097,10 +3139,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3111,10 +3153,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D89" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3125,10 +3167,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3139,10 +3181,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D91" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3153,10 +3195,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3167,10 +3209,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3181,10 +3223,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D94" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3195,10 +3237,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D95" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3209,10 +3251,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D96" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3223,10 +3265,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D97" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3237,10 +3279,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D98" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3251,10 +3293,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D99" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3265,10 +3307,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D100" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3279,10 +3321,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D101" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3293,10 +3335,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D102" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3307,10 +3349,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3321,10 +3363,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3335,10 +3377,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D105" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3349,10 +3391,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D106" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3363,10 +3405,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3377,10 +3419,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D108" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3391,10 +3433,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D109" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3405,10 +3447,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D110" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3419,10 +3461,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3433,10 +3475,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D112" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3447,10 +3489,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D113" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3461,10 +3503,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D114" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3475,10 +3517,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D115" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3489,10 +3531,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D116" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3503,10 +3545,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D117" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3517,10 +3559,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3531,10 +3573,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D119" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3545,10 +3587,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D120" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3559,10 +3601,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D121" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3573,10 +3615,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D122" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3587,10 +3629,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3601,10 +3643,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D124" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3615,10 +3657,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D125" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3629,10 +3671,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D126" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3643,10 +3685,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D127" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3657,10 +3699,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D128" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3671,10 +3713,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3685,10 +3727,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3699,10 +3741,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D131" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3713,10 +3755,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D132" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3727,10 +3769,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D133" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3741,10 +3783,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3755,10 +3797,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D135" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3769,10 +3811,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="D136" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3783,10 +3825,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3797,10 +3839,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D138" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3811,10 +3853,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D139" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3825,10 +3867,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D140" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3839,10 +3881,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3853,10 +3895,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D142" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3867,10 +3909,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D143" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3881,10 +3923,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D144" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3895,10 +3937,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D145" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3909,10 +3951,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D146" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3923,10 +3965,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D147" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3937,10 +3979,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D148" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3951,10 +3993,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3968,7 +4010,7 @@
         <v>495</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3979,7 +4021,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
         <v>495</v>
@@ -3993,10 +4035,10 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D152" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4007,10 +4049,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D153" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4021,10 +4063,10 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="D154" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4035,10 +4077,10 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4049,10 +4091,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="D156" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4063,10 +4105,10 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D157" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4077,10 +4119,10 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D158" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4091,10 +4133,10 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D159" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4105,10 +4147,10 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D160" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4119,10 +4161,10 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D161" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4133,10 +4175,10 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4147,10 +4189,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D163" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4161,10 +4203,10 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D164" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4175,10 +4217,10 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D165" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4189,10 +4231,10 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D166" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4203,10 +4245,10 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D167" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4217,10 +4259,10 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D168" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4231,10 +4273,10 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D169" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4245,10 +4287,10 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D170" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4259,10 +4301,10 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D171" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4273,10 +4315,10 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D172" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4287,10 +4329,10 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D173" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4301,10 +4343,10 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="D174" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4315,10 +4357,10 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D175" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4329,10 +4371,10 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4343,10 +4385,10 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D177" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4357,10 +4399,10 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="D178" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4371,10 +4413,10 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D179" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4388,7 +4430,7 @@
         <v>488</v>
       </c>
       <c r="D180" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4399,7 +4441,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D181" t="s">
         <v>488</v>
@@ -4413,10 +4455,10 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D182" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4427,10 +4469,10 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D183" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4441,10 +4483,10 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D184" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4455,10 +4497,10 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D185" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4469,10 +4511,10 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D186" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4483,10 +4525,10 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D187" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4497,10 +4539,10 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D188" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4511,10 +4553,10 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D189" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4525,10 +4567,10 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D190" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4539,10 +4581,10 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D191" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4553,10 +4595,10 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4567,10 +4609,10 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D193" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4581,10 +4623,10 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D194" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4595,10 +4637,10 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D195" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4609,10 +4651,10 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D196" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4623,10 +4665,10 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4637,10 +4679,10 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4651,10 +4693,10 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D199" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4665,10 +4707,10 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D200" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4679,10 +4721,10 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D201" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4693,10 +4735,10 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D202" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4707,10 +4749,10 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D203" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4721,10 +4763,10 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D204" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4735,10 +4777,10 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D205" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4749,10 +4791,10 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="D206" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4763,10 +4805,10 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D207" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4777,10 +4819,10 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D208" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4791,10 +4833,10 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D209" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4805,10 +4847,10 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="D210" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4819,10 +4861,10 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D211" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4833,10 +4875,10 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D212" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4847,10 +4889,10 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D213" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4861,10 +4903,10 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D214" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4875,10 +4917,10 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D215" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4889,10 +4931,10 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="D216" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4903,10 +4945,10 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D217" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4917,10 +4959,10 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D218" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4931,10 +4973,10 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D219" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4945,10 +4987,10 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D220" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4959,10 +5001,10 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D221" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4973,10 +5015,10 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D222" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4987,10 +5029,10 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D223" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5001,10 +5043,10 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D224" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5015,10 +5057,10 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5029,10 +5071,10 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D226" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5043,10 +5085,10 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D227" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5057,10 +5099,10 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D228" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5071,10 +5113,10 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D229" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5085,10 +5127,10 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="D230" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5099,10 +5141,10 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D231" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5113,10 +5155,10 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D232" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5127,10 +5169,10 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D233" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5141,10 +5183,10 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="D234" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5155,10 +5197,10 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D235" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5169,10 +5211,10 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D236" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5183,10 +5225,10 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D237" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5197,10 +5239,10 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D238" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5211,10 +5253,10 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D239" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5225,10 +5267,10 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="D240" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5239,10 +5281,10 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D241" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5253,10 +5295,10 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="D242" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5267,10 +5309,10 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D243" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5281,10 +5323,10 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D244" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5295,10 +5337,10 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D245" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5309,10 +5351,10 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D246" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5323,10 +5365,10 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D247" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5337,10 +5379,10 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D248" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5351,10 +5393,10 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D249" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5365,10 +5407,10 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D250" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5379,10 +5421,10 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D251" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5393,10 +5435,10 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D252" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5407,10 +5449,10 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D253" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5421,10 +5463,10 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D254" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5435,10 +5477,10 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D255" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5449,10 +5491,10 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D256" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5463,10 +5505,10 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D257" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5477,10 +5519,10 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D258" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5491,10 +5533,10 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D259" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5505,10 +5547,10 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D260" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5519,10 +5561,10 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D261" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5533,10 +5575,10 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D262" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5547,10 +5589,10 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D263" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5561,10 +5603,10 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D264" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5575,10 +5617,10 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D265" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5589,10 +5631,10 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D266" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5603,10 +5645,10 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D267" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5617,10 +5659,10 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="D268" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5631,10 +5673,10 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D269" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5645,10 +5687,10 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D270" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5659,10 +5701,10 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D271" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5673,10 +5715,10 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D272" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5687,10 +5729,10 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D273" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5701,10 +5743,10 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D274" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5715,10 +5757,10 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D275" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5729,10 +5771,10 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D276" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5743,10 +5785,10 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D277" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5757,10 +5799,10 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D278" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5771,10 +5813,10 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D279" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5785,10 +5827,10 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="D280" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5799,10 +5841,10 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D281" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5813,10 +5855,10 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D282" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5827,10 +5869,10 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D283" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5841,10 +5883,10 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D284" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5855,10 +5897,10 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D285" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5869,10 +5911,10 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D286" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5883,10 +5925,10 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D287" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5897,10 +5939,10 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D288" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5911,10 +5953,10 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D289" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5925,10 +5967,10 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D290" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5939,10 +5981,10 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D291" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5953,10 +5995,10 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="D292" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5967,10 +6009,10 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D293" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5981,10 +6023,10 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D294" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5995,10 +6037,10 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D295" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6009,10 +6051,10 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D296" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6023,10 +6065,10 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D297" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6037,10 +6079,10 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D298" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6051,10 +6093,10 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D299" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6065,10 +6107,10 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D300" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6079,10 +6121,10 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D301" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6093,10 +6135,10 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D302" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6107,10 +6149,10 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D303" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6121,10 +6163,10 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D304" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6135,10 +6177,10 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D305" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6149,10 +6191,10 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D306" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6163,10 +6205,10 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D307" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6177,10 +6219,10 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D308" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6191,10 +6233,10 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D309" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6205,10 +6247,10 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D310" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6219,10 +6261,10 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D311" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6233,10 +6275,10 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D312" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6247,10 +6289,10 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D313" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6261,10 +6303,10 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D314" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6275,10 +6317,10 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D315" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6292,7 +6334,7 @@
         <v>498</v>
       </c>
       <c r="D316" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6303,7 +6345,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D317" t="s">
         <v>498</v>
@@ -6317,10 +6359,10 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D318" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6331,10 +6373,10 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D319" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6345,10 +6387,10 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D320" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6359,10 +6401,10 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D321" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6373,10 +6415,10 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D322" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6387,10 +6429,10 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D323" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6401,10 +6443,10 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D324" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6415,10 +6457,10 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D325" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6429,10 +6471,10 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D326" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6443,10 +6485,10 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D327" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6457,10 +6499,10 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D328" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6471,10 +6513,10 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D329" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6485,10 +6527,10 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="D330" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6499,10 +6541,10 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D331" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6513,10 +6555,10 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D332" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6527,10 +6569,10 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6541,10 +6583,10 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D334" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6555,10 +6597,10 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6569,10 +6611,10 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D336" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6583,10 +6625,10 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D337" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6597,10 +6639,10 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D338" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6611,10 +6653,10 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D339" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6625,10 +6667,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D340" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6639,10 +6681,10 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D341" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6653,10 +6695,10 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D342" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6667,10 +6709,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D343" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6681,10 +6723,10 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6695,10 +6737,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D345" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6709,10 +6751,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D346" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6723,10 +6765,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D347" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6737,10 +6779,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D348" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6751,10 +6793,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D349" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6765,10 +6807,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D350" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6779,10 +6821,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D351" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6793,10 +6835,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D352" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6807,10 +6849,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D353" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6821,10 +6863,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D354" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6835,10 +6877,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D355" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6849,10 +6891,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D356" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6863,10 +6905,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D357" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6877,10 +6919,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D358" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6891,10 +6933,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D359" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6905,10 +6947,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D360" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6919,10 +6961,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D361" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6933,10 +6975,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D362" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6947,10 +6989,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D363" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6961,10 +7003,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D364" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6975,10 +7017,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D365" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6989,10 +7031,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D366" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7003,10 +7045,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D367" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7017,10 +7059,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D368" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7031,10 +7073,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D369" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7045,10 +7087,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D370" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7059,10 +7101,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D371" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7073,10 +7115,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D372" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7087,10 +7129,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D373" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7101,10 +7143,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D374" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7115,10 +7157,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D375" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7132,7 +7174,7 @@
         <v>498</v>
       </c>
       <c r="D376" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7143,7 +7185,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D377" t="s">
         <v>498</v>
@@ -7157,10 +7199,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D378" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7171,10 +7213,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D379" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7185,10 +7227,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D380" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7199,10 +7241,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D381" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7213,10 +7255,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="D382" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7227,10 +7269,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D383" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7241,10 +7283,10 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D384" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7255,10 +7297,10 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D385" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7269,10 +7311,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D386" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7283,10 +7325,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D387" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7297,10 +7339,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D388" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7311,10 +7353,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D389" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7325,10 +7367,10 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D390" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7339,10 +7381,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D391" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7353,10 +7395,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D392" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7367,10 +7409,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D393" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7381,10 +7423,10 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D394" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7395,10 +7437,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D395" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7409,10 +7451,10 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D396" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7423,10 +7465,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D397" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7437,10 +7479,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D398" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7451,10 +7493,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D399" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7465,10 +7507,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D400" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7479,10 +7521,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D401" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7493,10 +7535,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D402" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7507,10 +7549,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D403" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7521,10 +7563,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D404" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7535,10 +7577,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D405" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7549,10 +7591,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="D406" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7563,10 +7605,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D407" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7577,10 +7619,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D408" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7591,10 +7633,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D409" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7605,10 +7647,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D410" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7619,10 +7661,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D411" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7633,10 +7675,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D412" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7647,10 +7689,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D413" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7661,10 +7703,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D414" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7675,10 +7717,10 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D415" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7689,10 +7731,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D416" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7703,10 +7745,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D417" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7717,10 +7759,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D418" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7731,10 +7773,10 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D419" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7745,10 +7787,10 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D420" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7759,10 +7801,10 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D421" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7773,10 +7815,10 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D422" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7787,10 +7829,10 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D423" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7801,10 +7843,10 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D424" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7815,10 +7857,10 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D425" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7829,10 +7871,10 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D426" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7843,10 +7885,10 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D427" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7860,7 +7902,7 @@
         <v>498</v>
       </c>
       <c r="D428" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7871,7 +7913,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D429" t="s">
         <v>498</v>
@@ -7885,10 +7927,10 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D430" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7899,10 +7941,10 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D431" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7913,10 +7955,10 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D432" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7927,10 +7969,10 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D433" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7941,10 +7983,10 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="D434" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7955,10 +7997,10 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D435" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7969,10 +8011,10 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D436" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7983,10 +8025,10 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D437" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7997,10 +8039,10 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D438" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8011,10 +8053,10 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D439" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8025,10 +8067,10 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D440" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8039,10 +8081,10 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D441" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8053,10 +8095,10 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D442" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8067,10 +8109,10 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D443" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8081,10 +8123,10 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D444" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8095,10 +8137,10 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D445" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8109,10 +8151,10 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D446" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8123,10 +8165,10 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D447" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8137,10 +8179,10 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D448" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8151,10 +8193,10 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D449" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8165,10 +8207,10 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D450" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8179,10 +8221,10 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D451" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8193,10 +8235,10 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D452" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8207,10 +8249,10 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D453" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8221,10 +8263,10 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D454" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8235,10 +8277,10 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D455" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8252,7 +8294,7 @@
         <v>498</v>
       </c>
       <c r="D456" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8263,7 +8305,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D457" t="s">
         <v>498</v>
@@ -8277,10 +8319,10 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D458" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8291,10 +8333,10 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D459" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8305,10 +8347,10 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D460" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8319,10 +8361,10 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D461" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8333,10 +8375,10 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="D462" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8347,10 +8389,10 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D463" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8361,10 +8403,10 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D464" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8375,10 +8417,10 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D465" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8389,10 +8431,10 @@
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D466" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8403,10 +8445,10 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D467" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8417,10 +8459,10 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D468" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8431,10 +8473,206 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
+        <v>486</v>
+      </c>
+      <c r="D469" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>471</v>
+      </c>
+      <c r="C470" t="s">
+        <v>498</v>
+      </c>
+      <c r="D470" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
         <v>472</v>
       </c>
-      <c r="D469" t="s">
-        <v>488</v>
+      <c r="C471" t="s">
+        <v>486</v>
+      </c>
+      <c r="D471" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>473</v>
+      </c>
+      <c r="C472" t="s">
+        <v>503</v>
+      </c>
+      <c r="D472" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>474</v>
+      </c>
+      <c r="C473" t="s">
+        <v>486</v>
+      </c>
+      <c r="D473" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>475</v>
+      </c>
+      <c r="C474" t="s">
+        <v>498</v>
+      </c>
+      <c r="D474" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>476</v>
+      </c>
+      <c r="C475" t="s">
+        <v>486</v>
+      </c>
+      <c r="D475" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>477</v>
+      </c>
+      <c r="C476" t="s">
+        <v>506</v>
+      </c>
+      <c r="D476" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>478</v>
+      </c>
+      <c r="C477" t="s">
+        <v>486</v>
+      </c>
+      <c r="D477" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>479</v>
+      </c>
+      <c r="C478" t="s">
+        <v>508</v>
+      </c>
+      <c r="D478" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>480</v>
+      </c>
+      <c r="C479" t="s">
+        <v>486</v>
+      </c>
+      <c r="D479" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>481</v>
+      </c>
+      <c r="C480" t="s">
+        <v>511</v>
+      </c>
+      <c r="D480" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>482</v>
+      </c>
+      <c r="C481" t="s">
+        <v>486</v>
+      </c>
+      <c r="D481" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>483</v>
+      </c>
+      <c r="C482" t="s">
+        <v>511</v>
+      </c>
+      <c r="D482" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>484</v>
+      </c>
+      <c r="C483" t="s">
+        <v>486</v>
+      </c>
+      <c r="D483" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
